--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E5700-8BB3-46A8-A321-FA36F9E60CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C67F1D-E992-423D-BBD2-E661D5C2B7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="T1_Simulation" sheetId="1" r:id="rId1"/>
-    <sheet name="Result_Trait1" sheetId="2" r:id="rId2"/>
+    <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
+    <sheet name="T2_Result_Trait1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,16 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#Phenotypes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +69,14 @@
   </si>
   <si>
     <t>Type I Error(X2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Phenotypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phenotype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +405,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -416,19 +420,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -439,10 +443,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>70000</v>
+        <v>66688</v>
       </c>
       <c r="E2">
         <v>0.1</v>
@@ -459,10 +463,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>70000</v>
+        <v>66688</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -479,10 +483,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>70000</v>
+        <v>66688</v>
       </c>
       <c r="E4">
         <v>0.9</v>
@@ -499,10 +503,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>70000</v>
+        <v>66688</v>
       </c>
       <c r="E5">
         <v>0.1</v>
@@ -519,10 +523,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>70000</v>
+        <v>66688</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -539,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>70000</v>
+        <v>66688</v>
       </c>
       <c r="E7">
         <v>0.9</v>
@@ -559,10 +563,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>10000</v>
+        <v>2567</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -579,10 +583,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>10000</v>
+        <v>2567</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -599,10 +603,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>10000</v>
+        <v>2567</v>
       </c>
       <c r="E10">
         <v>0.9</v>
@@ -619,10 +623,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>10000</v>
+        <v>2567</v>
       </c>
       <c r="E11">
         <v>0.1</v>
@@ -639,10 +643,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>10000</v>
+        <v>2567</v>
       </c>
       <c r="E12">
         <v>0.5</v>
@@ -659,10 +663,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>10000</v>
+        <v>2567</v>
       </c>
       <c r="E13">
         <v>0.9</v>
@@ -680,37 +684,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C67F1D-E992-423D-BBD2-E661D5C2B7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1CC593-C8A5-4723-BB94-FCB27EC0C33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type I Error(X2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +73,22 @@
   </si>
   <si>
     <t>Phenotype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regenie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power, 5E-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power, 0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -684,10 +696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -697,29 +709,41 @@
     <col min="4" max="4" width="13.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>2E-3</v>
+      </c>
+      <c r="E2">
+        <v>0.18994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -727,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -735,7 +759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -743,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -751,15 +775,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.02</v>
+      </c>
+      <c r="E7">
+        <v>6.8125000000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -767,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -775,7 +808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -783,11 +816,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.1789000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
         <v>5</v>
       </c>
     </row>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1CC593-C8A5-4723-BB94-FCB27EC0C33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2D6E95-FA34-4673-B43B-AEF44D643EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>Power, 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,10 +700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -831,6 +835,15 @@
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>1E-3</v>
+      </c>
+      <c r="E12">
+        <v>0.52025999999999994</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -874,6 +887,9 @@
       <c r="C17">
         <v>1.4E-2</v>
       </c>
+      <c r="D17">
+        <v>1E-3</v>
+      </c>
       <c r="E17">
         <v>1.1789000000000001E-2</v>
       </c>
@@ -907,6 +923,55 @@
         <v>13</v>
       </c>
       <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D22">
+        <v>1E-3</v>
+      </c>
+      <c r="E22">
+        <v>7.5414000000000002E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
         <v>5</v>
       </c>
     </row>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2D6E95-FA34-4673-B43B-AEF44D643EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA57A76-F199-47B1-820B-26743008EDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>Plink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type I Error(P-value)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,10 +704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -711,9 +715,11 @@
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.9140625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -729,8 +735,11 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -746,40 +755,91 @@
       <c r="E2">
         <v>0.18994</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D3">
+        <v>2E-3</v>
+      </c>
+      <c r="E3">
+        <v>5.7216999999999997E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.81089999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>3.3700999999999999</v>
+      </c>
+      <c r="F4">
+        <v>6.6390000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>1E-3</v>
+      </c>
+      <c r="E5">
+        <v>4.7069000000000001E-4</v>
+      </c>
+      <c r="F5">
+        <v>0.98270000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>1E-3</v>
+      </c>
+      <c r="E6">
+        <v>0.31398999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.57520000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -790,45 +850,96 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>2E-3</v>
       </c>
       <c r="E7">
         <v>6.8125000000000005E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0.79410000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>1E-3</v>
+      </c>
+      <c r="E8">
+        <v>0.18994</v>
+      </c>
+      <c r="F8">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D9">
+        <v>2E-3</v>
+      </c>
+      <c r="E9">
+        <v>3.2877999999999998</v>
+      </c>
+      <c r="F9">
+        <v>6.9800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D10">
+        <v>1E-3</v>
+      </c>
+      <c r="E10">
+        <v>0.31398999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.57520000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>1E-3</v>
+      </c>
+      <c r="E11">
+        <v>0.36381999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.5464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -844,40 +955,91 @@
       <c r="E12">
         <v>0.52025999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>0.47070000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D13">
+        <v>1E-3</v>
+      </c>
+      <c r="E13">
+        <v>0.29747000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.58550000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0.02</v>
+      </c>
+      <c r="D14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>3.4533999999999998</v>
+      </c>
+      <c r="F14">
+        <v>6.3119999999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>1E-3</v>
+      </c>
+      <c r="E15">
+        <v>0.15104000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.69750000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D16">
+        <v>1E-3</v>
+      </c>
+      <c r="E16">
+        <v>0.77549000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.3785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -893,40 +1055,91 @@
       <c r="E17">
         <v>1.1789000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>0.91349999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D18">
+        <v>2E-3</v>
+      </c>
+      <c r="E18">
+        <v>4.6982000000000002E-4</v>
+      </c>
+      <c r="F18">
+        <v>0.98270000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E19">
+        <v>3.0472000000000001</v>
+      </c>
+      <c r="F19">
+        <v>8.0869999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>1E-3</v>
+      </c>
+      <c r="E20">
+        <v>1.1486000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.2838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D21">
+        <v>1E-3</v>
+      </c>
+      <c r="E21">
+        <v>0.63270000000000004</v>
+      </c>
+      <c r="F21">
+        <v>0.4264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -943,7 +1156,7 @@
         <v>7.5414000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -951,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -959,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -967,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA57A76-F199-47B1-820B-26743008EDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD8DC0-E3B9-4FF5-B3C1-BD9E70A01D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,28 @@
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
     <sheet name="T2_Result_Trait1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +108,10 @@
   </si>
   <si>
     <t>Type I Error(P-value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +132,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -140,8 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,10 +727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -841,22 +864,23 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D7">
-        <v>2E-3</v>
-      </c>
-      <c r="E7">
-        <v>6.8125000000000005E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.79410000000000003</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.7400000000000002E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:F7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.8000000000000002E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78634353800000001</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61963800000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -864,19 +888,19 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.7999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E8">
-        <v>0.18994</v>
+        <v>6.8125000000000005E-2</v>
       </c>
       <c r="F8">
-        <v>0.66300000000000003</v>
+        <v>0.79410000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -884,19 +908,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>2.3E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E9">
-        <v>3.2877999999999998</v>
+        <v>0.18994</v>
       </c>
       <c r="F9">
-        <v>6.9800000000000001E-2</v>
+        <v>0.66300000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -904,19 +928,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1.7000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D10">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E10">
-        <v>0.31398999999999999</v>
+        <v>3.2877999999999998</v>
       </c>
       <c r="F10">
-        <v>0.57520000000000004</v>
+        <v>6.9800000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,59 +948,60 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D11">
         <v>1E-3</v>
       </c>
       <c r="E11">
-        <v>0.36381999999999998</v>
+        <v>0.31398999999999999</v>
       </c>
       <c r="F11">
-        <v>0.5464</v>
+        <v>0.57520000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D12">
         <v>1E-3</v>
       </c>
       <c r="E12">
-        <v>0.52025999999999994</v>
+        <v>0.36381999999999998</v>
       </c>
       <c r="F12">
-        <v>0.47070000000000001</v>
+        <v>0.5464</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D13">
-        <v>1E-3</v>
-      </c>
-      <c r="E13">
-        <v>0.29747000000000001</v>
-      </c>
-      <c r="F13">
-        <v>0.58550000000000002</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <f>AVERAGE(D8:D12)</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:F13" si="1">AVERAGE(E8:E12)</f>
+        <v>0.84473500000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52970000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -984,19 +1009,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.02</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D14">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E14">
-        <v>3.4533999999999998</v>
+        <v>0.52025999999999994</v>
       </c>
       <c r="F14">
-        <v>6.3119999999999996E-2</v>
+        <v>0.47070000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1004,19 +1029,19 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>2.1000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D15">
         <v>1E-3</v>
       </c>
       <c r="E15">
-        <v>0.15104000000000001</v>
+        <v>0.29747000000000001</v>
       </c>
       <c r="F15">
-        <v>0.69750000000000001</v>
+        <v>0.58550000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1024,79 +1049,80 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>1.6E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D16">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E16">
-        <v>0.77549000000000001</v>
+        <v>3.4533999999999998</v>
       </c>
       <c r="F16">
-        <v>0.3785</v>
+        <v>6.3119999999999996E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>1.4E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D17">
         <v>1E-3</v>
       </c>
       <c r="E17">
-        <v>1.1789000000000001E-2</v>
+        <v>0.15104000000000001</v>
       </c>
       <c r="F17">
-        <v>0.91349999999999998</v>
+        <v>0.69750000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>1.9E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D18">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E18">
-        <v>4.6982000000000002E-4</v>
+        <v>0.77549000000000001</v>
       </c>
       <c r="F18">
-        <v>0.98270000000000002</v>
+        <v>0.3785</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E19">
-        <v>3.0472000000000001</v>
-      </c>
-      <c r="F19">
-        <v>8.0869999999999997E-2</v>
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1.8600000000000002E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:F19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0395319999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43906400000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1104,19 +1130,19 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D20">
         <v>1E-3</v>
       </c>
       <c r="E20">
-        <v>1.1486000000000001</v>
+        <v>1.1789000000000001E-2</v>
       </c>
       <c r="F20">
-        <v>0.2838</v>
+        <v>0.91349999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1124,60 +1150,100 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D21">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E21">
-        <v>0.63270000000000004</v>
+        <v>4.6982000000000002E-4</v>
       </c>
       <c r="F21">
-        <v>0.4264</v>
+        <v>0.98270000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>1.4E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D22">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E22">
-        <v>7.5414000000000002E-3</v>
+        <v>3.0472000000000001</v>
+      </c>
+      <c r="F22">
+        <v>8.0869999999999997E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D23">
+        <v>1E-3</v>
+      </c>
+      <c r="E23">
+        <v>1.1486000000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.2838</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D24">
+        <v>1E-3</v>
+      </c>
+      <c r="E24">
+        <v>0.63270000000000004</v>
+      </c>
+      <c r="F24">
+        <v>0.4264</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.66E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:F25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96815176399999991</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.53745399999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1185,7 +1251,120 @@
         <v>16</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D26">
+        <v>1E-3</v>
+      </c>
+      <c r="E26">
+        <v>7.5414000000000002E-3</v>
+      </c>
+      <c r="F26">
+        <v>0.93079999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D27">
+        <v>2E-3</v>
+      </c>
+      <c r="E27">
+        <v>4.6982000000000002E-4</v>
+      </c>
+      <c r="F27">
+        <v>0.98270000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E28">
+        <v>3.0472000000000001</v>
+      </c>
+      <c r="F28">
+        <v>8.0869999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D29">
+        <v>1E-3</v>
+      </c>
+      <c r="E29">
+        <v>1.3373999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.2475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D30">
+        <v>1E-3</v>
+      </c>
+      <c r="E30">
+        <v>2.6367999999999999E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1">
+        <f>AVERAGE(C26:C30)</f>
+        <v>1.66E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:F31" si="4">AVERAGE(D26:D30)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.883795844</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.62257399999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD8DC0-E3B9-4FF5-B3C1-BD9E70A01D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F042AEE-B4B0-4ED2-83DD-4B9C98122A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,23 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -162,9 +179,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,7 +749,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -870,15 +889,15 @@
         <f>AVERAGE(C2:C6)</f>
         <v>1.7400000000000002E-2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <f t="shared" ref="D7:F7" si="0">AVERAGE(D2:D6)</f>
         <v>1.8000000000000002E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0.78634353800000001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0.61963800000000002</v>
       </c>
@@ -1108,7 +1127,7 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <f>AVERAGE(C14:C18)</f>
         <v>1.8600000000000002E-2</v>
       </c>
@@ -1362,7 +1381,7 @@
         <f t="shared" si="4"/>
         <v>0.883795844</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <f t="shared" si="4"/>
         <v>0.62257399999999996</v>
       </c>
@@ -1370,5 +1389,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F042AEE-B4B0-4ED2-83DD-4B9C98122A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1131E537-4B06-4B6E-A3B3-B43E74160C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
     <sheet name="T2_Result_Trait1" sheetId="2" r:id="rId2"/>
+    <sheet name="T2_" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +113,38 @@
   </si>
   <si>
     <t>AVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.42G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.50G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.29G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total CPU Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.60G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:06:00:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.119G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,11 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,10 +780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -759,9 +793,11 @@
     <col min="4" max="4" width="13.9140625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
     <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -780,8 +816,14 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -801,7 +843,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -821,7 +863,7 @@
         <v>0.81089999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -841,7 +883,7 @@
         <v>6.6390000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -861,7 +903,7 @@
         <v>0.98270000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -881,7 +923,7 @@
         <v>0.57520000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -901,8 +943,14 @@
         <f t="shared" si="0"/>
         <v>0.61963800000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="4">
+        <v>0.47109953703703705</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -922,7 +970,7 @@
         <v>0.79410000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -942,7 +990,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -962,7 +1010,7 @@
         <v>6.9800000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -982,7 +1030,7 @@
         <v>0.57520000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1050,7 @@
         <v>0.5464</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1022,8 +1070,14 @@
         <f t="shared" si="1"/>
         <v>0.52970000000000006</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="4">
+        <v>0.26722222222222219</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1043,7 +1097,7 @@
         <v>0.47070000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1063,7 +1117,7 @@
         <v>0.58550000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1083,7 +1137,7 @@
         <v>6.3119999999999996E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1103,7 +1157,7 @@
         <v>0.69750000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1123,7 +1177,7 @@
         <v>0.3785</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1143,8 +1197,14 @@
         <f t="shared" si="2"/>
         <v>0.43906400000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="4">
+        <v>0.23657407407407408</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1224,7 @@
         <v>0.91349999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1184,7 +1244,7 @@
         <v>0.98270000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1264,7 @@
         <v>8.0869999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +1284,7 @@
         <v>0.2838</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1304,7 @@
         <v>0.4264</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1264,8 +1324,14 @@
         <f t="shared" si="3"/>
         <v>0.53745399999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="4">
+        <v>2.0208333333333335E-2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1285,7 +1351,7 @@
         <v>0.93079999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1305,7 +1371,7 @@
         <v>0.98270000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1325,7 +1391,7 @@
         <v>8.0869999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1345,7 +1411,7 @@
         <v>0.2475</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1365,7 +1431,7 @@
         <v>0.871</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1384,6 +1450,12 @@
       <c r="F31" s="2">
         <f t="shared" si="4"/>
         <v>0.62257399999999996</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1391,4 +1463,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11225FA-001A-452B-B018-0BA76F437E3E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1131E537-4B06-4B6E-A3B3-B43E74160C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE8AA11-1297-4442-9759-40E4023DE847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
-    <sheet name="T2_Result_Trait1" sheetId="2" r:id="rId2"/>
-    <sheet name="T2_" sheetId="3" r:id="rId3"/>
+    <sheet name="Trait1_Results" sheetId="2" r:id="rId2"/>
+    <sheet name="Trait2_Results" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,12 +212,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1467,12 +1468,420 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11225FA-001A-452B-B018-0BA76F437E3E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.9140625" customWidth="1"/>
+    <col min="2" max="2" width="15.4140625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17.58203125" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.4140625" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E2">
+        <v>6.4535999999999998</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.4509999999999996</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.02</v>
+      </c>
+      <c r="E4">
+        <v>15.302</v>
+      </c>
+      <c r="F4" s="5">
+        <v>9.1600000000000004E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E5">
+        <v>10.151999999999999</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>15.302</v>
+      </c>
+      <c r="F6" s="5">
+        <v>9.1600000000000004E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.502</v>
+      </c>
+      <c r="E8">
+        <v>0.24604000000000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.61990000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.8267000000000002E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.84489999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.97397</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.32369999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.6466000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.19939999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>6.8125000000000005E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.79410000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE8AA11-1297-4442-9759-40E4023DE847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4E477-B95C-492E-95CB-5EF5D6BFFCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11225FA-001A-452B-B018-0BA76F437E3E}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1616,10 +1616,22 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.18060000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:F7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.12940000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>10.532119999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4366399999999987E-3</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1726,10 +1738,22 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.16160000000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:F13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.11080000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59460040000000003</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55640000000000001</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1789,6 +1813,18 @@
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="E20">
+        <v>1.1789000000000001E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.91400000000000003</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1797,6 +1833,18 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E21">
+        <v>4.6982000000000002E-4</v>
+      </c>
+      <c r="F21">
+        <v>0.98270000000000002</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1805,6 +1853,18 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.1036999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.29349999999999998</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1813,6 +1873,18 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>0.03</v>
+      </c>
+      <c r="D23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.1074999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.14660000000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1821,15 +1893,39 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E24">
+        <v>5.3177000000000003</v>
+      </c>
+      <c r="F24">
+        <v>2.111E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.15880000000000002</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:F25" si="2">AVERAGE(D20:D24)</f>
+        <v>0.10880000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.708231764</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.471582</v>
+      </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1839,6 +1935,18 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D26">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="E26">
+        <v>3.0221999999999999E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.86199999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1847,6 +1955,18 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D27">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1855,6 +1975,18 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.1944999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.27439999999999998</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1863,6 +1995,18 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.9871000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.15859999999999999</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1871,15 +2015,39 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E30">
+        <v>5.4132999999999996</v>
+      </c>
+      <c r="F30">
+        <v>1.9980000000000001E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
+      <c r="C31" s="1">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.15900000000000003</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:F31" si="3">AVERAGE(D26:D30)</f>
+        <v>0.10880000000000001</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7250243999999999</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.46299599999999996</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4E477-B95C-492E-95CB-5EF5D6BFFCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB5760-1574-4CF1-AE94-2B30083277C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
     <sheet name="Trait1_Results" sheetId="2" r:id="rId2"/>
     <sheet name="Trait2_Results" sheetId="3" r:id="rId3"/>
+    <sheet name="Trait3_Results" sheetId="4" r:id="rId4"/>
+    <sheet name="Trait4_Results" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="27">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,7 +504,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -663,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2567</v>
+        <v>7896</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -683,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>2567</v>
+        <v>7896</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -703,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2567</v>
+        <v>7896</v>
       </c>
       <c r="E10">
         <v>0.9</v>
@@ -723,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>2567</v>
+        <v>7896</v>
       </c>
       <c r="E11">
         <v>0.1</v>
@@ -743,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2567</v>
+        <v>7896</v>
       </c>
       <c r="E12">
         <v>0.5</v>
@@ -763,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>2567</v>
+        <v>7896</v>
       </c>
       <c r="E13">
         <v>0.9</v>
@@ -1470,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11225FA-001A-452B-B018-0BA76F437E3E}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E14" sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2054,4 +2056,1209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3A14D-1289-4BD6-9B05-2DAAD3D257CE}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.9140625" customWidth="1"/>
+    <col min="2" max="2" width="12.9140625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="E2">
+        <v>301.58</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.2E-16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E3">
+        <v>245.76</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.2E-16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="D8">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="E8">
+        <v>12.742000000000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.5760000000000002E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E9">
+        <v>12.032999999999999</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5.2269999999999997E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E10">
+        <v>18.902000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.376E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E11">
+        <v>17.715</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2.5660000000000002E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>23.614999999999998</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.1769999999999999E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.20880000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:F13" si="0">AVERAGE(D8:D12)</f>
+        <v>0.15940000000000004</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>17.001399999999997</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.841794E-4</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.748</v>
+      </c>
+      <c r="D20">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.39008999999999999</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.5323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.06</v>
+      </c>
+      <c r="D21">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>2.6231</v>
+      </c>
+      <c r="F21">
+        <v>0.1053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0.04</v>
+      </c>
+      <c r="D22">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.56666000000000005</v>
+      </c>
+      <c r="F22">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>4.2335000000000003</v>
+      </c>
+      <c r="F23">
+        <v>3.9629999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>5.8040000000000003</v>
+      </c>
+      <c r="F24">
+        <v>1.5990000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:F25" si="1">AVERAGE(D20:D24)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7234699999999998</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.228964</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.748</v>
+      </c>
+      <c r="D26">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.29043000000000002</v>
+      </c>
+      <c r="F26">
+        <v>0.58989999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0.06</v>
+      </c>
+      <c r="D27">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E27">
+        <v>2.6231</v>
+      </c>
+      <c r="F27">
+        <v>0.1053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0.04</v>
+      </c>
+      <c r="D28">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.53498999999999997</v>
+      </c>
+      <c r="F28">
+        <v>0.46450000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>4.3193000000000001</v>
+      </c>
+      <c r="F29">
+        <v>3.7679999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D30">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E30">
+        <v>5.6070000000000002</v>
+      </c>
+      <c r="F30">
+        <v>1.789E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:F31" si="2">AVERAGE(D26:D30)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6749640000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24305399999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2C2262-D4CD-4119-9A2F-0BCDC716C93A}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="10.58203125" customWidth="1"/>
+    <col min="3" max="3" width="13.9140625" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="13.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E2">
+        <v>1.5698000000000001</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.2102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1.55E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E3">
+        <v>7.5068000000000001E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.33489999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E5">
+        <v>0.3473</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.55559999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1.49E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E6">
+        <v>5.4509999999999996</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.9560000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>2.3220000000000001E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:F7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6610613600000002</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41025199999999995</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.34620000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>1.4601999999999999</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.22689999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E11">
+        <v>6.8125000000000005E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.79410000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1.52E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E12">
+        <v>5.5579999999999998</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>2.308E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:F13" si="1">AVERAGE(D8:D12)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.594765</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4771200000000001</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>1.4601999999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.22689999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E15">
+        <v>1.8783999999999999E-3</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.96540000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E16">
+        <v>2.9691999999999998</v>
+      </c>
+      <c r="F16" s="5">
+        <v>8.4870000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1.66E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="E17">
+        <v>0.20951</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.6472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E18">
+        <v>2.8921000000000001</v>
+      </c>
+      <c r="F18" s="5">
+        <v>8.9010000000000006E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>2.3779999999999999E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:F19" si="2">AVERAGE(D14:D18)</f>
+        <v>9.2000000000000014E-4</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5065776799999999</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40267599999999992</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1.24E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.1789000000000001E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.91349999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4.02E-2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>4.6982000000000002E-4</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.98270000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E22">
+        <v>1.1036999999999999</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.29349999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.1074999999999999</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.14660000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.04</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E24">
+        <v>5.3177000000000003</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2.111E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>3.7520000000000005E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:F25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.1239999999999998E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.708231764</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47148199999999996</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>1.4601999999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.22689999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E27">
+        <v>1.8783999999999999E-3</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.96540000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="D28" s="5">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E28">
+        <v>3.2065999999999999</v>
+      </c>
+      <c r="F28" s="5">
+        <v>7.3340000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1.61E-2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E29">
+        <v>0.15104000000000001</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.69750000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>1.49E-2</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E30">
+        <v>3.972</v>
+      </c>
+      <c r="F30" s="5">
+        <v>4.6260000000000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1">
+        <f>AVERAGE(C26:C30)</f>
+        <v>2.298E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:E31" si="4">AVERAGE(D26:D30)</f>
+        <v>9.5999999999999992E-4</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7583436800000001</v>
+      </c>
+      <c r="F31" s="1">
+        <f>AVERAGE(F26:F30)</f>
+        <v>0.40187999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB5760-1574-4CF1-AE94-2B30083277C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C77987-BAA9-4459-91A3-EB6DC169690E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +193,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,13 +222,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2062,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3A14D-1289-4BD6-9B05-2DAAD3D257CE}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2606,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2C2262-D4CD-4119-9A2F-0BCDC716C93A}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:F31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2623,642 +2634,704 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>1.5698000000000001</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>0.2102</v>
       </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>1.55E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>7.5068000000000001E-3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>0.93100000000000005</v>
       </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>0.92969999999999997</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>0.33489999999999998</v>
       </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>0.3473</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>0.55559999999999998</v>
       </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>1.49E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>5.4509999999999996</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>1.9560000000000001E-2</v>
       </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="3">
         <f>AVERAGE(C2:C6)</f>
         <v>2.3220000000000001E-2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <f t="shared" ref="D7:F7" si="0">AVERAGE(D2:D6)</f>
         <v>1.0399999999999999E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>1.6610613600000002</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0.41025199999999995</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>0.88749999999999996</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>0.34620000000000001</v>
       </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <v>1</v>
       </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>1.4601999999999999</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <v>0.22689999999999999</v>
       </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>6.8125000000000005E-2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <v>0.79410000000000003</v>
       </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>1.52E-2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>5.5579999999999998</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <v>1.84E-2</v>
       </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3">
         <f>AVERAGE(C8:C12)</f>
         <v>2.308E-2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <f t="shared" ref="D13:F13" si="1">AVERAGE(D8:D12)</f>
         <v>1E-3</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>1.594765</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>0.4771200000000001</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>1.4601999999999999</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="7">
         <v>0.22689999999999999</v>
       </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="7">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>1.8783999999999999E-3</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="7">
         <v>0.96540000000000004</v>
       </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>2.9691999999999998</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="7">
         <v>8.4870000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>1.66E-2</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>0.20951</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="7">
         <v>0.6472</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>2.8921000000000001</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="7">
         <v>8.9010000000000006E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="3">
         <f>AVERAGE(C14:C18)</f>
         <v>2.3779999999999999E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <f t="shared" ref="D19:F19" si="2">AVERAGE(D14:D18)</f>
         <v>9.2000000000000014E-4</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <f t="shared" si="2"/>
         <v>1.5065776799999999</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <f t="shared" si="2"/>
         <v>0.40267599999999992</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="7">
         <v>1.24E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>1.1789000000000001E-2</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="7">
         <v>0.91349999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>4.02E-2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>4.6982000000000002E-4</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="7">
         <v>0.98270000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="7">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>1.1036999999999999</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="7">
         <v>0.29349999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>2.1074999999999999</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="7">
         <v>0.14660000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>0.04</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="7">
         <v>1.18E-2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>5.3177000000000003</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="7">
         <v>2.111E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="1">
+      <c r="B25" s="6"/>
+      <c r="C25" s="2">
         <f>AVERAGE(C20:C24)</f>
         <v>3.7520000000000005E-2</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <f t="shared" ref="D25:F25" si="3">AVERAGE(D20:D24)</f>
         <v>1.1239999999999998E-2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <f t="shared" si="3"/>
         <v>1.708231764</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <f t="shared" si="3"/>
         <v>0.47148199999999996</v>
       </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>1.4601999999999999</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="7">
         <v>0.22689999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>2</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="7">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>1.8783999999999999E-3</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="7">
         <v>0.96540000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="7">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <v>3.2065999999999999</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="7">
         <v>7.3340000000000002E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>1.61E-2</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="7">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>0.15104000000000001</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="7">
         <v>0.69750000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>1.49E-2</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="7">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
         <v>3.972</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="7">
         <v>4.6260000000000003E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="1">
+      <c r="B31" s="6"/>
+      <c r="C31" s="3">
         <f>AVERAGE(C26:C30)</f>
         <v>2.298E-2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <f t="shared" ref="D31:E31" si="4">AVERAGE(D26:D30)</f>
         <v>9.5999999999999992E-4</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
         <f t="shared" si="4"/>
         <v>1.7583436800000001</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <f>AVERAGE(F26:F30)</f>
         <v>0.40187999999999996</v>
       </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C77987-BAA9-4459-91A3-EB6DC169690E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC35E9A-00B0-4AF2-B2EA-A9236EE84F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="30">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>0.119G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -525,7 +537,7 @@
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +556,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -564,8 +579,11 @@
       <c r="F2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -584,8 +602,11 @@
       <c r="F3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -604,8 +625,11 @@
       <c r="F4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -624,8 +648,11 @@
       <c r="F5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -644,8 +671,11 @@
       <c r="F6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -664,8 +694,11 @@
       <c r="F7">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -684,8 +717,11 @@
       <c r="F8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -704,8 +740,11 @@
       <c r="F9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -724,8 +763,11 @@
       <c r="F10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -744,8 +786,11 @@
       <c r="F11">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -764,8 +809,11 @@
       <c r="F12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -783,6 +831,837 @@
       </c>
       <c r="F13">
         <v>10000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>66688</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>66688</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>66688</v>
+      </c>
+      <c r="E16">
+        <v>0.9</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>66688</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
+        <v>10000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>66688</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>10000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>66688</v>
+      </c>
+      <c r="E19">
+        <v>0.9</v>
+      </c>
+      <c r="F19">
+        <v>10000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>7896</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>7896</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>7896</v>
+      </c>
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="F22">
+        <v>1000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>7896</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23">
+        <v>10000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>7896</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>10000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>7896</v>
+      </c>
+      <c r="E25">
+        <v>0.9</v>
+      </c>
+      <c r="F25">
+        <v>10000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>66688</v>
+      </c>
+      <c r="E26">
+        <v>0.1</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>66688</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>66688</v>
+      </c>
+      <c r="E28">
+        <v>0.9</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>66688</v>
+      </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <v>10000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>66688</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>10000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>66688</v>
+      </c>
+      <c r="E31">
+        <v>0.9</v>
+      </c>
+      <c r="F31">
+        <v>10000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>7896</v>
+      </c>
+      <c r="E32">
+        <v>0.1</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>7896</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>1000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>7896</v>
+      </c>
+      <c r="E34">
+        <v>0.9</v>
+      </c>
+      <c r="F34">
+        <v>1000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>7896</v>
+      </c>
+      <c r="E35">
+        <v>0.1</v>
+      </c>
+      <c r="F35">
+        <v>10000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>7896</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>10000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>7896</v>
+      </c>
+      <c r="E37">
+        <v>0.9</v>
+      </c>
+      <c r="F37">
+        <v>10000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>66688</v>
+      </c>
+      <c r="E38">
+        <v>0.1</v>
+      </c>
+      <c r="F38">
+        <v>1000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>66688</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>1000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>66688</v>
+      </c>
+      <c r="E40">
+        <v>0.9</v>
+      </c>
+      <c r="F40">
+        <v>1000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>66688</v>
+      </c>
+      <c r="E41">
+        <v>0.1</v>
+      </c>
+      <c r="F41">
+        <v>10000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>66688</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>10000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <v>66688</v>
+      </c>
+      <c r="E43">
+        <v>0.9</v>
+      </c>
+      <c r="F43">
+        <v>10000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <v>7896</v>
+      </c>
+      <c r="E44">
+        <v>0.1</v>
+      </c>
+      <c r="F44">
+        <v>1000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>7896</v>
+      </c>
+      <c r="E45">
+        <v>0.5</v>
+      </c>
+      <c r="F45">
+        <v>1000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>7896</v>
+      </c>
+      <c r="E46">
+        <v>0.9</v>
+      </c>
+      <c r="F46">
+        <v>1000</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47">
+        <v>7896</v>
+      </c>
+      <c r="E47">
+        <v>0.1</v>
+      </c>
+      <c r="F47">
+        <v>10000</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48">
+        <v>7896</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>10000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>7896</v>
+      </c>
+      <c r="E49">
+        <v>0.9</v>
+      </c>
+      <c r="F49">
+        <v>10000</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +1675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC35E9A-00B0-4AF2-B2EA-A9236EE84F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82210B61-8576-4752-8AC6-04DFC77773CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Trait2_Results" sheetId="3" r:id="rId3"/>
     <sheet name="Trait3_Results" sheetId="4" r:id="rId4"/>
     <sheet name="Trait4_Results" sheetId="5" r:id="rId5"/>
+    <sheet name="Trait5_Results" sheetId="6" r:id="rId6"/>
+    <sheet name="Trait6_Results" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="30">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -2952,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3A14D-1289-4BD6-9B05-2DAAD3D257CE}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3496,8 +3498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2C2262-D4CD-4119-9A2F-0BCDC716C93A}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4213,4 +4215,1079 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE257CF-B10A-4384-A656-F327A1992158}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="A1:H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="10.9140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.9140625" customWidth="1"/>
+    <col min="6" max="6" width="17.4140625" customWidth="1"/>
+    <col min="7" max="7" width="13.9140625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D2" s="6">
+        <v>9.74E-2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5.2401999999999997</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2.2069999999999999E-2</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.1724E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.2458999999999998</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.27401999999999999</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5.16E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.21E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.6875000000000001E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.37367</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4.87E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6.7312999999999998E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.9232</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.2957999999999999E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.1724E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.25719999999999998</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1.0170999999999999</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.31319999999999998</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.10659</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.8161999999999998</v>
+      </c>
+      <c r="F16" s="7">
+        <v>9.332E-2</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5.11E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.33489999999999998</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.37367</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2.3127999999999999E-2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.45867999999999998</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1.6262000000000001</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2.6913999999999998</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.1009</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1.04E-2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.3867</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0043F160-E904-4E92-8933-18F9C8B6441C}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82210B61-8576-4752-8AC6-04DFC77773CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E070A42-BE03-45D0-8F93-70DAEA9C4297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,6 +246,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4845,10 +4847,20 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="17.9140625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
@@ -4883,10 +4895,18 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="6">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E2" s="6">
+        <v>48.094999999999999</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4.0609999999999998E-12</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
@@ -4897,10 +4917,18 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="6">
+        <v>0.1275</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5.45E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2.3879999999999999E-10</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
@@ -4911,10 +4939,18 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="C4" s="6">
+        <v>0.1206</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>98.632000000000005</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.2E-16</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
@@ -4925,10 +4961,18 @@
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="6">
+        <v>0.1211</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>58.860999999999997</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.6919999999999999E-14</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
@@ -4939,10 +4983,18 @@
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="6">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4.99E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>64.516000000000005</v>
+      </c>
+      <c r="F6" s="7">
+        <v>9.573E-16</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
@@ -4965,10 +5017,18 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="6">
+        <v>0.43859999999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.223</v>
+      </c>
+      <c r="E8" s="6">
+        <v>9.8927999999999994</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.6590000000000001E-3</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
@@ -4979,10 +5039,18 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="6">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3.3439999999999999</v>
+      </c>
+      <c r="F9" s="7">
+        <v>6.7449999999999996E-2</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
@@ -4993,10 +5061,18 @@
       <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="6">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>9.1536999999999993E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.76219999999999999</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
@@ -5007,10 +5083,18 @@
       <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="6">
+        <v>0.1002</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>58.341999999999999</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2.202E-14</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
@@ -5021,10 +5105,18 @@
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="6">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>29.843</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4.6849999999999999E-8</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
@@ -5047,10 +5139,18 @@
       <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="6">
+        <v>0.41570000000000001</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.4891000000000001</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.11459999999999999</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
@@ -5061,10 +5161,18 @@
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="6">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.2888999999999999</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.25629999999999997</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
@@ -5075,10 +5183,18 @@
       <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="6">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2.64E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>7.9989000000000005E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.77729999999999999</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
@@ -5089,10 +5205,18 @@
       <c r="B17" s="6">
         <v>4</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="6">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>7.4950999999999999</v>
+      </c>
+      <c r="F17" s="7">
+        <v>6.1869999999999998E-3</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
@@ -5103,10 +5227,18 @@
       <c r="B18" s="6">
         <v>5</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
+      <c r="C18" s="6">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1.1724E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.91379999999999995</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
@@ -5129,10 +5261,6 @@
       <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
@@ -5143,10 +5271,6 @@
       <c r="B21" s="6">
         <v>2</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
@@ -5157,10 +5281,6 @@
       <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
@@ -5171,10 +5291,6 @@
       <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
@@ -5211,10 +5327,18 @@
       <c r="B26" s="6">
         <v>1</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
+      <c r="C26" s="6">
+        <v>0.35020000000000001</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="E26" s="6">
+        <v>11.755000000000001</v>
+      </c>
+      <c r="F26" s="7">
+        <v>6.0689999999999995E-4</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
@@ -5225,10 +5349,18 @@
       <c r="B27" s="6">
         <v>2</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
+      <c r="C27" s="6">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3.5766</v>
+      </c>
+      <c r="F27" s="7">
+        <v>5.8599999999999999E-2</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
@@ -5239,10 +5371,18 @@
       <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
+      <c r="C28" s="9">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.63270000000000004</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.4264</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
@@ -5253,10 +5393,18 @@
       <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
+      <c r="C29" s="9">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>24.382000000000001</v>
+      </c>
+      <c r="F29" s="7">
+        <v>7.9009999999999996E-7</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
@@ -5267,10 +5415,18 @@
       <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
+      <c r="C30" s="9">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1.95E-2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>7.0532000000000004</v>
+      </c>
+      <c r="F30" s="7">
+        <v>7.9120000000000006E-3</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
@@ -5289,5 +5445,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E070A42-BE03-45D0-8F93-70DAEA9C4297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2FF683-E9F1-4D59-971B-15709C49661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Trait4_Results" sheetId="5" r:id="rId5"/>
     <sheet name="Trait5_Results" sheetId="6" r:id="rId6"/>
     <sheet name="Trait6_Results" sheetId="7" r:id="rId7"/>
+    <sheet name="Trait7_Results" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="30">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,8 +247,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2956,7 +2955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3A14D-1289-4BD6-9B05-2DAAD3D257CE}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -4846,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0043F160-E904-4E92-8933-18F9C8B6441C}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5371,7 +5370,7 @@
       <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>7.5300000000000006E-2</v>
       </c>
       <c r="D28" s="7">
@@ -5380,7 +5379,7 @@
       <c r="E28" s="6">
         <v>0.63270000000000004</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="7">
         <v>0.4264</v>
       </c>
       <c r="G28" s="6"/>
@@ -5393,7 +5392,7 @@
       <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>7.5300000000000006E-2</v>
       </c>
       <c r="D29" s="7">
@@ -5415,7 +5414,7 @@
       <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>7.4099999999999999E-2</v>
       </c>
       <c r="D30" s="7">
@@ -5447,4 +5446,467 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F79F0E7-5AA4-486A-8115-846DCE711579}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.08203125" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" customWidth="1"/>
+    <col min="3" max="3" width="12.4140625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.8365</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.1754</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.3567999999999999E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.878</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2FF683-E9F1-4D59-971B-15709C49661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8087712-7F0E-422E-84D2-3A9A228C3B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8087712-7F0E-422E-84D2-3A9A228C3B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7164A4F-AB4D-42B9-8C37-8CECC31B4008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -217,12 +217,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -247,6 +259,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -908,7 +928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -931,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -954,7 +974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -977,7 +997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1000,7 +1020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1023,7 +1043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1046,7 +1066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1069,7 +1089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1092,7 +1112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1115,7 +1135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1137,8 +1157,17 @@
       <c r="G26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>0.1</v>
+      </c>
+      <c r="J26">
+        <v>0.01</v>
+      </c>
+      <c r="K26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1161,7 +1190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1184,7 +1213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1207,7 +1236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1230,7 +1259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1253,7 +1282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1679,7 +1708,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2365,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11225FA-001A-452B-B018-0BA76F437E3E}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2956,7 +2985,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3500,7 +3529,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:H31"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4222,8 +4251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE257CF-B10A-4384-A656-F327A1992158}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:H31"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4379,10 +4408,22 @@
         <v>18</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="3">
+        <f>AVERAGE(C2:C6)</f>
+        <v>9.9959999999999993E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:F7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.9180000000000001E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5577437999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51341399999999993</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="6"/>
     </row>
@@ -4501,10 +4542,22 @@
         <v>18</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="3">
+        <f>AVERAGE(C8:C12)</f>
+        <v>9.1780000000000014E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13:F13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.4640000000000002E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47977300000000006</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.65904000000000007</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
     </row>
@@ -4623,10 +4676,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="3">
+        <f>AVERAGE(C14:C18)</f>
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19:E19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.402E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0486519999999999</v>
+      </c>
+      <c r="F19" s="3">
+        <f>AVERAGE(F14:F18)</f>
+        <v>0.405304</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
     </row>
@@ -4827,10 +4892,22 @@
         <v>18</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="3">
+        <f>AVERAGE(C26:C30)</f>
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" ref="D31:E31" si="3">AVERAGE(D26:D30)</f>
+        <v>2.1840000000000005E-2</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2372216</v>
+      </c>
+      <c r="F31" s="3">
+        <f>AVERAGE(F26:F30)</f>
+        <v>0.38388</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
@@ -4846,600 +4923,649 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:H31"/>
+      <selection activeCell="F3" sqref="F3:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="17.9140625" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.9140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>0.54390000000000005</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="9">
         <v>0.34200000000000003</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
         <v>48.094999999999999</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <v>4.0609999999999998E-12</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>0.1275</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>5.45E-2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>40.119999999999997</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <v>2.3879999999999999E-10</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>0.1206</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="9">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>98.632000000000005</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>2.2E-16</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>0.1211</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>58.860999999999997</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="9">
         <v>1.6919999999999999E-14</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
         <v>0.12520000000000001</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>4.99E-2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="9">
         <v>64.516000000000005</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="9">
         <v>9.573E-16</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="11">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.20766000000000001</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" ref="D7:F7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.10954000000000001</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>62.044799999999995</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>4.8575819459999997E-11</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>0.43859999999999999</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>0.223</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>9.8927999999999994</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="9">
         <v>1.6590000000000001E-3</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="9">
         <v>9.8900000000000002E-2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="9">
         <v>3.3439999999999999</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="9">
         <v>6.7449999999999996E-2</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="9">
         <v>3</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9">
         <v>9.1536999999999993E-2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="9">
         <v>0.76219999999999999</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="9">
         <v>4</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>0.1002</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="9">
         <v>58.341999999999999</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="9">
         <v>2.202E-14</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="9">
         <v>29.843</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="9">
         <v>4.6849999999999999E-8</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.16571999999999998</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" ref="D13:F13" si="1">AVERAGE(D8:D12)</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
+        <v>20.302667400000001</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.1662618093700044</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="9">
         <v>0.41570000000000001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>0.20250000000000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="9">
         <v>2.4891000000000001</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="9">
         <v>0.11459999999999999</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="9">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>3.1E-2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="9">
         <v>1.2888999999999999</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="9">
         <v>0.25629999999999997</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="9">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>2.64E-2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="9">
         <v>7.9989000000000005E-2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="9">
         <v>0.77729999999999999</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="9">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="9">
         <v>7.4950999999999999</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="9">
         <v>6.1869999999999998E-3</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="9">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="9">
         <v>1.1724E-2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="9">
         <v>0.91379999999999995</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" ref="D19:F19" si="2">AVERAGE(D14:D18)</f>
+        <v>6.3760000000000011E-2</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="2"/>
+        <v>2.2729626000000001</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="2"/>
+        <v>0.41363739999999999</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="9">
         <v>1</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="9">
         <v>2</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="9">
         <v>3</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="9">
         <v>4</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="9">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="9">
         <v>1</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="9">
         <v>0.35020000000000001</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="9">
         <v>0.14649999999999999</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="9">
         <v>11.755000000000001</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="9">
         <v>6.0689999999999995E-4</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="9">
         <v>2</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="9">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="9">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="9">
         <v>3.5766</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="9">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="9">
         <v>3</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="9">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="9">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="9">
         <v>0.63270000000000004</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="9">
         <v>0.4264</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="9">
         <v>4</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="9">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="9">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="9">
         <v>24.382000000000001</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="9">
         <v>7.9009999999999996E-7</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
-        <v>5</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="9">
+        <v>5</v>
+      </c>
+      <c r="C30" s="9">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="9">
         <v>1.95E-2</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="9">
         <v>7.0532000000000004</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="9">
         <v>7.9120000000000006E-3</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="11">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.1298</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" ref="D31:F31" si="3">AVERAGE(D26:D30)</f>
+        <v>4.6260000000000003E-2</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="3"/>
+        <v>9.4799000000000007</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="3"/>
+        <v>9.8703938019999993E-2</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5453,7 +5579,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5469,440 +5595,700 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="C2" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <v>1.8365</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <v>0.1754</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
-        <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D3" s="13">
         <v>0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>2.3567999999999999E-2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <v>0.878</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="C4" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.54496999999999995</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.46039999999999998</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="C5" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.6578999999999999</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.19789999999999999</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>9.3261999999999998E-2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.7601</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.2199999999999999E-2</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" ref="D7:F7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.83123999999999998</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.49436000000000002</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="C8" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.6578999999999999</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.19789999999999999</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>7.6848999999999997E-3</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="9">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="C10" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.57723000000000002</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.44740000000000002</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="9">
         <v>4</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="C11" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.544</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.214</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.17136999999999999</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.67889999999999995</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.2199999999999999E-2</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" ref="D13:F13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.79163698000000005</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>0.49366000000000004</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="C14" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.97289000000000003</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="C15" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.44535000000000002</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="C16" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.11945</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="C17" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.3822000000000001</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.1227</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="B18" s="9">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1.1600000000000001E-2</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" ref="D19:F19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="2"/>
+        <v>0.78397800000000006</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5361800000000001</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="9">
         <v>1</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="C20" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.10659</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="9">
         <v>2</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="C21" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.17133999999999999</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.67889999999999995</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="9">
         <v>3</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="C22" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2.1137000000000001</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="9">
         <v>4</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="C23" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.10503</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="9">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.2306</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="15">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" ref="D25:F25" si="3">AVERAGE(D20:D24)</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="3"/>
+        <v>0.7867320000000001</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="3"/>
+        <v>0.50909999999999989</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="9">
         <v>1</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="C26" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D26" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.18994</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="9">
         <v>2</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="C27" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.25155</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="9">
         <v>3</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="C28" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2.5945</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.1072</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="9">
         <v>4</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="C29" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3.7915999999999998E-2</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.84560000000000002</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
-        <v>5</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="B30" s="9">
+        <v>5</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1.3373999999999999</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.2475</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="15">
+        <f>AVERAGE(C26:C30)</f>
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" ref="D31:F31" si="4">AVERAGE(D26:D30)</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.88226119999999997</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.49585999999999997</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7164A4F-AB4D-42B9-8C37-8CECC31B4008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9724D-379F-4610-9884-4CD014C43C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Trait5_Results" sheetId="6" r:id="rId6"/>
     <sheet name="Trait6_Results" sheetId="7" r:id="rId7"/>
     <sheet name="Trait7_Results" sheetId="8" r:id="rId8"/>
+    <sheet name="Trait8_Results" sheetId="9" r:id="rId9"/>
+    <sheet name="Trait9_Results" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="30">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,14 +261,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1700,6 +1698,726 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B0F070-3E08-4252-BC5E-AB830153CFAB}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.4140625" customWidth="1"/>
+    <col min="8" max="8" width="20.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3.5217000000000001</v>
+      </c>
+      <c r="F2" s="6">
+        <v>6.0569999999999999E-2</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.7223000000000002</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5.3690000000000002E-2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.27279999999999999</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.60150000000000003</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.544</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.214</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.6269</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.1469999999999998E-2</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <f>AVERAGE(C2:C6)</f>
+        <v>2.2600000000000002E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>2.7375400000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.192246</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.0276999999999998</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8.1860000000000002E-2</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.3567999999999999E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.878</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.90468999999999999</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5.1341000000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2.3460000000000002E-2</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="3">AVERAGE(D8:D12)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13" si="4">AVERAGE(E8:E12)</f>
+        <v>2.1758116000000003</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13" si="5">AVERAGE(F8:F12)</f>
+        <v>0.30116399999999999</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10.021000000000001</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1.5479999999999999E-3</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>25.75</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3.8860000000000003E-7</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.0643000000000002</v>
+      </c>
+      <c r="F16" s="6">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>8.2988</v>
+      </c>
+      <c r="F17">
+        <v>3.967E-3</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.31398999999999999</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <f>AVERAGE(C14:C18)</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19" si="6">AVERAGE(D14:D18)</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19" si="7">AVERAGE(E14:E18)</f>
+        <v>9.6896179999999994</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ref="F19" si="8">AVERAGE(F14:F18)</f>
+        <v>0.12490307772000001</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.63270000000000004</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.4264</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>6.8125000000000005E-2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.9729999999999999</v>
+      </c>
+      <c r="F22" s="7">
+        <v>8.4659999999999999E-2</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.53498999999999997</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.46450000000000002</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.2039</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.1800000000000001E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25" si="9">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ref="E25" si="10">AVERAGE(E20:E24)</f>
+        <v>1.0825429999999998</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ref="F25" si="11">AVERAGE(F20:F24)</f>
+        <v>0.40843200000000002</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.158</v>
+      </c>
+      <c r="E26" s="6">
+        <v>17.547999999999998</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2.8010000000000001E-5</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E27" s="6">
+        <v>30.693000000000001</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3.0220000000000002E-8</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E28" s="6">
+        <v>18.559000000000001</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1.647E-5</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="E29" s="6">
+        <v>9.7654999999999994</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1.7780000000000001E-3</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="E30" s="6">
+        <v>77.590999999999994</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2.2E-16</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <f>AVERAGE(C26:C30)</f>
+        <v>9.4400000000000012E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" ref="D31:F31" si="12">AVERAGE(D26:D30)</f>
+        <v>3.3600000000000005E-2</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="12"/>
+        <v>30.831299999999999</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="12"/>
+        <v>3.6450204400004401E-4</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3529,7 +4247,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C7" sqref="C7:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4923,649 +5641,648 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.9140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="10"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="17.9140625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>0.54390000000000005</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>0.34200000000000003</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>48.094999999999999</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>4.0609999999999998E-12</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>0.1275</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>5.45E-2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>40.119999999999997</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>2.3879999999999999E-10</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>0.1206</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>98.632000000000005</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>2.2E-16</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>0.1211</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>58.860999999999997</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>1.6919999999999999E-14</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.12520000000000001</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>4.99E-2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>64.516000000000005</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>9.573E-16</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="11">
+      <c r="B7" s="6"/>
+      <c r="C7" s="3">
         <f>AVERAGE(C2:C6)</f>
         <v>0.20766000000000001</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="3">
         <f t="shared" ref="D7:F7" si="0">AVERAGE(D2:D6)</f>
         <v>0.10954000000000001</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>62.044799999999995</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>4.8575819459999997E-11</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>0.43859999999999999</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>0.223</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>9.8927999999999994</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>1.6590000000000001E-3</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>9.8900000000000002E-2</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>3.3439999999999999</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>6.7449999999999996E-2</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>9.1536999999999993E-2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>0.76219999999999999</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>0.1002</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>58.341999999999999</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>2.202E-14</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>29.843</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>4.6849999999999999E-8</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3">
         <f>AVERAGE(C8:C12)</f>
         <v>0.16571999999999998</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="3">
         <f t="shared" ref="D13:F13" si="1">AVERAGE(D8:D12)</f>
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>20.302667400000001</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
         <v>0.1662618093700044</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>0.41570000000000001</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>0.20250000000000001</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>2.4891000000000001</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>0.11459999999999999</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>3.1E-2</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>1.2888999999999999</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>0.25629999999999997</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>2.64E-2</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>7.9989000000000005E-2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>0.77729999999999999</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>4</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>7.4950999999999999</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>6.1869999999999998E-3</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="9">
-        <v>5</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>1.1724E-2</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>0.91379999999999995</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11">
+      <c r="B19" s="6"/>
+      <c r="C19" s="3">
         <f>AVERAGE(C14:C18)</f>
         <v>0.15379999999999999</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="3">
         <f t="shared" ref="D19:F19" si="2">AVERAGE(D14:D18)</f>
         <v>6.3760000000000011E-2</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="3">
         <f t="shared" si="2"/>
         <v>2.2729626000000001</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="3">
         <f t="shared" si="2"/>
         <v>0.41363739999999999</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="6">
         <v>2</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9">
-        <v>5</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="6">
         <v>1</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>0.35020000000000001</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="6">
         <v>0.14649999999999999</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>11.755000000000001</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="6">
         <v>6.0689999999999995E-4</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="6">
         <v>2</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="6">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>3.5766</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="6">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="6">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>0.63270000000000004</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="6">
         <v>0.4264</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="6">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>24.382000000000001</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="6">
         <v>7.9009999999999996E-7</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="9">
-        <v>5</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>1.95E-2</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>7.0532000000000004</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>7.9120000000000006E-3</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="11">
+      <c r="B31" s="6"/>
+      <c r="C31" s="3">
         <f>AVERAGE(C26:C30)</f>
         <v>0.1298</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="3">
         <f t="shared" ref="D31:F31" si="3">AVERAGE(D26:D30)</f>
         <v>4.6260000000000003E-2</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="3">
         <f t="shared" si="3"/>
         <v>9.4799000000000007</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="3">
         <f t="shared" si="3"/>
         <v>9.8703938019999993E-2</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5579,7 +6296,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5595,700 +6312,1393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>1.8365</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>0.1754</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>2.3567999999999999E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>0.878</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>0.01</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>0.54496999999999995</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>0.46039999999999998</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>1.6578999999999999</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>0.19789999999999999</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>9.3261999999999998E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>0.7601</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11">
+      <c r="C7" s="3">
         <f>AVERAGE(C2:C6)</f>
         <v>1.2199999999999999E-2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <f t="shared" ref="D7:F7" si="0">AVERAGE(D2:D6)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>0.83123999999999998</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0.49436000000000002</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>1.6578999999999999</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>0.19789999999999999</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>7.6848999999999997E-3</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>0.93010000000000004</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>0.01</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>0.57723000000000002</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>0.44740000000000002</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>1.544</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>0.214</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>0.17136999999999999</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>0.67889999999999995</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11">
+      <c r="C13" s="3">
         <f>AVERAGE(C8:C12)</f>
         <v>1.2199999999999999E-2</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <f t="shared" ref="D13:F13" si="1">AVERAGE(D8:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>0.79163698000000005</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
         <v>0.49366000000000004</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>0.97289000000000003</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>0.32400000000000001</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>0.44535000000000002</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>0.50460000000000005</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>0.11945</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>0.72960000000000003</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>4</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="9">
         <v>0</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>2.3822000000000001</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>0.1227</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="9">
-        <v>5</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
         <v>0.01</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>0</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>1</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11">
+      <c r="C19" s="3">
         <f>AVERAGE(C14:C18)</f>
         <v>1.1600000000000001E-2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <f t="shared" ref="D19:F19" si="2">AVERAGE(D14:D18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="12">
         <f t="shared" si="2"/>
         <v>0.78397800000000006</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="12">
         <f t="shared" si="2"/>
         <v>0.5361800000000001</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>0.05</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>0.10659</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <v>0.74409999999999998</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="6">
         <v>2</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="9">
         <v>0</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>0.17133999999999999</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <v>0.67889999999999995</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="9">
         <v>0</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>2.1137000000000001</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="6">
         <v>0.14599999999999999</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="9">
         <v>0</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>0.10503</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <v>0.74590000000000001</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9">
-        <v>5</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6">
         <v>0.01</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="9">
         <v>0</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>1.4370000000000001</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="6">
         <v>0.2306</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="15">
+      <c r="C25" s="11">
         <f>AVERAGE(C20:C24)</f>
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="10">
         <f t="shared" ref="D25:F25" si="3">AVERAGE(D20:D24)</f>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="3">
         <f t="shared" si="3"/>
         <v>0.7867320000000001</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="3">
         <f t="shared" si="3"/>
         <v>0.50909999999999989</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="6">
         <v>1</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>0.05</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>0.18994</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="6">
         <v>0.66300000000000003</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="6">
         <v>2</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="9">
         <v>0</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>0.25155</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="6">
         <v>0.61599999999999999</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="9">
         <v>0</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>2.5945</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="6">
         <v>0.1072</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="9">
         <v>0</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>3.7915999999999998E-2</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="6">
         <v>0.84560000000000002</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="9">
-        <v>5</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6">
         <v>0.01</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>1.3373999999999999</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>0.2475</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="15">
+      <c r="C31" s="11">
         <f>AVERAGE(C26:C30)</f>
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="10">
         <f t="shared" ref="D31:F31" si="4">AVERAGE(D26:D30)</f>
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="3">
         <f t="shared" si="4"/>
         <v>0.88226119999999997</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="3">
         <f t="shared" si="4"/>
         <v>0.49585999999999997</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648D3C57-6ABD-4DBA-B233-45AECCD16589}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="A1:H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="18.58203125" customWidth="1"/>
+    <col min="8" max="8" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.3207000000000002E-3</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.9476</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.25636999999999999</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.61260000000000003</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.90468999999999999</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>9.1868999999999996</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.4380000000000001E-3</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.3589000000000002</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.1246</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.6599999999999997E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>2.54223614</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.40574759999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.10863</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.49840000000000001</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.48020000000000002</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.4342999999999999</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.2311</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>11.766</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6.0320000000000003E-4</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3.8727</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4.9079999999999999E-2</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="3">AVERAGE(D8:D12)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13" si="4">AVERAGE(E8:E12)</f>
+        <v>3.5360060000000004</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13" si="5">AVERAGE(F8:F12)</f>
+        <v>0.30053664000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1.0163</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.31340000000000001</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.1036999999999999</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.29349999999999998</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.27401999999999999</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.7412000000000001</v>
+      </c>
+      <c r="F17" s="6">
+        <v>9.7790000000000002E-2</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7.5068000000000001E-3</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19" si="6">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19" si="7">AVERAGE(E14:E18)</f>
+        <v>1.0285453600000001</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ref="F19" si="8">AVERAGE(F14:F18)</f>
+        <v>0.44725800000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D20" s="6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.5929</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.2069</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5.1288</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2.3529999999999999E-2</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>16.401</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5.1249999999999999E-5</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.2944</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.1298</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>8.0652000000000008</v>
+      </c>
+      <c r="F24" s="6">
+        <v>4.5120000000000004E-3</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="3">
+        <f>AVERAGE(C20:C24)</f>
+        <v>6.4200000000000007E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25" si="9">AVERAGE(D20:D24)</f>
+        <v>2.3E-3</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ref="E25" si="10">AVERAGE(E20:E24)</f>
+        <v>6.6964600000000001</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ref="F25" si="11">AVERAGE(F20:F24)</f>
+        <v>7.295865E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D26" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1.6466000000000001</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.19939999999999999</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E27" s="6">
+        <v>4.9432</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2.6190000000000001E-2</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="F28" s="7">
+        <v>5.5789999999999999E-5</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2.2944</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.1298</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>7.4950999999999999</v>
+      </c>
+      <c r="F30" s="6">
+        <v>6.1869999999999998E-3</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="3">
+        <f>AVERAGE(C26:C30)</f>
+        <v>6.4000000000000015E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" ref="D31:F31" si="12">AVERAGE(D26:D30)</f>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="12"/>
+        <v>6.5238599999999991</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="12"/>
+        <v>7.2326557999999999E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9724D-379F-4610-9884-4CD014C43C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E115775-87CB-4541-B9AF-81305D8AAEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <sheet name="Trait7_Results" sheetId="8" r:id="rId8"/>
     <sheet name="Trait8_Results" sheetId="9" r:id="rId9"/>
     <sheet name="Trait9_Results" sheetId="10" r:id="rId10"/>
+    <sheet name="Trait10_Results" sheetId="11" r:id="rId11"/>
+    <sheet name="Trait11_Results" sheetId="12" r:id="rId12"/>
+    <sheet name="Trait12_Results" sheetId="13" r:id="rId13"/>
+    <sheet name="Trait13_Results" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="30">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1705,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B0F070-3E08-4252-BC5E-AB830153CFAB}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2412,6 +2416,2826 @@
         <f t="shared" si="12"/>
         <v>3.6450204400004401E-4</v>
       </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D0F3E4-126B-4D1F-8D8C-1E5EC2BB6A13}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="19.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.530290290298431</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.46648484099433901</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.56318489543066497</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.45297983860447699</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.10701055394482201</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.74357358855353906</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.6269399604119696</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.1473650240716501E-2</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>1.1654851400171775</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.53890238367861421</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.991758528070662</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.31931295437360202</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.56318489543066497</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.45297983860447699</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.8631821099177503E-2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.84417986350671503</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.6269399604119696</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.1473650240716501E-2</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="3">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13" si="4">AVERAGE(E8:E12)</f>
+        <v>1.2441030410024949</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13" si="5">AVERAGE(F8:F12)</f>
+        <v>0.52958926134510209</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.69147707006318104</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.40566242840851502</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.585781258998056</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.44405513222833298</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.2412572509975901</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.26522888841623399</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>7.50676841091278E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.93095639103550398</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5.2402011937068496</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2.2070721380092698E-2</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1.18E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19" si="6">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19" si="7">AVERAGE(E14:E18)</f>
+        <v>1.553244708435318</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ref="F19" si="8">AVERAGE(F14:F18)</f>
+        <v>0.41359471229373579</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.63269993402124602</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.42636668655355497</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>6.8124746633499794E-2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.79408697232597003</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.97303211996587</v>
+      </c>
+      <c r="F22" s="7">
+        <v>8.4663032290933096E-2</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.53498606048300401</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.46451812624989303</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.2039383099901499</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.27253595550542498</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.26E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25" si="9">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ref="E25" si="10">AVERAGE(E20:E24)</f>
+        <v>1.082556234218754</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ref="F25" si="11">AVERAGE(F20:F24)</f>
+        <v>0.40843415458515525</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.63269993402124602</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.42636668655355497</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>9.28114199325248E-2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.760632987760269</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2.97303211996587</v>
+      </c>
+      <c r="F28" s="7">
+        <v>8.4663032290933096E-2</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.53498606048300401</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.46451812624989303</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.6835181410448701</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.194457629494589</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <f>AVERAGE(C26:C30)</f>
+        <v>1.26E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" ref="D31:F31" si="12">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1834095350895031</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="12"/>
+        <v>0.38612769246984785</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE49171-5CE2-490B-906E-D772E15293F0}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.08203125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.33586888123466</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3.7317364535801201E-2</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.3527044513012201</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6.7094696434573303E-2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8.1516625923851005E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.77525255101444901</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.123656188869687</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.72510239812604704</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.62231410639578</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.202769420156827</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.44E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>1.9032120507450396</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.36150728605353954</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.8264912441189196</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2.8025611406261398E-2</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3.43665700791089</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6.3764591332337403E-2</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.63199436695519495</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.42662470940538799</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.193579401456662</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.65995406115735</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.61040772859821801</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.43463433441961902</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.4199999999999999E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="3">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13" si="4">AVERAGE(E8:E12)</f>
+        <v>1.9398259498079771</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13" si="5">AVERAGE(F8:F12)</f>
+        <v>0.32260066154419115</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>7.50676841091278E-3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.93095639103550398</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.5400721609314001</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.21460706447075401</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>4.2244995103839396E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.94817706565693605</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.23351252334579</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3.9633338383869898E-2</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1.54E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19" si="6">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19" si="7">AVERAGE(E14:E18)</f>
+        <v>1.1570631904396973</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ref="F19" si="8">AVERAGE(F14:F18)</f>
+        <v>0.6266747719094129</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.6709175550866098</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3.0677533479915E-2</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.1074631392252501</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.14658214118527599</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>17.216890148536599</v>
+      </c>
+      <c r="F22" s="7">
+        <v>3.3345846941951901E-5</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3.4982278678322198</v>
+      </c>
+      <c r="F23" s="6">
+        <v>6.14345350172915E-2</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>9.1407987813536309</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2.4997194728013602E-3</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.66E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25" si="9">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ref="E25" si="10">AVERAGE(E20:E24)</f>
+        <v>7.3268594984068613</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ref="F25" si="11">AVERAGE(F20:F24)</f>
+        <v>4.8245455000445157E-2</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.7608605491876501</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2.9113988517028799E-2</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1.9281944126978401</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.16495612064978399</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>16.5629941695071</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4.7060408981010299E-5</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3.34398269887431</v>
+      </c>
+      <c r="F29" s="6">
+        <v>6.7451160606710095E-2</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>8.6549650721135993</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3.2617133086348098E-3</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <f>AVERAGE(C26:C30)</f>
+        <v>1.66E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" ref="D31:F31" si="12">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="12"/>
+        <v>7.0501993804760996</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="12"/>
+        <v>5.2966008698227728E-2</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D1754A-8009-4413-844E-C178E0F660F9}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="16.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.33586888123466</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3.7317364535801201E-2</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.3527044513012201</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6.7094696434573303E-2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8.1516625923851005E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.77525255101444901</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.123656188869687</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.72510239812604704</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.62231410639578</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.202769420156827</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.44E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>1.9032120507450396</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.36150728605353954</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.8264912441189196</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2.8025611406261398E-2</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3.43665700791089</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6.3764591332337403E-2</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.63199436695519495</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.42662470940538799</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.193579401456662</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.65995406115735</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.61040772859821801</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.43463433441961902</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.4199999999999999E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="3">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13" si="4">AVERAGE(E8:E12)</f>
+        <v>1.9398259498079771</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13" si="5">AVERAGE(F8:F12)</f>
+        <v>0.32260066154419115</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>7.50676841091278E-3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.93095639103550398</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.5400721609314001</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.21460706447075401</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>4.2244995103839396E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.94817706565693605</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.23351252334579</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3.9633338383869898E-2</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1.54E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19" si="6">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19" si="7">AVERAGE(E14:E18)</f>
+        <v>1.1570631904396973</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ref="F19" si="8">AVERAGE(F14:F18)</f>
+        <v>0.6266747719094129</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.6709175550866098</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3.0677533479915E-2</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.1074631392252501</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.14658214118527599</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>17.216890148536599</v>
+      </c>
+      <c r="F22" s="7">
+        <v>3.3345846941951901E-5</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3.4982278678322198</v>
+      </c>
+      <c r="F23" s="6">
+        <v>6.14345350172915E-2</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>9.1407987813536309</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2.4997194728013602E-3</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.66E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25" si="9">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ref="E25" si="10">AVERAGE(E20:E24)</f>
+        <v>7.3268594984068613</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ref="F25" si="11">AVERAGE(F20:F24)</f>
+        <v>4.8245455000445157E-2</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.7608605491876501</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2.9113988517028799E-2</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1.9281944126978401</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.16495612064978399</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>16.5629941695071</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4.7060408981010299E-5</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3.34398269887431</v>
+      </c>
+      <c r="F29" s="6">
+        <v>6.7451160606710095E-2</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>8.6549650721135993</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3.2617133086348098E-3</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <f>AVERAGE(C26:C30)</f>
+        <v>1.66E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" ref="D31:F31" si="12">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="12"/>
+        <v>7.0501993804760996</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="12"/>
+        <v>5.2966008698227728E-2</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7688FC-4C2C-4512-BC31-0083D025305B}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="16.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2.35848145124532</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.124603430338662</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.86172471142856</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.17242587575385299</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.8266939938391101E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.84490809408418599</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.7412229929654699</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9.7789899185599397E-2</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.5817937815433698</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.23133713513757E-2</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <f>AVERAGE(C2:C6)</f>
+        <v>8.4200000000000025E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.9400000000000003E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>2.3162979754242223</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.25440813414273522</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.128</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.0455420839740999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8.0959083059641307E-2</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.65525479144712395</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.41824019583616401</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.50420768154224305</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.47765711492910601</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.30341054559087</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.25359118675701198</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5.9036851389771297</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1.51092400541014E-2</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <f>AVERAGE(C8:C12)</f>
+        <v>8.1800000000000012E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13" si="3">AVERAGE(D8:D12)</f>
+        <v>2.7800000000000002E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13" si="4">AVERAGE(E8:E12)</f>
+        <v>2.2824200483062933</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13" si="5">AVERAGE(F8:F12)</f>
+        <v>0.24911136412720492</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.121</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.47432779206650899</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.49100289034596101</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.6261621989366699</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.20223469315897299</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.1723935431933299E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.913775868868408</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E17">
+        <v>0.972893239792188</v>
+      </c>
+      <c r="F17">
+        <v>0.32395967172742501</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E18" s="6">
+        <v>8.6549650721135993</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3.2617133086348098E-3</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <f>AVERAGE(C14:C18)</f>
+        <v>8.1800000000000012E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19" si="6">AVERAGE(D14:D18)</f>
+        <v>2.64E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19" si="7">AVERAGE(E14:E18)</f>
+        <v>2.3480144476681799</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ref="F19" si="8">AVERAGE(F14:F18)</f>
+        <v>0.38684696748188041</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5.0355940828091699</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2.48315686705959E-2</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.23004154934936499</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.63149302198875101</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.63269993402124602</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.42636668655355497</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.62002331906002395</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.43103862058571502</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E24" s="6">
+        <v>6.1054803202632799</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1.34763319081041E-2</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <f>AVERAGE(C20:C24)</f>
+        <v>8.1000000000000016E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25:F25" si="9">AVERAGE(D20:D24)</f>
+        <v>2.7200000000000002E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="9"/>
+        <v>2.5247678411006169</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="9"/>
+        <v>0.3054412459413442</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\type1error_power\Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E115775-87CB-4541-B9AF-81305D8AAEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E685882-F551-4D30-9AA9-24DC35B7084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="30">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1710,11 +1710,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:H31"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
@@ -1724,10 +1725,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1750,10 +1751,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -1772,10 +1773,10 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="6">
@@ -1794,10 +1795,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -1816,10 +1817,10 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="6">
@@ -1838,10 +1839,10 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="6">
@@ -1860,10 +1861,12 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3"/>
       <c r="C7" s="3">
         <f>AVERAGE(C2:C6)</f>
         <v>2.2600000000000002E-2</v>
@@ -1884,10 +1887,10 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="6">
@@ -1906,10 +1909,10 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -1928,10 +1931,10 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -1950,10 +1953,10 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="6">
@@ -1972,10 +1975,10 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="6">
@@ -1994,10 +1997,12 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3"/>
       <c r="C13" s="3">
         <f>AVERAGE(C8:C12)</f>
         <v>1.9400000000000001E-2</v>
@@ -2018,10 +2023,10 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="6">
@@ -2040,10 +2045,10 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="6">
@@ -2062,10 +2067,10 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" s="6">
@@ -2084,10 +2089,10 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="6">
@@ -2106,10 +2111,10 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" s="6">
@@ -2128,10 +2133,12 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
       <c r="C19" s="3">
         <f>AVERAGE(C14:C18)</f>
         <v>2.4E-2</v>
@@ -2152,10 +2159,10 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="6">
@@ -2174,10 +2181,10 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="6">
@@ -2196,10 +2203,10 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="6">
@@ -2218,10 +2225,10 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="6">
@@ -2240,10 +2247,10 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" s="6">
@@ -2262,10 +2269,12 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3"/>
       <c r="C25" s="3">
         <f>AVERAGE(C20:C24)</f>
         <v>1.1800000000000001E-2</v>
@@ -2286,10 +2295,10 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="6">
@@ -2308,10 +2317,10 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="6">
@@ -2330,10 +2339,10 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="6">
@@ -2352,10 +2361,10 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" s="6">
@@ -2374,10 +2383,10 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" s="6">
@@ -2396,10 +2405,12 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="3"/>
       <c r="C31" s="3">
         <f>AVERAGE(C26:C30)</f>
         <v>9.4400000000000012E-2</v>
@@ -2430,13 +2441,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:H31"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
@@ -2444,10 +2454,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -2470,10 +2480,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -2492,10 +2502,10 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="6">
@@ -2514,10 +2524,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -2536,10 +2546,10 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="6">
@@ -2558,10 +2568,10 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="6">
@@ -2580,10 +2590,12 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3"/>
       <c r="C7" s="3">
         <f>AVERAGE(C2:C6)</f>
         <v>1.0999999999999999E-2</v>
@@ -2604,10 +2616,10 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="6">
@@ -2626,10 +2638,10 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -2648,10 +2660,10 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -2670,10 +2682,10 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="6">
@@ -2692,10 +2704,10 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="6">
@@ -2714,10 +2726,12 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3"/>
       <c r="C13" s="3">
         <f>AVERAGE(C8:C12)</f>
         <v>1.0999999999999999E-2</v>
@@ -2738,10 +2752,10 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="6">
@@ -2760,10 +2774,10 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="6">
@@ -2782,10 +2796,10 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" s="6">
@@ -2804,10 +2818,10 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="6">
@@ -2826,10 +2840,10 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" s="6">
@@ -2848,10 +2862,12 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
       <c r="C19" s="3">
         <f>AVERAGE(C14:C18)</f>
         <v>1.18E-2</v>
@@ -2872,10 +2888,10 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="6">
@@ -2894,10 +2910,10 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="6">
@@ -2916,10 +2932,10 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="6">
@@ -2938,10 +2954,10 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="6">
@@ -2960,10 +2976,10 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" s="6">
@@ -2982,10 +2998,12 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3"/>
       <c r="C25" s="3">
         <f>AVERAGE(C20:C24)</f>
         <v>1.26E-2</v>
@@ -3006,10 +3024,10 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="6">
@@ -3028,10 +3046,10 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="6">
@@ -3050,10 +3068,10 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="6">
@@ -3072,10 +3090,10 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" s="6">
@@ -3094,10 +3112,10 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" s="6">
@@ -3116,10 +3134,12 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="3"/>
       <c r="C31" s="3">
         <f>AVERAGE(C26:C30)</f>
         <v>1.26E-2</v>
@@ -3151,12 +3171,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.08203125" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.08203125" customWidth="1"/>
@@ -3166,10 +3186,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -3192,10 +3212,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -3214,10 +3234,10 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="6">
@@ -3236,10 +3256,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -3258,10 +3278,10 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="6">
@@ -3280,10 +3300,10 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="6">
@@ -3302,10 +3322,12 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3"/>
       <c r="C7" s="3">
         <f>AVERAGE(C2:C6)</f>
         <v>1.44E-2</v>
@@ -3326,10 +3348,10 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="6">
@@ -3348,10 +3370,10 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -3370,10 +3392,10 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -3392,10 +3414,10 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="6">
@@ -3414,10 +3436,10 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="6">
@@ -3436,10 +3458,12 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3"/>
       <c r="C13" s="3">
         <f>AVERAGE(C8:C12)</f>
         <v>1.4199999999999999E-2</v>
@@ -3460,10 +3484,10 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="6">
@@ -3482,10 +3506,10 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="6">
@@ -3504,10 +3528,10 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" s="6">
@@ -3526,10 +3550,10 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="6">
@@ -3548,10 +3572,10 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" s="6">
@@ -3570,10 +3594,12 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
       <c r="C19" s="3">
         <f>AVERAGE(C14:C18)</f>
         <v>1.54E-2</v>
@@ -3594,10 +3620,10 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="6">
@@ -3616,10 +3642,10 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="6">
@@ -3638,10 +3664,10 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="6">
@@ -3660,10 +3686,10 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="6">
@@ -3682,10 +3708,10 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" s="6">
@@ -3704,10 +3730,12 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3"/>
       <c r="C25" s="3">
         <f>AVERAGE(C20:C24)</f>
         <v>1.66E-2</v>
@@ -3728,10 +3756,10 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="6">
@@ -3750,10 +3778,10 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="6">
@@ -3772,10 +3800,10 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="6">
@@ -3794,10 +3822,10 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" s="6">
@@ -3816,10 +3844,10 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" s="6">
@@ -3838,10 +3866,12 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="3"/>
       <c r="C31" s="3">
         <f>AVERAGE(C26:C30)</f>
         <v>1.66E-2</v>
@@ -3872,19 +3902,20 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:H31"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="16.58203125" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
+    <col min="3" max="8" width="16.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -3907,10 +3938,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -3929,10 +3960,10 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="6">
@@ -3951,10 +3982,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -3973,10 +4004,10 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="6">
@@ -3995,10 +4026,10 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="6">
@@ -4017,10 +4048,12 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3"/>
       <c r="C7" s="3">
         <f>AVERAGE(C2:C6)</f>
         <v>1.44E-2</v>
@@ -4041,10 +4074,10 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="6">
@@ -4063,10 +4096,10 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -4085,10 +4118,10 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -4107,10 +4140,10 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="6">
@@ -4129,10 +4162,10 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="6">
@@ -4151,10 +4184,12 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3"/>
       <c r="C13" s="3">
         <f>AVERAGE(C8:C12)</f>
         <v>1.4199999999999999E-2</v>
@@ -4175,10 +4210,10 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="6">
@@ -4197,10 +4232,10 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="6">
@@ -4219,10 +4254,10 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" s="6">
@@ -4241,10 +4276,10 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="6">
@@ -4263,10 +4298,10 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" s="6">
@@ -4285,10 +4320,12 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
       <c r="C19" s="3">
         <f>AVERAGE(C14:C18)</f>
         <v>1.54E-2</v>
@@ -4309,10 +4346,10 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="6">
@@ -4331,10 +4368,10 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="6">
@@ -4353,10 +4390,10 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="6">
@@ -4375,10 +4412,10 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="6">
@@ -4397,10 +4434,10 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" s="6">
@@ -4419,10 +4456,12 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3"/>
       <c r="C25" s="3">
         <f>AVERAGE(C20:C24)</f>
         <v>1.66E-2</v>
@@ -4443,10 +4482,10 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="6">
@@ -4465,10 +4504,10 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="6">
@@ -4487,10 +4526,10 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="6">
@@ -4509,10 +4548,10 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" s="6">
@@ -4531,10 +4570,10 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" s="6">
@@ -4553,10 +4592,12 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="3"/>
       <c r="C31" s="3">
         <f>AVERAGE(C26:C30)</f>
         <v>1.66E-2</v>
@@ -4587,19 +4628,20 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="16.58203125" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
+    <col min="3" max="8" width="16.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -4622,10 +4664,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -4644,10 +4686,10 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="6">
@@ -4666,10 +4708,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -4688,10 +4730,10 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="6">
@@ -4710,10 +4752,10 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="6">
@@ -4732,10 +4774,12 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3"/>
       <c r="C7" s="3">
         <f>AVERAGE(C2:C6)</f>
         <v>8.4200000000000025E-2</v>
@@ -4756,10 +4800,10 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="6">
@@ -4778,10 +4822,10 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -4800,10 +4844,10 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -4822,10 +4866,10 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="6">
@@ -4844,10 +4888,10 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="6">
@@ -4866,10 +4910,12 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3"/>
       <c r="C13" s="3">
         <f>AVERAGE(C8:C12)</f>
         <v>8.1800000000000012E-2</v>
@@ -4890,10 +4936,10 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="6">
@@ -4912,10 +4958,10 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="6">
@@ -4934,10 +4980,10 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" s="6">
@@ -4956,10 +5002,10 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="6">
@@ -4978,10 +5024,10 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" s="6">
@@ -5000,10 +5046,12 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
       <c r="C19" s="3">
         <f>AVERAGE(C14:C18)</f>
         <v>8.1800000000000012E-2</v>
@@ -5024,10 +5072,10 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="6">
@@ -5046,10 +5094,10 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="6">
@@ -5068,10 +5116,10 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="6">
@@ -5090,10 +5138,10 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="6">
@@ -5112,10 +5160,10 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" s="6">
@@ -5134,10 +5182,12 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3"/>
       <c r="C25" s="3">
         <f>AVERAGE(C20:C24)</f>
         <v>8.1000000000000016E-2</v>
@@ -5158,10 +5208,10 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="6"/>
@@ -5172,10 +5222,10 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="6"/>
@@ -5186,10 +5236,10 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="6"/>
@@ -5200,10 +5250,10 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" s="6"/>
@@ -5214,10 +5264,10 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" s="6"/>
@@ -5228,10 +5278,12 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -5250,18 +5302,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.9140625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="1" max="8" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -5392,6 +5438,9 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1">
@@ -5519,6 +5568,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1">
@@ -5646,6 +5698,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2">
@@ -5773,6 +5828,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1">
@@ -5900,6 +5958,9 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="1">
@@ -5937,13 +5998,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.9140625" customWidth="1"/>
-    <col min="2" max="2" width="15.4140625" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="17.58203125" customWidth="1"/>
     <col min="5" max="5" width="14.4140625" customWidth="1"/>
@@ -6080,6 +6140,9 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1">
@@ -6202,6 +6265,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1">
@@ -6264,6 +6330,9 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2"/>
@@ -6374,6 +6443,9 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1">
@@ -6496,6 +6568,9 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="1">
@@ -6527,13 +6602,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.9140625" customWidth="1"/>
-    <col min="2" max="2" width="12.9140625" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="13.58203125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
@@ -6636,6 +6710,9 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1"/>
@@ -6746,6 +6823,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1">
@@ -6808,6 +6888,9 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2"/>
@@ -6918,6 +7001,9 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1">
@@ -7040,6 +7126,9 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="1">
@@ -7071,13 +7160,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F19"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="10.58203125" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
     <col min="3" max="3" width="13.9140625" customWidth="1"/>
     <col min="4" max="4" width="12.4140625" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
@@ -7087,10 +7175,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -7113,10 +7201,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -7135,10 +7223,10 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="6">
@@ -7157,10 +7245,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -7179,10 +7267,10 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="6">
@@ -7201,10 +7289,10 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="6">
@@ -7223,10 +7311,12 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6"/>
       <c r="C7" s="3">
         <f>AVERAGE(C2:C6)</f>
         <v>2.3220000000000001E-2</v>
@@ -7247,10 +7337,10 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="6">
@@ -7269,10 +7359,10 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -7291,10 +7381,10 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -7313,10 +7403,10 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="6">
@@ -7335,10 +7425,10 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="6">
@@ -7357,10 +7447,12 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6"/>
       <c r="C13" s="3">
         <f>AVERAGE(C8:C12)</f>
         <v>2.308E-2</v>
@@ -7381,10 +7473,10 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="6">
@@ -7403,10 +7495,10 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="6">
@@ -7425,10 +7517,10 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" s="6">
@@ -7447,10 +7539,10 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="6">
@@ -7469,10 +7561,10 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" s="6">
@@ -7491,10 +7583,12 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
       <c r="C19" s="3">
         <f>AVERAGE(C14:C18)</f>
         <v>2.3779999999999999E-2</v>
@@ -7515,10 +7609,10 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="6">
@@ -7537,10 +7631,10 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="6">
@@ -7559,10 +7653,10 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="6">
@@ -7581,10 +7675,10 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="6">
@@ -7603,10 +7697,10 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" s="6">
@@ -7625,10 +7719,12 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="6"/>
       <c r="C25" s="2">
         <f>AVERAGE(C20:C24)</f>
         <v>3.7520000000000005E-2</v>
@@ -7649,10 +7745,10 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="6">
@@ -7671,10 +7767,10 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="6">
@@ -7693,10 +7789,10 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="6">
@@ -7715,10 +7811,10 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" s="6">
@@ -7737,10 +7833,10 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" s="6">
@@ -7759,10 +7855,12 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="6"/>
       <c r="C31" s="3">
         <f>AVERAGE(C26:C30)</f>
         <v>2.298E-2</v>
@@ -7794,13 +7892,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="10.9140625" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.9140625" customWidth="1"/>
@@ -7810,10 +7907,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -7836,10 +7933,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -7858,10 +7955,10 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="6">
@@ -7880,10 +7977,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -7902,10 +7999,10 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="6">
@@ -7924,10 +8021,10 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="6">
@@ -7946,10 +8043,12 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6"/>
       <c r="C7" s="3">
         <f>AVERAGE(C2:C6)</f>
         <v>9.9959999999999993E-2</v>
@@ -7970,10 +8069,10 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="6">
@@ -7992,10 +8091,10 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -8014,10 +8113,10 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -8036,10 +8135,10 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="6">
@@ -8058,10 +8157,10 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="6">
@@ -8080,10 +8179,12 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6"/>
       <c r="C13" s="3">
         <f>AVERAGE(C8:C12)</f>
         <v>9.1780000000000014E-2</v>
@@ -8104,10 +8205,10 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="6">
@@ -8126,10 +8227,10 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="6">
@@ -8148,10 +8249,10 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" s="6">
@@ -8170,10 +8271,10 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="6">
@@ -8192,10 +8293,10 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" s="6">
@@ -8214,10 +8315,12 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
       <c r="C19" s="3">
         <f>AVERAGE(C14:C18)</f>
         <v>9.0499999999999997E-2</v>
@@ -8238,10 +8341,10 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="6"/>
@@ -8252,10 +8355,10 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="6"/>
@@ -8266,10 +8369,10 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="6"/>
@@ -8280,10 +8383,10 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="6"/>
@@ -8294,10 +8397,10 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" s="6"/>
@@ -8308,10 +8411,12 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="6"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
@@ -8320,10 +8425,10 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="6">
@@ -8342,10 +8447,10 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="6">
@@ -8364,10 +8469,10 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="6">
@@ -8386,10 +8491,10 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" s="6">
@@ -8408,10 +8513,10 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" s="6">
@@ -8430,10 +8535,12 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="6"/>
       <c r="C31" s="3">
         <f>AVERAGE(C26:C30)</f>
         <v>8.4900000000000003E-2</v>
@@ -8465,13 +8572,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
@@ -8481,10 +8587,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -8507,10 +8613,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -8529,10 +8635,10 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="6">
@@ -8551,10 +8657,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -8573,10 +8679,10 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="6">
@@ -8595,10 +8701,10 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="6">
@@ -8617,10 +8723,12 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6"/>
       <c r="C7" s="3">
         <f>AVERAGE(C2:C6)</f>
         <v>0.20766000000000001</v>
@@ -8641,10 +8749,10 @@
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="6">
@@ -8663,10 +8771,10 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -8685,10 +8793,10 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -8707,10 +8815,10 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="6">
@@ -8729,10 +8837,10 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="6">
@@ -8751,10 +8859,12 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6"/>
       <c r="C13" s="3">
         <f>AVERAGE(C8:C12)</f>
         <v>0.16571999999999998</v>
@@ -8775,10 +8885,10 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="6">
@@ -8797,10 +8907,10 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="6">
@@ -8819,10 +8929,10 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" s="6">
@@ -8841,10 +8951,10 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="6">
@@ -8863,10 +8973,10 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" s="6">
@@ -8885,10 +8995,12 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
       <c r="C19" s="3">
         <f>AVERAGE(C14:C18)</f>
         <v>0.15379999999999999</v>
@@ -8909,50 +9021,50 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" s="6"/>
@@ -8963,10 +9075,12 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="6"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
@@ -8975,10 +9089,10 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="6">
@@ -8997,10 +9111,10 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="6">
@@ -9019,10 +9133,10 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="6">
@@ -9041,10 +9155,10 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" s="6">
@@ -9063,10 +9177,10 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" s="6">
@@ -9085,10 +9199,12 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="6"/>
       <c r="C31" s="3">
         <f>AVERAGE(C26:C30)</f>
         <v>0.1298</v>
@@ -9120,13 +9236,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
     <col min="3" max="3" width="12.4140625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
@@ -9136,10 +9251,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -9162,10 +9277,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -9184,10 +9299,10 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="6">
@@ -9206,10 +9321,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -9228,10 +9343,10 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="6">
@@ -9250,10 +9365,10 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="6">
@@ -9272,7 +9387,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3">
@@ -9293,10 +9411,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="6">
@@ -9315,10 +9433,10 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -9337,10 +9455,10 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -9359,10 +9477,10 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="6">
@@ -9381,10 +9499,10 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="6">
@@ -9403,7 +9521,10 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="3">
@@ -9424,10 +9545,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="6">
@@ -9446,10 +9567,10 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="6">
@@ -9468,10 +9589,10 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" s="6">
@@ -9490,10 +9611,10 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="6">
@@ -9512,10 +9633,10 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" s="6">
@@ -9534,7 +9655,10 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3">
@@ -9555,10 +9679,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="6">
@@ -9577,10 +9701,10 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="6">
@@ -9599,10 +9723,10 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="6">
@@ -9621,10 +9745,10 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="6">
@@ -9643,10 +9767,10 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" s="6">
@@ -9665,7 +9789,10 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="11">
@@ -9686,10 +9813,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="6">
@@ -9708,10 +9835,10 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="6">
@@ -9730,10 +9857,10 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="6">
@@ -9752,10 +9879,10 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" s="6">
@@ -9774,10 +9901,10 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" s="6">
@@ -9796,7 +9923,10 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="11">
@@ -9828,13 +9958,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:H31"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.58203125" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
@@ -9844,10 +9973,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -9870,10 +9999,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -9892,10 +10021,10 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="6">
@@ -9914,10 +10043,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -9936,10 +10065,10 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="6">
@@ -9958,10 +10087,10 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="6">
@@ -9980,7 +10109,10 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3">
@@ -10001,10 +10133,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="6">
@@ -10023,10 +10155,10 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -10045,10 +10177,10 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -10067,10 +10199,10 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" s="6">
@@ -10089,10 +10221,10 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="6">
@@ -10111,7 +10243,10 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="3">
@@ -10132,10 +10267,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="6">
@@ -10154,10 +10289,10 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="6">
@@ -10176,10 +10311,10 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" s="6">
@@ -10198,10 +10333,10 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="6">
@@ -10220,10 +10355,10 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" s="6">
@@ -10242,7 +10377,10 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3">
@@ -10263,10 +10401,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="6">
@@ -10285,10 +10423,10 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="6">
@@ -10307,10 +10445,10 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="6">
@@ -10329,10 +10467,10 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" s="6">
@@ -10351,10 +10489,10 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>5</v>
       </c>
       <c r="C24" s="6">
@@ -10373,7 +10511,10 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="3">
@@ -10394,10 +10535,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="6">
@@ -10416,10 +10557,10 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="6">
@@ -10438,10 +10579,10 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="6">
@@ -10460,10 +10601,10 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" s="6">
@@ -10482,10 +10623,10 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" s="6">
@@ -10504,7 +10645,10 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="3">

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\type1error_power\Plotting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E685882-F551-4D30-9AA9-24DC35B7084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA67DC87-8FA0-4349-B60C-BF883CBAD69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="760" windowWidth="21550" windowHeight="12550" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -4627,7 +4627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7688FC-4C2C-4512-BC31-0083D025305B}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -5998,7 +5998,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6295,6 +6295,18 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="D14">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.33844858317731902</v>
+      </c>
+      <c r="F14">
+        <v>0.56072610086491503</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -6303,6 +6315,18 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.06229516642028</v>
+      </c>
+      <c r="F15">
+        <v>0.30269229389545099</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -6311,6 +6335,18 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.4891100329853701</v>
+      </c>
+      <c r="F16">
+        <v>0.11463653175463399</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -6319,6 +6355,18 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.6982105441674502E-4</v>
+      </c>
+      <c r="F17">
+        <v>0.98270692227788603</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -6327,6 +6375,18 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.17134110526584601</v>
+      </c>
+      <c r="F18">
+        <v>0.67892266507797105</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -6335,10 +6395,22 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.16300000000000003</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:F19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.11400000000000002</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8123329417806463</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52793690277417138</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -6453,15 +6525,15 @@
         <v>0.15880000000000002</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:F25" si="2">AVERAGE(D20:D24)</f>
+        <f t="shared" ref="D25:F25" si="3">AVERAGE(D20:D24)</f>
         <v>0.10880000000000001</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.708231764</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.471582</v>
       </c>
       <c r="G25" s="4"/>
@@ -6578,15 +6650,15 @@
         <v>0.15900000000000003</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:F31" si="3">AVERAGE(D26:D30)</f>
+        <f t="shared" ref="D31:F31" si="4">AVERAGE(D26:D30)</f>
         <v>0.10880000000000001</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7250243999999999</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46299599999999996</v>
       </c>
     </row>
@@ -6601,8 +6673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3A14D-1289-4BD6-9B05-2DAAD3D257CE}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6655,10 +6727,10 @@
         <v>0.78600000000000003</v>
       </c>
       <c r="E2">
-        <v>301.58</v>
+        <v>301.57792038395797</v>
       </c>
       <c r="F2" s="5">
-        <v>2.2E-16</v>
+        <v>1.4927896671950201E-67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6675,10 +6747,10 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="E3">
-        <v>245.76</v>
+        <v>245.75966729447799</v>
       </c>
       <c r="F3" s="5">
-        <v>2.2E-16</v>
+        <v>2.18223511883022E-55</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6688,7 +6760,18 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="C4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>117.874505481542</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.8471286798013301E-27</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6697,7 +6780,18 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="C5">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>307.152914789053</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9.1086106051611001E-69</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6706,7 +6800,18 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="C6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E6">
+        <v>391.76423317053599</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.4182494998881001E-87</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6715,10 +6820,22 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:F7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.19380000000000003</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>272.8258482239134</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6942573596026601E-28</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -6833,15 +6950,15 @@
         <v>0.20880000000000001</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:F13" si="0">AVERAGE(D8:D12)</f>
+        <f t="shared" ref="D13:F13" si="1">AVERAGE(D8:D12)</f>
         <v>0.15940000000000004</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.001399999999997</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.841794E-4</v>
       </c>
       <c r="G13" s="4"/>
@@ -7011,15 +7128,15 @@
         <v>0.19000000000000003</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:F25" si="1">AVERAGE(D20:D24)</f>
+        <f t="shared" ref="D25:F25" si="2">AVERAGE(D20:D24)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7234699999999998</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.228964</v>
       </c>
       <c r="G25" s="4"/>
@@ -7136,15 +7253,15 @@
         <v>0.19000000000000003</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:F31" si="2">AVERAGE(D26:D30)</f>
+        <f t="shared" ref="D31:F31" si="3">AVERAGE(D26:D30)</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6749640000000001</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24305399999999996</v>
       </c>
     </row>
@@ -7160,7 +7277,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7891,8 +8008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE257CF-B10A-4384-A656-F327A1992158}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8347,10 +8464,18 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="6">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2.3127719408087999E-2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.87912541238904696</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
@@ -8361,10 +8486,18 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
+      <c r="C21" s="6">
+        <v>4.36E-2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.552527219996372</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.45728690816092699</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
@@ -8375,10 +8508,18 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
+      <c r="C22" s="6">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.80129793952916</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.179555659490514</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
@@ -8389,10 +8530,18 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
+      <c r="C23" s="6">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.97303211996587</v>
+      </c>
+      <c r="F23" s="7">
+        <v>8.4663032290933096E-2</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
@@ -8403,10 +8552,18 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+      <c r="C24" s="6">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.8129824993244601</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.178150864818688</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
@@ -8417,10 +8574,22 @@
       <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="3">
+        <f>AVERAGE(C20:C24)</f>
+        <v>8.4980000000000014E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25:E25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.1840000000000002E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="3"/>
+        <v>1.43259349964479</v>
+      </c>
+      <c r="F25" s="3">
+        <f>AVERAGE(F20:F24)</f>
+        <v>0.35575637543002181</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="6"/>
     </row>
@@ -8546,11 +8715,11 @@
         <v>8.4900000000000003E-2</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" ref="D31:E31" si="3">AVERAGE(D26:D30)</f>
+        <f t="shared" ref="D31:E31" si="4">AVERAGE(D26:D30)</f>
         <v>2.1840000000000005E-2</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2372216</v>
       </c>
       <c r="F31" s="3">
@@ -8571,8 +8740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0043F160-E904-4E92-8933-18F9C8B6441C}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9236,7 +9405,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6176F67-D75F-4067-8308-0846C28192BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5A89E1-5562-4816-B75B-B15501977F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3286,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3334,21 +3334,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="D2">
-        <v>0.05</v>
-      </c>
-      <c r="E2">
-        <v>0.50004192247137602</v>
-      </c>
-      <c r="F2">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="G2" s="4">
-        <v>7</v>
-      </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3357,21 +3343,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1E-3</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="G3" s="4">
-        <v>10</v>
-      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3380,21 +3352,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1E-3</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F4">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G4" s="4">
-        <v>13</v>
-      </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3403,21 +3361,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1E-3</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.21054494808576399</v>
-      </c>
-      <c r="F5">
-        <v>0.72727272727272696</v>
-      </c>
-      <c r="G5" s="4">
-        <v>8</v>
-      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3426,21 +3370,7 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>2E-3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.59266712455515902</v>
-      </c>
-      <c r="F6">
-        <v>1.4545454545454499</v>
-      </c>
-      <c r="G6" s="4">
-        <v>16</v>
-      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3449,26 +3379,11 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>2.98E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.26898506399230582</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98181818181818037</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>10.8</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3478,21 +3393,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="D8">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.50004192247137602</v>
-      </c>
-      <c r="F8">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="G8" s="4">
-        <v>7</v>
-      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3501,21 +3402,7 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>2E-3</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.21054494808576399</v>
-      </c>
-      <c r="F9">
-        <v>0.72727272727272696</v>
-      </c>
-      <c r="G9" s="4">
-        <v>8</v>
-      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -3524,21 +3411,7 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>1E-3</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F10">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G10" s="4">
-        <v>13</v>
-      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -3547,21 +3420,7 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11">
-        <v>1E-3</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0.50004192247137602</v>
-      </c>
-      <c r="F11">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="G11" s="4">
-        <v>7</v>
-      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -3570,21 +3429,7 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>2E-3</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.89297359959113698</v>
-      </c>
-      <c r="F12">
-        <v>1.5454545454545501</v>
-      </c>
-      <c r="G12" s="4">
-        <v>17</v>
-      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -3593,26 +3438,11 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C8:C12)</f>
-        <v>2.8600000000000004E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.42905474349377659</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.94545454545454588</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>10.4</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3622,21 +3452,6 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>0.129</v>
-      </c>
-      <c r="D14">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F14">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -3645,21 +3460,6 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>2E-3</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>5.0004658095770503E-2</v>
-      </c>
-      <c r="F15">
-        <v>0.81818181818181801</v>
-      </c>
-      <c r="G15">
-        <v>9</v>
-      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3668,21 +3468,6 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16">
-        <v>1E-3</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1.0909090909090899</v>
-      </c>
-      <c r="G16">
-        <v>12</v>
-      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -3691,21 +3476,6 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>2E-3</v>
-      </c>
-      <c r="D17">
-        <v>1E-3</v>
-      </c>
-      <c r="E17">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F17">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -3714,21 +3484,6 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>2E-3</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>2.0648142624376402</v>
-      </c>
-      <c r="F18">
-        <v>1.8181818181818199</v>
-      </c>
-      <c r="G18">
-        <v>20</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -3737,26 +3492,11 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1">
-        <f>AVERAGE(C14:C18)</f>
-        <v>2.7200000000000002E-2</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>8.6E-3</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.79946418373831418</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.96363636363636351</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="2"/>
-        <v>10.6</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -3766,21 +3506,7 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="D20">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E20">
-        <v>1.5626164502245199</v>
-      </c>
-      <c r="F20">
-        <v>0.45454545454545497</v>
-      </c>
-      <c r="G20" s="4">
-        <v>5</v>
-      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -3789,21 +3515,6 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>1E-3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F21">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -3812,21 +3523,6 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22">
-        <v>1E-3</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F22">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G22">
-        <v>13</v>
-      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -3835,21 +3531,6 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23">
-        <v>1E-3</v>
-      </c>
-      <c r="D23">
-        <v>1E-3</v>
-      </c>
-      <c r="E23">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F23">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -3858,21 +3539,6 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>2E-3</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0.16001863281704901</v>
-      </c>
-      <c r="F24">
-        <v>1.27272727272727</v>
-      </c>
-      <c r="G24">
-        <v>14</v>
-      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -3881,26 +3547,11 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1">
-        <f>AVERAGE(C20:C24)</f>
-        <v>2.7200000000000002E-2</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>0.72936168120979183</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="3"/>
-        <v>0.79999999999999893</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="3"/>
-        <v>8.8000000000000007</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -3910,21 +3561,6 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26">
-        <v>0.13</v>
-      </c>
-      <c r="D26">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E26">
-        <v>1.5626164502245199</v>
-      </c>
-      <c r="F26">
-        <v>0.45454545454545497</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -3933,21 +3569,6 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>1E-3</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F27">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -3956,21 +3577,6 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>1E-3</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F28">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G28">
-        <v>13</v>
-      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -3979,21 +3585,6 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
-        <v>1E-3</v>
-      </c>
-      <c r="D29">
-        <v>1E-3</v>
-      </c>
-      <c r="E29">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F29">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -4002,21 +3593,6 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
-        <v>2E-3</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0.90006495849873702</v>
-      </c>
-      <c r="F30">
-        <v>0.42857142857142899</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -4025,26 +3601,11 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1">
-        <f>AVERAGE(C26:C30)</f>
-        <v>2.7000000000000003E-2</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="4"/>
-        <v>0.87737094634612944</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="4"/>
-        <v>0.63116883116883071</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="4"/>
-        <v>6.6</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4057,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11225FA-001A-452B-B018-0BA76F437E3E}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4132,10 +3693,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2.1000000000000001E-2</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D3">
-        <v>1.2E-2</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E3">
         <v>2.40016768754221</v>
@@ -4155,10 +3716,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.02</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="D4">
-        <v>1.2E-2</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="E4">
         <v>0.94125099907908005</v>
@@ -4178,10 +3739,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1.4E-2</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.437</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4201,10 +3762,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.7E-2</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="D6">
-        <v>2.1000000000000001E-2</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="E6">
         <v>0.50004192247137602</v>
@@ -4223,26 +3784,11 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>0.1346</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
-        <v>0.1026</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
-        <v>0.83753127585603271</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
-        <v>0.79999999999999893</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
-        <v>8.8000000000000007</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -4276,10 +3822,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>1.2999999999999999E-2</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>1.0999999999999999E-2</v>
+        <v>0.378</v>
       </c>
       <c r="E9">
         <v>1.6335615906585299</v>
@@ -4299,10 +3845,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1.2E-2</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D10">
-        <v>7.0000000000000001E-3</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="E10">
         <v>4.1671324849230203E-2</v>
@@ -4322,10 +3868,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1.2E-2</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D11">
-        <v>8.0000000000000002E-3</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="E11">
         <v>2.5316273268488998</v>
@@ -4345,10 +3891,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1.4999999999999999E-2</v>
+        <v>0.53</v>
       </c>
       <c r="D12">
-        <v>8.9999999999999993E-3</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="E12">
         <v>5.0004658095770503E-2</v>
@@ -4367,26 +3913,11 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C8:C12)</f>
-        <v>0.11080000000000001</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
-        <v>8.2200000000000009E-2</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
-        <v>1.1638962701353899</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
-        <v>1.2181818181818187</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
-        <v>13.4</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -4420,10 +3951,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>1.6E-2</v>
+        <v>0.499</v>
       </c>
       <c r="D15">
-        <v>1.0999999999999999E-2</v>
+        <v>0.374</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4443,10 +3974,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>1.2E-2</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="D16">
-        <v>7.0000000000000001E-3</v>
+        <v>0.374</v>
       </c>
       <c r="E16">
         <v>0.89297359959113698</v>
@@ -4466,10 +3997,10 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>1.2E-2</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D17">
-        <v>7.0000000000000001E-3</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="E17">
         <v>4.1671324849230203E-2</v>
@@ -4489,10 +4020,10 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>1.6E-2</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D18">
-        <v>8.0000000000000002E-3</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4511,26 +4042,11 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1">
-        <f>AVERAGE(C14:C18)</f>
-        <v>0.11400000000000002</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
-        <v>8.2200000000000009E-2</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
-        <v>0.28693736938234859</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
-        <v>1.0909090909090913</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
-        <v>12</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4567,7 +4083,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="D21">
-        <v>8.9999999999999993E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4587,19 +4103,19 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>1.2E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D22">
-        <v>5.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -4610,19 +4126,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1.2E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D23">
-        <v>7.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E23">
-        <v>0.59266712455515902</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.4545454545454499</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -4633,19 +4149,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>1.4E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D24">
-        <v>8.0000000000000002E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E24">
-        <v>0.50004192247137602</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.63636363636363602</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4655,26 +4171,11 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1">
-        <f>AVERAGE(C20:C24)</f>
-        <v>0.10880000000000001</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
-        <v>0.21854180940530701</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
-        <v>0.98181818181818081</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
-        <v>10.8</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -4684,21 +4185,6 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="D26">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="G26">
-        <v>10</v>
-      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -4707,21 +4193,6 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D27">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -4730,21 +4201,6 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D28">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>11</v>
-      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -4753,21 +4209,6 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D29">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E29">
-        <v>0.34619577018749698</v>
-      </c>
-      <c r="F29">
-        <v>1.36363636363636</v>
-      </c>
-      <c r="G29">
-        <v>15</v>
-      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -4776,21 +4217,6 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D30">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E30">
-        <v>0.50004192247137602</v>
-      </c>
-      <c r="F30">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="G30">
-        <v>7</v>
-      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -4799,26 +4225,11 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1">
-        <f>AVERAGE(C26:C30)</f>
-        <v>0.10880000000000001</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
-        <v>7.5399999999999995E-2</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="16"/>
-        <v>0.1692475385317746</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="16"/>
-        <v>0.96363636363636274</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="16"/>
-        <v>10.6</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4832,7 +4243,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4902,10 +4313,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5.7000000000000002E-2</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="D3">
-        <v>3.7999999999999999E-2</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="E3">
         <v>9.0913748809588792</v>
@@ -4925,10 +4336,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.5999999999999999E-2</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="D4">
-        <v>2.7E-2</v>
+        <v>0.748</v>
       </c>
       <c r="E4">
         <v>2.40016768754221</v>
@@ -4948,10 +4359,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.5999999999999999E-2</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="D5">
-        <v>3.3000000000000002E-2</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="E5">
         <v>6.7503772916977196</v>
@@ -4971,10 +4382,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3.4000000000000002E-2</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="D6">
-        <v>2.7E-2</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="E6">
         <v>6.7503772916977196</v>
@@ -4995,22 +4406,22 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.19380000000000003</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0.17040000000000002</v>
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.7198</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
         <v>6.816734406571082</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
         <v>0.10909090909090915</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
         <v>1.2</v>
       </c>
       <c r="H7" s="3"/>
@@ -5046,10 +4457,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>3.3000000000000002E-2</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="D9">
-        <v>2.3E-2</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5069,10 +4480,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2.3E-2</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="D10">
-        <v>0.01</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="E10">
         <v>1.2415470088229601</v>
@@ -5092,10 +4503,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>3.5000000000000003E-2</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="D11">
-        <v>1.4999999999999999E-2</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5115,10 +4526,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.5000000000000001E-2</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="D12">
-        <v>1.9E-2</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5139,22 +4550,22 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>0.15940000000000004</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>0.13059999999999999</v>
+        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
+        <v>0.57900000000000007</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
         <v>0.57502171989629802</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
         <v>1.2727272727272738</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
         <v>14</v>
       </c>
       <c r="H13" s="3"/>
@@ -5166,6 +4577,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D14">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -5174,6 +4600,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="D15">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -5182,6 +4623,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="D16">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E16">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F16">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -5190,6 +4646,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="D17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E17">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -5198,6 +4669,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="D18">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -5206,10 +4692,26 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <v>4.0337991533255839E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+        <v>1.0727272727272719</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
+        <v>11.8</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -5243,19 +4745,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2.5999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D21">
-        <v>1.9E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E21">
-        <v>0.16001863281704901</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.27272727272727</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -5266,19 +4768,19 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>1.6E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D22">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E22">
-        <v>4.6952317213050296</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2.2727272727272698</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G22">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -5292,16 +4794,16 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D23">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E23">
-        <v>2.40016768754221</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.36363636363636398</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -5312,19 +4814,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>2.1999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D24">
-        <v>1.7999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E24">
-        <v>0.34619577018749698</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.36363636363636</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -5336,23 +4838,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>0.14000000000000001</v>
+        <v>0.13940000000000002</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="2">AVERAGE(D20:D24)</f>
-        <v>0.10980000000000001</v>
+        <f t="shared" ref="D25:G25" si="12">AVERAGE(D20:D24)</f>
+        <v>0.10900000000000001</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
-        <v>1.520322762370357</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
-        <v>1.2727272727272707</v>
+        <f t="shared" si="12"/>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -5363,21 +4865,6 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="D26">
-        <v>0.495</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1.0909090909090899</v>
-      </c>
-      <c r="G26">
-        <v>12</v>
-      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -5386,21 +4873,6 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D27">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E27">
-        <v>0.16001863281704901</v>
-      </c>
-      <c r="F27">
-        <v>1.27272727272727</v>
-      </c>
-      <c r="G27">
-        <v>14</v>
-      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -5409,21 +4881,6 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D28">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E28">
-        <v>4.6952317213050296</v>
-      </c>
-      <c r="F28">
-        <v>2.2727272727272698</v>
-      </c>
-      <c r="G28">
-        <v>25</v>
-      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -5432,21 +4889,6 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D29">
-        <v>0.01</v>
-      </c>
-      <c r="E29">
-        <v>2.40016768754221</v>
-      </c>
-      <c r="F29">
-        <v>0.36363636363636398</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -5455,21 +4897,6 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="D30">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E30">
-        <v>0.34619577018749698</v>
-      </c>
-      <c r="F30">
-        <v>1.36363636363636</v>
-      </c>
-      <c r="G30">
-        <v>15</v>
-      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -5478,26 +4905,11 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1">
-        <f>AVERAGE(C26:C30)</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="3">AVERAGE(D26:D30)</f>
-        <v>0.10980000000000001</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="3"/>
-        <v>1.520322762370357</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="3"/>
-        <v>1.2727272727272707</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5510,7 +4922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2C2262-D4CD-4119-9A2F-0BCDC716C93A}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5559,7 +4973,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F2">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -5568,7 +4996,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E3">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F3">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -5577,7 +5019,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E4">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F4">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G4" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -5586,7 +5042,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -5595,7 +5065,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G6" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -5604,10 +5088,26 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>2.7199999999999998E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.5999999999999999E-4</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6433220419204968</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0363636363636364</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>11.4</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -5617,7 +5117,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F8">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G8" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -5626,7 +5140,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E9">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F9">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G9" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -5635,7 +5163,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E10">
+        <v>1.2415470088229601</v>
+      </c>
+      <c r="F10">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G10" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5644,7 +5186,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5653,7 +5209,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -5662,10 +5232,26 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39042677587602004</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0181818181818185</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -5675,6 +5261,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -5683,6 +5284,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E15">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F15">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -5691,6 +5307,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E16">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F16">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -5699,6 +5330,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -5707,6 +5353,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>2E-3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E18">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -5715,10 +5376,26 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>2.7400000000000002E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.5999999999999999E-4</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2674902854724695</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92727272727272647</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>10.199999999999999</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -5728,7 +5405,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>1.24E-2</v>
+      </c>
+      <c r="D20">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -5737,6 +5428,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="D21">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -5745,6 +5451,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>1.23E-2</v>
+      </c>
+      <c r="D22">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -5753,6 +5474,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D23">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -5761,6 +5497,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D24">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -5769,10 +5520,26 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.2060000000000001E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>5.5199999999999997E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5A89E1-5562-4816-B75B-B15501977F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF7680-CD2B-4A52-86C8-3C79F344DEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="C20" sqref="C20:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1703,7 +1703,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>1E-3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>4.1671411580119402E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G2" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1712,7 +1726,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>2E-3</v>
+      </c>
+      <c r="D3">
+        <v>1E-3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G3" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1721,7 +1749,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.34619655078018102</v>
+      </c>
+      <c r="F4">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G4" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1730,7 +1772,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1739,7 +1795,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G6" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1748,10 +1818,26 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7574541436739622E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1090909090909076</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1761,7 +1847,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>1E-3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>4.1671411580119402E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G8" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1770,7 +1870,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>2E-3</v>
+      </c>
+      <c r="D9">
+        <v>1E-3</v>
+      </c>
+      <c r="E9">
+        <v>0.34619655078018102</v>
+      </c>
+      <c r="F9">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G9" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1779,7 +1893,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>4.1671411580119402E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G10" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1788,7 +1916,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G11" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1797,7 +1939,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1806,10 +1962,26 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5908823752763508E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1272727272727256</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>12.4</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1819,6 +1991,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>1E-3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1827,6 +2014,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>1E-3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>4.6952317213050296</v>
+      </c>
+      <c r="F15">
+        <v>2.2727272727272698</v>
+      </c>
+      <c r="G15">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1835,6 +2037,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1843,6 +2060,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>1E-3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1851,6 +2083,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>2E-3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1859,10 +2106,26 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.93904634426100597</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2727272727272718</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1872,7 +2135,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>0.158</v>
+      </c>
+      <c r="D20">
+        <v>0.06</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1881,6 +2158,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.06</v>
+      </c>
+      <c r="E21">
+        <v>1.6335615906585299</v>
+      </c>
+      <c r="F21">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1889,6 +2181,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>0.15</v>
+      </c>
+      <c r="D22">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1897,6 +2204,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>0.16</v>
+      </c>
+      <c r="D23">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1905,6 +2227,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>0.159</v>
+      </c>
+      <c r="D24">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E24">
+        <v>3.0307688680889999</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1913,10 +2250,26 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.06</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.94286702336866013</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3090909090909093</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>14.4</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1966,10 +2319,26 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1982,7 +2351,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="C20" sqref="C20:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2030,7 +2399,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1.5626186183336499</v>
+      </c>
+      <c r="F2">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2039,7 +2422,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2048,7 +2445,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.160018979743868</v>
+      </c>
+      <c r="F4">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G4" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2057,7 +2468,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F5">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2066,7 +2491,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F6">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2075,10 +2514,26 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63278653755296677</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78181818181818108</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2088,7 +2543,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1.5626186183336499</v>
+      </c>
+      <c r="F8">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2097,7 +2566,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2106,7 +2589,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.160018979743868</v>
+      </c>
+      <c r="F10">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G10" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2115,7 +2612,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F11">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2124,7 +2635,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F12">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2133,10 +2658,26 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.63278653755296677</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78181818181818108</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2146,6 +2687,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F14">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2154,6 +2710,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2162,6 +2733,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2170,6 +2756,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F17">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -2178,6 +2779,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F18">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -2186,10 +2802,26 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40507553424905562</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.81818181818181779</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2199,7 +2831,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F20">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G20" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -2208,6 +2854,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2216,6 +2877,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2224,6 +2900,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F23">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2232,6 +2923,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F24">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -2240,10 +2946,26 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18245536564468384</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.98181818181818037</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>10.8</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2293,10 +3015,26 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2310,7 +3048,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="C20" sqref="C20:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2360,7 +3098,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E2">
+        <v>0.34619655078018102</v>
+      </c>
+      <c r="F2">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G2" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2369,7 +3121,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.59266851228853401</v>
+      </c>
+      <c r="F3">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G3" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2378,7 +3144,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2387,7 +3167,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F5">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2396,7 +3190,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.89297576794492595</v>
+      </c>
+      <c r="F6">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G6" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2405,10 +3213,26 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55461864353912271</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.181818181818181</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2418,7 +3242,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E8">
+        <v>0.59266851228853401</v>
+      </c>
+      <c r="F8">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G8" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2427,7 +3265,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.160018979743868</v>
+      </c>
+      <c r="F9">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G9" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2436,7 +3288,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>4.1671411580119402E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G10" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2445,7 +3311,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1.5626186183336499</v>
+      </c>
+      <c r="F11">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2454,7 +3334,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.59266851228853401</v>
+      </c>
+      <c r="F12">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G12" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2463,10 +3357,26 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58992920684694106</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1636363636363609</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>12.8</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2476,6 +3386,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2484,6 +3409,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F15">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2492,6 +3432,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2500,6 +3455,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>1E-3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F17">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -2508,6 +3478,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1.2415470088229601</v>
+      </c>
+      <c r="F18">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -2516,10 +3501,26 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50579875561790744</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.127272727272727</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>12.4</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2529,7 +3530,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3.0307688680889999</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -2538,6 +3553,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>1E-3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F21">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2546,6 +3576,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F22">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2554,6 +3599,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>1E-3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F23">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2562,6 +3622,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1.6335615906585299</v>
+      </c>
+      <c r="F24">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G24">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -2570,10 +3645,26 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1834116277182229</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4181818181818171</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>15.6</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2623,10 +3714,26 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2729,10 +3836,26 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2787,10 +3910,26 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2840,10 +3979,26 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2894,10 +4049,26 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2947,10 +4118,26 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2960,10 +4147,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7688FC-4C2C-4512-BC31-0083D025305B}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2972,7 +4159,7 @@
     <col min="3" max="8" width="16.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +4188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3010,7 +4197,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3019,7 +4206,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3028,7 +4215,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3037,7 +4224,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3046,20 +4233,36 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3068,7 +4271,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3077,7 +4280,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3085,8 +4288,9 @@
         <v>3</v>
       </c>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3095,7 +4299,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3104,20 +4308,36 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3125,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3133,15 +4353,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3149,7 +4370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3157,20 +4378,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3179,7 +4416,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3187,15 +4424,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3203,7 +4441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3211,20 +4449,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3232,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3240,15 +4494,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -3256,7 +4511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -3264,17 +4519,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3286,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3334,7 +4612,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F2">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G2" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3343,7 +4635,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>0.158</v>
+      </c>
+      <c r="D3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3352,7 +4658,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G4" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3361,7 +4681,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>0.15</v>
+      </c>
+      <c r="D5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F5">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3370,7 +4704,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F6">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G6" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3379,11 +4727,26 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>5.3200000000000004E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26898506399230582</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98181818181818037</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3393,7 +4756,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="D8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F8">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3402,7 +4779,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>0.153</v>
+      </c>
+      <c r="D9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F9">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G9" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -3411,7 +4802,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D10">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E10">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G10" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -3420,7 +4825,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D11">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F11">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -3429,7 +4848,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.89297359959113698</v>
+      </c>
+      <c r="F12">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G12" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -3438,11 +4871,26 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.14120000000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>4.82E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42905474349377659</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94545454545454588</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3452,6 +4900,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0.129</v>
+      </c>
+      <c r="D14">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F14">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -3460,6 +4923,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E15">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3468,6 +4946,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D16">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -3476,6 +4969,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D17">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F17">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -3484,6 +4992,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E18">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F18">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -3492,11 +5015,26 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.1376</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>4.4799999999999993E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79946418373831418</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96363636363636351</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>10.6</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -3506,7 +5044,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D20">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F20">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -3515,6 +5067,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>0.154</v>
+      </c>
+      <c r="D21">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F21">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -3523,6 +5090,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.05</v>
+      </c>
+      <c r="E22">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -3531,6 +5113,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D23">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F23">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -3539,6 +5136,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D24">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F24">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G24">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -3547,11 +5159,26 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.1406</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>4.7799999999999995E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.72936168120979183</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -3601,11 +5228,26 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3619,7 +5261,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3784,11 +5426,26 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83753127585603271</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3913,11 +5570,26 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.51119999999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1638962701353899</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2181818181818187</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>13.4</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -4042,11 +5714,26 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.37799999999999995</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28693736938234859</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0909090909090913</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4080,10 +5767,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1.4E-2</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D21">
-        <v>7.0000000000000001E-3</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4103,19 +5790,19 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>2.1999999999999999E-2</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="D22">
-        <v>8.0000000000000002E-3</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.90909090909090895</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -4126,19 +5813,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1.4E-2</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D23">
-        <v>8.0000000000000002E-3</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F23">
-        <v>0.90909090909090895</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -4149,19 +5836,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>7.0000000000000001E-3</v>
+        <v>0.499</v>
       </c>
       <c r="D24">
-        <v>3.0000000000000001E-3</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.50004192247137602</v>
       </c>
       <c r="F24">
-        <v>0.90909090909090895</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4171,11 +5858,26 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.21854180940530701</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.98181818181818081</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>10.8</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -4225,11 +5927,26 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4243,7 +5960,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C31" sqref="C31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4745,19 +6462,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2.1999999999999999E-2</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D21">
-        <v>1.0999999999999999E-2</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.16001863281704901</v>
       </c>
       <c r="F21">
-        <v>1.0909090909090899</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G21">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -4768,19 +6485,19 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>1.9E-2</v>
+        <v>0.627</v>
       </c>
       <c r="D22">
-        <v>1.4E-2</v>
+        <v>0.502</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>4.6952317213050296</v>
       </c>
       <c r="F22">
-        <v>1.0909090909090899</v>
+        <v>2.2727272727272698</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -4791,19 +6508,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1.7999999999999999E-2</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="D23">
-        <v>1.2E-2</v>
+        <v>0.495</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.40016768754221</v>
       </c>
       <c r="F23">
-        <v>1.0909090909090899</v>
+        <v>0.36363636363636398</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -4814,19 +6531,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0.02</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D24">
-        <v>1.2999999999999999E-2</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.34619577018749698</v>
       </c>
       <c r="F24">
-        <v>1.0909090909090899</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4838,23 +6555,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>0.13940000000000002</v>
+        <v>0.60980000000000001</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="12">AVERAGE(D20:D24)</f>
-        <v>0.10900000000000001</v>
+        <v>0.4904</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.520322762370357</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="12"/>
-        <v>1.0909090909090899</v>
+        <v>1.2727272727272707</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -4905,11 +6622,26 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31" si="13">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" ref="E31" si="14">AVERAGE(E26:E30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" ref="F31" si="15">AVERAGE(F26:F30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" ref="G31" si="16">AVERAGE(G26:G30)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4923,7 +6655,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5429,10 +7161,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1.1900000000000001E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="D21">
-        <v>5.4000000000000003E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5452,19 +7184,19 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>1.23E-2</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="D22">
-        <v>5.4999999999999997E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.90909090909090895</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -5475,19 +7207,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1.12E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D23">
-        <v>5.8999999999999999E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F23">
-        <v>0.90909090909090895</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -5498,19 +7230,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>1.2500000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="D24">
-        <v>5.5999999999999999E-3</v>
+        <v>6.3E-3</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.50004192247137602</v>
       </c>
       <c r="F24">
-        <v>0.90909090909090895</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -5522,23 +7254,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>1.2060000000000001E-2</v>
+        <v>1.1480000000000001E-2</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>5.5199999999999997E-3</v>
+        <v>6.0800000000000003E-3</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.21854180940530701</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>0.90909090909090895</v>
+        <v>0.98181818181818081</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -5606,7 +7338,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5656,7 +7388,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>9.74E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F2">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G2" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -5665,7 +7411,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F3">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G3" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -5674,7 +7434,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -5683,7 +7457,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.35E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F5">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -5692,7 +7480,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F6">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -5701,10 +7503,26 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>9.0240000000000001E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31136491264320265</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85454545454545361</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -5714,7 +7532,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F8">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -5723,7 +7555,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F9">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -5732,7 +7578,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.72E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5741,7 +7601,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F11">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5750,7 +7624,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.5002282403137599</v>
+      </c>
+      <c r="F12">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -5759,10 +7647,26 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>7.5439999999999993E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.8679999999999999E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0575433864103425</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76363636363636267</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -5772,6 +7676,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F14">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -5780,6 +7699,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F15">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -5788,6 +7722,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.2415470088229601</v>
+      </c>
+      <c r="F16">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -5796,6 +7745,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F17">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -5804,6 +7768,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>3.5002282403137599</v>
+      </c>
+      <c r="F18">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -5812,10 +7791,26 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2107179658237226</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89090909090909098</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>9.8000000000000007</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -5825,7 +7820,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.95E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -5834,6 +7843,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.54E-2</v>
+      </c>
+      <c r="E21">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -5842,6 +7866,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>0.06</v>
+      </c>
+      <c r="D22">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F22">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -5850,6 +7889,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F23">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -5858,6 +7912,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F24">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -5866,10 +7935,26 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>6.4259999999999998E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.5040000000000001E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.27236384761553267</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87272727272727191</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>9.6</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -5919,10 +8004,26 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5936,7 +8037,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5986,7 +8087,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="E2">
+        <v>4.9233750314859099</v>
+      </c>
+      <c r="F2">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -5995,7 +8110,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>0.3478</v>
+      </c>
+      <c r="D3">
+        <v>0.2097</v>
+      </c>
+      <c r="E3">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F3">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6004,7 +8133,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>0.3473</v>
+      </c>
+      <c r="D4">
+        <v>0.19869999999999999</v>
+      </c>
+      <c r="E4">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F4">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6013,7 +8156,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>0.33939999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E5">
+        <v>3.5002282403137599</v>
+      </c>
+      <c r="F5">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6022,7 +8179,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.19739999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F6">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G6" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6031,10 +8202,26 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.34321999999999997</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.20282</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3040275691316858</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5818181818181809</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -6044,7 +8231,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>0.223</v>
+      </c>
+      <c r="D8">
+        <v>0.1045</v>
+      </c>
+      <c r="E8">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F8">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G8" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -6053,7 +8254,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="E9">
+        <v>1.2415470088229601</v>
+      </c>
+      <c r="F9">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G9" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -6062,7 +8277,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.1031</v>
+      </c>
+      <c r="E10">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F10">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G10" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -6071,7 +8300,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>0.2329</v>
+      </c>
+      <c r="D11">
+        <v>0.1154</v>
+      </c>
+      <c r="E11">
+        <v>0.89297359959113698</v>
+      </c>
+      <c r="F11">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G11" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -6080,7 +8323,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.1046</v>
+      </c>
+      <c r="E12">
+        <v>4.6952317213050296</v>
+      </c>
+      <c r="F12">
+        <v>2.2727272727272698</v>
+      </c>
+      <c r="G12" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -6089,10 +8346,26 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.22696</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.10747999999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6030173157658889</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.672727272727272</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>18.399999999999999</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -6102,6 +8375,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="D14">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="E14">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -6110,6 +8398,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="D15">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F15">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -6118,6 +8421,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="D16">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -6126,6 +8444,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="D17">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F17">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -6134,6 +8467,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0.20030000000000001</v>
+      </c>
+      <c r="D18">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="E18">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -6142,10 +8490,26 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.20469999999999997</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>9.0060000000000001E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47174037204437297</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1636363636363631</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>12.8</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -6155,7 +8519,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="D20">
+        <v>5.04E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G20" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -6164,6 +8542,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="D21">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F21">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -6172,6 +8565,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="D22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E22">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -6180,6 +8588,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>0.1459</v>
+      </c>
+      <c r="D23">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F23">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -6188,6 +8611,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="D24">
+        <v>5.28E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F24">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -6196,10 +8634,26 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.14664000000000002</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>5.262E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30444949338249849</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1636363636363611</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>12.8</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -6249,10 +8703,26 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6266,7 +8736,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6316,7 +8786,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G2" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -6325,7 +8809,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.59266851228853401</v>
+      </c>
+      <c r="F3">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G3" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6334,7 +8832,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.210545294993011</v>
+      </c>
+      <c r="F4">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6343,7 +8855,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6352,7 +8878,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F6">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6361,11 +8901,26 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26065130205737763</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96363636363636229</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>10.6</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7"/>
     </row>
@@ -6376,7 +8931,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G8" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -6385,7 +8954,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.59266851228853401</v>
+      </c>
+      <c r="F9">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G9" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -6394,7 +8977,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.210545294993011</v>
+      </c>
+      <c r="F10">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -6403,7 +9000,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -6412,7 +9023,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F12">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G12" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -6421,11 +9046,26 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26065130205737763</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96363636363636229</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>10.6</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13"/>
     </row>
@@ -6436,6 +9076,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -6444,6 +9099,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -6452,6 +9122,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -6460,6 +9145,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3.5002282403137599</v>
+      </c>
+      <c r="F17">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -6468,6 +9168,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -6476,11 +9191,26 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.70004564806275194</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19"/>
     </row>
@@ -6491,7 +9221,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G20" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -6500,6 +9244,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F21">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -6508,6 +9267,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>1E-3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -6516,6 +9290,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F23">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -6524,6 +9313,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -6532,11 +9336,26 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30678362472684784</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.018181818181817</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>11.2</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25"/>
     </row>
@@ -6587,11 +9406,26 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H31"/>
       <c r="I31"/>
     </row>
@@ -6607,7 +9441,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6657,7 +9491,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>1E-3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G2" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -6666,7 +9514,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.89297576794492595</v>
+      </c>
+      <c r="F3">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G3" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6675,7 +9537,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6684,7 +9560,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F5">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6693,7 +9583,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6702,11 +9606,26 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2986055921194129</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94545454545454621</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7"/>
     </row>
@@ -6717,7 +9636,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>1E-3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -6726,7 +9659,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.89297576794492595</v>
+      </c>
+      <c r="F9">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G9" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -6735,7 +9682,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -6744,7 +9705,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F11">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -6753,7 +9728,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G12" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -6762,11 +9751,26 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28860464315473339</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9818181818181827</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13"/>
     </row>
@@ -6777,6 +9781,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F14">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -6785,6 +9804,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.89297359959113698</v>
+      </c>
+      <c r="F15">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -6793,6 +9827,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F16">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -6801,6 +9850,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F17">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -6809,6 +9873,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F18">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -6817,11 +9896,26 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.73324376856883455</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8000000000000007</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19"/>
     </row>
@@ -6832,7 +9926,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -6841,6 +9949,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F21">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -6849,6 +9972,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F22">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -6857,6 +9995,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F23">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -6865,6 +10018,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -6873,11 +10041,26 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>7.060000000000001E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13324660716431899</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1818181818181799</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25"/>
     </row>
@@ -6928,11 +10111,26 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H31"/>
       <c r="I31"/>
     </row>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF7680-CD2B-4A52-86C8-3C79F344DEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FFD6EE-5567-4491-8E16-FED594A8D614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <sheet name="Trait11_Results" sheetId="12" r:id="rId12"/>
     <sheet name="Trait12_Results" sheetId="13" r:id="rId13"/>
     <sheet name="Trait13_Results" sheetId="14" r:id="rId14"/>
+    <sheet name="Trait14_Results" sheetId="15" r:id="rId15"/>
+    <sheet name="Trait15_Results" sheetId="16" r:id="rId16"/>
+    <sheet name="Trait16_Results" sheetId="17" r:id="rId17"/>
+    <sheet name="Trait17_Results" sheetId="18" r:id="rId18"/>
+    <sheet name="Trait18_Results" sheetId="19" r:id="rId19"/>
+    <sheet name="Trait19_Results" sheetId="20" r:id="rId20"/>
+    <sheet name="Trait20_Results" sheetId="21" r:id="rId21"/>
+    <sheet name="Trait21_Results" sheetId="22" r:id="rId22"/>
+    <sheet name="Trait22_Results" sheetId="23" r:id="rId23"/>
+    <sheet name="Trait23_Results" sheetId="24" r:id="rId24"/>
+    <sheet name="Trait24_Results" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="25">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1652,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B0F070-3E08-4252-BC5E-AB830153CFAB}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3746,7 +3757,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3791,7 +3802,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E2">
+        <v>1.63356584071188</v>
+      </c>
+      <c r="F2">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G2" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3800,7 +3825,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E3">
+        <v>6.5653173484071701</v>
+      </c>
+      <c r="F3">
+        <v>2.5454545454545499</v>
+      </c>
+      <c r="G3" s="4">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3809,7 +3848,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.34619655078018102</v>
+      </c>
+      <c r="F4">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G4" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3818,7 +3871,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E5">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3827,7 +3894,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E6">
+        <v>0.160018979743868</v>
+      </c>
+      <c r="F6">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G6" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3836,25 +3917,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
+        <v>4.4199999999999995E-3</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>1.7510206928932992</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>1.5454545454545454</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -4008,7 +4089,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E20">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F20">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G20" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -4017,6 +4112,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2.5316273268488998</v>
+      </c>
+      <c r="F21">
+        <v>1.9090909090909101</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -4025,6 +4135,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F22">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -4033,6 +4158,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E23">
+        <v>2.5316273268488998</v>
+      </c>
+      <c r="F23">
+        <v>1.9090909090909101</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -4041,6 +4181,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E24">
+        <v>9.3041890193451895</v>
+      </c>
+      <c r="F24">
+        <v>2.9090909090909101</v>
+      </c>
+      <c r="G24">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -4049,25 +4204,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
+        <v>3.6999999999999997E-3</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>3.3556907411336256</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>1.9818181818181819</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>21.8</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -4150,7 +4305,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E7" sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4195,7 +4350,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D2">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E2">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G2" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4204,7 +4373,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G3" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4213,7 +4396,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.40016768754221</v>
+      </c>
+      <c r="F4">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4222,7 +4419,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>0.115</v>
+      </c>
+      <c r="D5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E5">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4231,7 +4442,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>0.127</v>
+      </c>
+      <c r="D6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -4240,25 +4465,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
+        <v>4.82E-2</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>0.50836966571659636</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>0.81818181818181779</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -4269,7 +4494,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>0.128</v>
+      </c>
+      <c r="D8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E8">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G8" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -4278,7 +4517,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>0.13</v>
+      </c>
+      <c r="D9">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4287,7 +4540,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D10">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F10">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8</v>
+      </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4297,7 +4564,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="D11">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4306,7 +4587,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>0.123</v>
+      </c>
+      <c r="D12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G12" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -4315,25 +4610,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
+        <v>4.5599999999999995E-2</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>6.0444186206152939E-2</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
+        <v>0.90909090909090862</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -4344,6 +4639,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0.121</v>
+      </c>
+      <c r="D14">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4352,6 +4662,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D15">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -4360,6 +4685,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D16">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F16">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4369,6 +4709,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0.11</v>
+      </c>
+      <c r="D17">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F17">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4377,6 +4732,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0.12</v>
+      </c>
+      <c r="D18">
+        <v>0.04</v>
+      </c>
+      <c r="E18">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -4385,25 +4755,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
+        <v>0.125</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>0.42253260615833332</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
+        <v>0.78181818181818152</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>8.6</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -4414,7 +4784,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>0.125</v>
+      </c>
+      <c r="D20">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.89297359959113698</v>
+      </c>
+      <c r="F20">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G20" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -4423,6 +4807,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D21">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E21">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -4431,6 +4830,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D22">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F22">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4440,6 +4854,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>0.114</v>
+      </c>
+      <c r="D23">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -4448,6 +4877,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>0.122</v>
+      </c>
+      <c r="D24">
+        <v>0.04</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -4456,25 +4900,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
+        <v>0.1278</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>0.50111894158228554</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>0.94545454545454644</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>10.4</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -4553,6 +4997,2007 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EB34C9-5F79-47A3-A007-337BEEEE3FA8}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00581F9-66D8-45F1-B5EC-CD140A76E77B}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB363B6-83B0-4456-878C-9CA1F7229770}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB5483-70B0-4819-A385-62FBD4CA57ED}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C170617E-339E-484E-BFD1-BF0116E2FED1}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4565,7 +7010,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5188,6 +7633,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0.13</v>
+      </c>
+      <c r="D26">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F26">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -5196,6 +7656,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>1E-3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F27">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -5204,6 +7679,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>1E-3</v>
+      </c>
+      <c r="D28">
+        <v>1E-3</v>
+      </c>
+      <c r="E28">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F28">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -5212,6 +7702,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>2E-3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F29">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -5220,6 +7725,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>2E-3</v>
+      </c>
+      <c r="D30">
+        <v>1E-3</v>
+      </c>
+      <c r="E30">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F30">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -5228,31 +7748,2431 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
+        <v>2.7200000000000002E-2</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
+        <v>0.45454545454545492</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2975F087-DB23-4644-B63A-BB6BF506CDA6}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20C37C-F12C-4B5C-8871-96E5107A67AF}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04706196-7530-409C-BA08-F702A456B135}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C6BC40-F70C-4D10-82BB-AEFF457793D3}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9248AFE5-6D72-442D-A64E-8C762DAE796E}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04C6F0-903F-4400-B975-A1052B483DFD}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="e">
+        <f>AVERAGE(C2:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="1" t="e">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="1" t="e">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f>AVERAGE(C14:C18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f>AVERAGE(C20:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f>AVERAGE(C26:C30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5261,7 +10181,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C26" sqref="C26:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5887,6 +10807,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -5895,6 +10830,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -5903,6 +10853,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -5911,6 +10876,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D29">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -5919,6 +10899,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -5927,25 +10922,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
+        <v>0.10980000000000001</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5960,7 +10955,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:G31"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6655,7 +11650,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FFD6EE-5567-4491-8E16-FED594A8D614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBED77C-1BBE-4F4E-94AE-266229DD79CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,13 +196,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,12 +244,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1663,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B0F070-3E08-4252-BC5E-AB830153CFAB}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13730,8 +13764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F79F0E7-5AA4-486A-8115-846DCE711579}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13746,683 +13780,808 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1.0909090909090899</v>
-      </c>
-      <c r="G2" s="4">
-        <v>12</v>
-      </c>
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G2" s="6">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.59266851228853401</v>
-      </c>
-      <c r="F3">
+      <c r="C3" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>0.19825142630107412</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.87272727272727268</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>9.6</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G8" s="7">
+        <v>9</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>11</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.94125238668197297</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>11</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
+        <v>0.19825142630107412</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
+        <v>0.87272727272727268</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
+        <v>9.6</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G14" s="6">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F15" s="7">
         <v>1.4545454545454499</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G15" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.210545294993011</v>
-      </c>
-      <c r="F4">
-        <v>0.72727272727272696</v>
-      </c>
-      <c r="G4" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2.40016768754221</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <v>0.94309397902778758</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+        <v>0.90909090909090773</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.50004270300534304</v>
-      </c>
-      <c r="F6">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="G6" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G20" s="5">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G21" s="5">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G22" s="7">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.26065130205737763</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96363636363636229</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>10.6</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1.0909090909090899</v>
-      </c>
-      <c r="G8" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G23" s="6">
+        <v>6</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G24" s="5">
+        <v>13</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="11">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
+        <v>0.33178641963638594</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
+        <v>1.1090909090909071</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
+        <v>12.2</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G26" s="5">
+        <v>13</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.59266851228853401</v>
-      </c>
-      <c r="F9">
+      <c r="C27" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G27" s="5">
+        <v>13</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F28" s="5">
         <v>1.4545454545454499</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G28" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.210545294993011</v>
-      </c>
-      <c r="F10">
-        <v>0.72727272727272696</v>
-      </c>
-      <c r="G10" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="5">
         <v>4</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="G11" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.50004270300534304</v>
-      </c>
-      <c r="F12">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="G12" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G29" s="7">
+        <v>6</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="5">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G30" s="5">
+        <v>13</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C8:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.26065130205737763</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.96363636363636229</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>10.6</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>3.5002282403137599</v>
-      </c>
-      <c r="F17">
-        <v>0.27272727272727298</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1">
-        <f>AVERAGE(C14:C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.70004564806275194</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.81818181818181812</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1.0909090909090899</v>
-      </c>
-      <c r="G20" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F21">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>1E-3</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0.59266712455515902</v>
-      </c>
-      <c r="F23">
-        <v>1.4545454545454499</v>
-      </c>
-      <c r="G23">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1">
-        <f>AVERAGE(C20:C24)</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>0.30678362472684784</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="3"/>
-        <v>1.018181818181817</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="3"/>
-        <v>11.2</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="11">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31"/>
-      <c r="I31"/>
+        <v>1.8000000000000002E-3</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="16"/>
+        <v>0.33178641963638594</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="16"/>
+        <v>1.1090909090909071</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="16"/>
+        <v>12.2</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14436,7 +14595,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14487,7 +14646,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -14510,19 +14669,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.89297576794492595</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.5454545454545501</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -14542,10 +14701,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.90909090909090895</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -14562,13 +14721,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.50004270300534304</v>
+        <v>0.94125238668197297</v>
       </c>
       <c r="F5">
-        <v>0.63636363636363602</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G5" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -14579,19 +14738,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.0004744823397701E-2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.81818181818181801</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14603,23 +14762,23 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2986055921194129</v>
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>0.19825142630107412</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.94545454545454621</v>
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.87272727272727268</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>10.4</v>
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>9.6</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7"/>
@@ -14632,19 +14791,19 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5.0004744823397701E-2</v>
       </c>
       <c r="F8">
-        <v>0.90909090909090895</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G8" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -14655,19 +14814,19 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.89297576794492595</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.5454545454545501</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -14707,13 +14866,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.50004270300534304</v>
+        <v>0.94125238668197297</v>
       </c>
       <c r="F11">
-        <v>0.63636363636363602</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G11" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -14724,19 +14883,19 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.0004744823397701E-2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.81818181818181801</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14748,23 +14907,23 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>2.0000000000000001E-4</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.28860464315473339</v>
+        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
+        <v>0.19825142630107412</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.9818181818181827</v>
+        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
+        <v>0.87272727272727268</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>10.8</v>
+        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
+        <v>9.6</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13"/>
@@ -14783,13 +14942,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.50004192247137602</v>
+        <v>0.16001863281704901</v>
       </c>
       <c r="F14">
-        <v>0.63636363636363602</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -14800,19 +14959,19 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.89297359959113698</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F15">
-        <v>1.5454545454545501</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G15">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -14829,13 +14988,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.50004192247137602</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.63636363636363602</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -14869,19 +15028,19 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.21054494808576399</v>
+        <v>2.40016768754221</v>
       </c>
       <c r="F18">
-        <v>0.72727272727272696</v>
+        <v>0.36363636363636398</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14893,23 +15052,23 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.73324376856883455</v>
+        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <v>0.94309397902778758</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.80000000000000071</v>
+        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+        <v>0.90909090909090773</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
-        <v>8.8000000000000007</v>
+        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
+        <v>10</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19"/>
@@ -14922,19 +15081,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4.1671324849230203E-2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G20" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -14945,19 +15104,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>6.9000000000000006E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D21">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.34619577018749698</v>
+        <v>4.1671324849230203E-2</v>
       </c>
       <c r="F21">
-        <v>1.36363636363636</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -14968,19 +15127,19 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>7.2999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.16001863281704901</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F22">
-        <v>1.27272727272727</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -14991,19 +15150,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>5.8999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.16001863281704901</v>
+        <v>0.94125099907908005</v>
       </c>
       <c r="F23">
-        <v>1.27272727272727</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -15014,19 +15173,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>7.6999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="D24">
-        <v>1.9E-2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>4.1671324849230203E-2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15038,23 +15197,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>7.060000000000001E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>1.6199999999999999E-2</v>
+        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>0.13324660716431899</v>
+        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
+        <v>0.33178641963638594</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1818181818181799</v>
+        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
+        <v>1.1090909090909071</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
+        <v>12.2</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25"/>
@@ -15066,6 +15225,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G26">
+        <v>13</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -15074,6 +15248,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -15082,6 +15271,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F28">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -15090,6 +15294,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F29">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -15098,6 +15317,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>2E-3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F30">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -15106,25 +15340,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.8000000000000002E-3</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="16"/>
+        <v>0.33178641963638594</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="16"/>
+        <v>1.1090909090909071</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="16"/>
+        <v>12.2</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBED77C-1BBE-4F4E-94AE-266229DD79CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EB11FC-058B-42E8-B1DA-B0A22523F4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -257,6 +257,7 @@
     <xf numFmtId="21" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,7 +1699,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1749,19 +1750,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1E-3</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.192</v>
       </c>
       <c r="E2">
-        <v>4.1671411580119402E-2</v>
+        <v>0.94125238668197297</v>
       </c>
       <c r="F2">
-        <v>1.1818181818181801</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G2" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1772,19 +1773,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2E-3</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D3">
-        <v>1E-3</v>
+        <v>0.191</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.34619655078018102</v>
       </c>
       <c r="F3">
-        <v>1.0909090909090899</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G3" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1795,19 +1796,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="E4">
-        <v>0.34619655078018102</v>
+        <v>0.50004270300534304</v>
       </c>
       <c r="F4">
-        <v>1.36363636363636</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G4" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1818,19 +1819,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="E5">
-        <v>5.0004744823397701E-2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.81818181818181801</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1841,19 +1842,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3.0000000000000001E-3</v>
+        <v>0.3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.153</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.160018979743868</v>
       </c>
       <c r="F6">
-        <v>1.0909090909090899</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G6" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1865,23 +1866,23 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>1.2000000000000001E-3</v>
+        <v>0.3296</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>2.0000000000000001E-4</v>
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.1948</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>8.7574541436739622E-2</v>
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>0.38950212404227302</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1090909090909076</v>
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.96363636363636229</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>12.2</v>
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>10.6</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -1893,19 +1894,19 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1E-3</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E8">
-        <v>4.1671411580119402E-2</v>
+        <v>0.94125238668197297</v>
       </c>
       <c r="F8">
-        <v>1.1818181818181801</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G8" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1916,19 +1917,19 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2E-3</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D9">
-        <v>1E-3</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E9">
-        <v>0.34619655078018102</v>
+        <v>0.94125238668197297</v>
       </c>
       <c r="F9">
-        <v>1.36363636363636</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G9" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1939,19 +1940,19 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>4.1671411580119402E-2</v>
+        <v>0.210545294993011</v>
       </c>
       <c r="F10">
-        <v>1.1818181818181801</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G10" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1962,10 +1963,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E11">
         <v>5.0004744823397701E-2</v>
@@ -1985,19 +1986,19 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.0000000000000001E-3</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.160018979743868</v>
       </c>
       <c r="F12">
-        <v>1.0909090909090899</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G12" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2009,23 +2010,23 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>1.2000000000000001E-3</v>
+        <v>0.1656</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>2.0000000000000001E-4</v>
+        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>9.5908823752763508E-2</v>
+        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
+        <v>0.46061475858484446</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1272727272727256</v>
+        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
+        <v>0.78181818181818097</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>12.4</v>
+        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
+        <v>8.6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -2037,19 +2038,19 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1E-3</v>
+        <v>0.158</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.0307688680889999</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2060,19 +2061,19 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>1E-3</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E15">
-        <v>4.6952317213050296</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2.2727272727272698</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2083,19 +2084,19 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F16">
-        <v>0.90909090909090895</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2106,10 +2107,10 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>1E-3</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2129,10 +2130,10 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>2E-3</v>
+        <v>0.161</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2153,23 +2154,23 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>1E-3</v>
+        <v>0.16120000000000001</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>0</v>
+        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
+        <v>5.8399999999999994E-2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.93904634426100597</v>
+        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <v>0.61615470523695415</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>1.2727272727272718</v>
+        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+        <v>1.1999999999999997</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
+        <v>13.2</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -2181,19 +2182,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.158</v>
+        <v>0.157</v>
       </c>
       <c r="D20">
-        <v>0.06</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3.0307688680889999</v>
       </c>
       <c r="F20">
-        <v>0.90909090909090895</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2204,19 +2205,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.14199999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D21">
-        <v>0.06</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E21">
-        <v>1.6335615906585299</v>
+        <v>0.34619577018749698</v>
       </c>
       <c r="F21">
-        <v>1.72727272727273</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G21">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2227,19 +2228,19 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="D22">
-        <v>6.3E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F22">
-        <v>1.0909090909090899</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2250,19 +2251,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0.16</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="D23">
-        <v>5.3999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E23">
-        <v>5.0004658095770503E-2</v>
+        <v>0.16001863281704901</v>
       </c>
       <c r="F23">
-        <v>0.81818181818181801</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2273,19 +2274,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0.159</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="D24">
-        <v>6.3E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E24">
-        <v>3.0307688680889999</v>
+        <v>3.5593871957585499</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>2.0909090909090899</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2297,23 +2298,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>0.15379999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>0.06</v>
+        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>0.94286702336866013</v>
+        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
+        <v>1.4292750249895732</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
-        <v>1.3090909090909093</v>
+        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
+        <v>1.5090909090909075</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
-        <v>14.4</v>
+        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
+        <v>16.600000000000001</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -2324,6 +2325,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0.157</v>
+      </c>
+      <c r="D26">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F26">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -2332,6 +2348,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D27">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F27">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -2340,6 +2371,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>0.155</v>
+      </c>
+      <c r="D28">
+        <v>0.06</v>
+      </c>
+      <c r="E28">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2348,6 +2394,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.06</v>
+      </c>
+      <c r="E29">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2356,6 +2417,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D30">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E30">
+        <v>3.5593871957585499</v>
+      </c>
+      <c r="F30">
+        <v>2.0909090909090899</v>
+      </c>
+      <c r="G30">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -2364,25 +2440,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
+        <v>5.7399999999999993E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="16"/>
+        <v>1.2124146422657376</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="16"/>
+        <v>1.4545454545454537</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2396,7 +2472,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2445,19 +2521,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.5626186183336499</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.45454545454545497</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G2" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2467,8 +2543,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" s="4">
+        <v>1E-4</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2491,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2514,19 +2590,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.50004270300534304</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.63636363636363602</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2536,8 +2612,8 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" s="4">
+        <v>1E-4</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2559,25 +2635,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="12">
         <f>AVERAGE(C2:C6)</f>
-        <v>1.2000000000000002E-4</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.63278653755296677</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.78181818181818108</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>8.6</v>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>0.22025427328516817</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.98181818181818092</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>10.8</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -2589,19 +2665,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.5626186183336499</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.45454545454545497</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G8" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2611,8 +2687,8 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" s="4">
+        <v>1E-4</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2635,7 +2711,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2658,19 +2734,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="4">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.50004270300534304</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.63636363636363602</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2680,8 +2756,8 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" s="4">
+        <v>1E-4</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2703,25 +2779,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="12">
         <f>AVERAGE(C8:C12)</f>
-        <v>1.2000000000000002E-4</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.63278653755296677</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.78181818181818108</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>8.6</v>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
+        <v>0.22025427328516817</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
+        <v>0.98181818181818092</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
+        <v>10.8</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -2733,19 +2809,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="4">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.5626164502245199</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.45454545454545497</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2762,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.1671324849230203E-2</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F15">
-        <v>1.1818181818181801</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G15">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2779,19 +2855,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2802,19 +2878,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="4">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.21054494808576399</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F17">
-        <v>0.72727272727272696</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2824,20 +2900,20 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" s="4">
+        <v>1E-4</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.21054494808576399</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F18">
-        <v>0.72727272727272696</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2847,25 +2923,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="12">
         <f>AVERAGE(C14:C18)</f>
-        <v>1E-4</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.40507553424905562</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.81818181818181779</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <v>0.25706871306037182</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+        <v>1.0909090909090891</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
+        <v>12</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -2877,19 +2953,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.16001863281704901</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.27272727272727</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G20" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2899,8 +2975,8 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" s="4">
+        <v>1E-4</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2923,19 +2999,19 @@
         <v>3</v>
       </c>
       <c r="C22" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>4.1671324849230203E-2</v>
+        <v>0.16001863281704901</v>
       </c>
       <c r="F22">
-        <v>1.1818181818181801</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2946,19 +3022,19 @@
         <v>4</v>
       </c>
       <c r="C23" s="4">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.21054494808576399</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.72727272727272696</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2968,20 +3044,20 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="C24" s="4">
+        <v>1E-4</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.50004192247137602</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F24">
-        <v>0.63636363636363602</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2991,25 +3067,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="12">
         <f>AVERAGE(C20:C24)</f>
-        <v>1E-4</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>0.18245536564468384</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="3"/>
-        <v>0.98181818181818037</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
+        <v>4.2004658182563902E-2</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
+        <v>1.0727272727272716</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
+        <v>11.8</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -3020,6 +3096,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -3028,6 +3119,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -3036,6 +3142,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F28">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -3044,6 +3165,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -3052,6 +3188,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -3060,25 +3211,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="12">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="16"/>
+        <v>4.2004658182563902E-2</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="16"/>
+        <v>1.0727272727272716</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="16"/>
+        <v>11.8</v>
       </c>
     </row>
   </sheetData>
@@ -3092,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE49171-5CE2-490B-906E-D772E15293F0}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3144,19 +3295,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D2" s="4">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.34619655078018102</v>
+        <v>0.160018979743868</v>
       </c>
       <c r="F2">
-        <v>1.36363636363636</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G2" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3167,19 +3318,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>6.9999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.59266851228853401</v>
+        <v>4.1671411580119402E-2</v>
       </c>
       <c r="F3">
-        <v>1.4545454545454499</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G3" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3196,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.94125238668197297</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G4" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3212,20 +3363,20 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="C5" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1E-4</v>
       </c>
       <c r="E5">
-        <v>0.94125238668197297</v>
+        <v>0.50004270300534304</v>
       </c>
       <c r="F5">
-        <v>0.54545454545454497</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G5" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3236,19 +3387,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.89297576794492595</v>
+        <v>0.50004270300534304</v>
       </c>
       <c r="F6">
-        <v>1.5454545454545501</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G6" s="4">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3260,23 +3411,23 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>6.4000000000000005E-4</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.55461864353912271</v>
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>0.4286056368033293</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.181818181818181</v>
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.85454545454545339</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>9.4</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -3288,19 +3439,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D8" s="4">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.59266851228853401</v>
+        <v>0.160018979743868</v>
       </c>
       <c r="F8">
-        <v>1.4545454545454499</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G8" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3311,19 +3462,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="4">
-        <v>8.0000000000000004E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.160018979743868</v>
+        <v>4.1671411580119402E-2</v>
       </c>
       <c r="F9">
-        <v>1.27272727272727</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G9" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3334,19 +3485,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4.1671411580119402E-2</v>
+        <v>0.94125238668197297</v>
       </c>
       <c r="F10">
-        <v>1.1818181818181801</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G10" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3357,19 +3508,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1E-4</v>
       </c>
       <c r="E11">
-        <v>1.5626186183336499</v>
+        <v>0.50004270300534304</v>
       </c>
       <c r="F11">
-        <v>0.45454545454545497</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G11" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3380,19 +3531,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="4">
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.59266851228853401</v>
+        <v>0.50004270300534304</v>
       </c>
       <c r="F12">
-        <v>1.4545454545454499</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G12" s="4">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3404,23 +3555,23 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>5.5999999999999995E-4</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.58992920684694106</v>
+        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
+        <v>0.4286056368033293</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1636363636363609</v>
+        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
+        <v>0.85454545454545339</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>12.8</v>
+        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
+        <v>9.4</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -3432,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4">
-        <v>6.9999999999999999E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3441,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3455,19 +3606,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.34619577018749698</v>
+        <v>4.1671324849230203E-2</v>
       </c>
       <c r="F15">
-        <v>1.36363636363636</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3478,19 +3629,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="4">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4.1671324849230203E-2</v>
       </c>
       <c r="F16">
-        <v>1.0909090909090899</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -3500,20 +3651,20 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>1E-3</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="C17" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1E-4</v>
       </c>
       <c r="E17">
-        <v>0.94125099907908005</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.54545454545454497</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3524,19 +3675,19 @@
         <v>5</v>
       </c>
       <c r="C18" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.2415470088229601</v>
+        <v>0.50004192247137602</v>
       </c>
       <c r="F18">
-        <v>1.63636363636364</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G18">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3548,23 +3699,23 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>6.4000000000000005E-4</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>0</v>
+        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.50579875561790744</v>
+        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <v>0.11667691443396729</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>1.127272727272727</v>
+        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+        <v>0.99999999999999889</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
-        <v>12.4</v>
+        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
+        <v>11</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -3576,19 +3727,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="4">
-        <v>8.9999999999999998E-4</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3.0307688680889999</v>
+        <v>2.0648142624376402</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1.8181818181818199</v>
       </c>
       <c r="G20" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -3598,20 +3749,20 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>1E-3</v>
+      <c r="C21" s="4">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.59266712455515902</v>
+        <v>0.89297359959113698</v>
       </c>
       <c r="F21">
-        <v>1.4545454545454499</v>
+        <v>1.5454545454545501</v>
       </c>
       <c r="G21">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -3628,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.16001863281704901</v>
+        <v>0.21054494808576399</v>
       </c>
       <c r="F22">
-        <v>1.27272727272727</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3644,20 +3795,20 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23">
-        <v>1E-3</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
+      <c r="C23" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1E-4</v>
       </c>
       <c r="E23">
-        <v>0.50004192247137602</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F23">
-        <v>0.63636363636363602</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3668,19 +3819,19 @@
         <v>5</v>
       </c>
       <c r="C24" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.6335615906585299</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.72727272727273</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -3692,23 +3843,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>8.0000000000000004E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>0</v>
+        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1834116277182229</v>
+        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
+        <v>0.64366749364206233</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
-        <v>1.4181818181818171</v>
+        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
+        <v>1.181818181818183</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
-        <v>15.6</v>
+        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
+        <v>13</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -3719,6 +3870,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F26">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -3727,6 +3893,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F27">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -3735,6 +3916,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F28">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -3743,6 +3939,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E29">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F29">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -3751,6 +3962,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -3759,25 +3985,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="16"/>
+        <v>0.6157142566328655</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="16"/>
+        <v>1.1454545454545448</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="16"/>
+        <v>12.6</v>
       </c>
     </row>
   </sheetData>
@@ -13764,8 +13990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F79F0E7-5AA4-486A-8115-846DCE711579}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14595,7 +14821,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14646,19 +14872,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E2">
-        <v>5.0004744823397701E-2</v>
+        <v>0.34619655078018102</v>
       </c>
       <c r="F2">
-        <v>0.81818181818181801</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G2" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -14669,19 +14895,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5.0000000000000001E-3</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G3" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -14692,19 +14918,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.94125238668197297</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G4" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -14715,19 +14941,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>0.94125238668197297</v>
+        <v>1.5626186183336499</v>
       </c>
       <c r="F5">
-        <v>0.54545454545454497</v>
+        <v>0.45454545454545497</v>
       </c>
       <c r="G5" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -14738,10 +14964,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1E-3</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -14762,23 +14988,23 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>1.2000000000000001E-3</v>
+        <v>8.14E-2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
+        <v>2.0200000000000003E-2</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
-        <v>0.19825142630107412</v>
+        <v>0.57001351115916088</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
-        <v>0.87272727272727268</v>
+        <v>0.85454545454545383</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7"/>
@@ -14791,19 +15017,19 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E8">
-        <v>5.0004744823397701E-2</v>
+        <v>4.1671411580119402E-2</v>
       </c>
       <c r="F8">
-        <v>0.81818181818181801</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G8" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -14814,19 +15040,19 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>5.0000000000000001E-3</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G9" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -14837,19 +15063,19 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5.0004744823397701E-2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G10" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -14860,19 +15086,19 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E11">
-        <v>0.94125238668197297</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.54545454545454497</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G11" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -14883,19 +15109,19 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1E-3</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14907,23 +15133,23 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>1.2000000000000001E-3</v>
+        <v>6.6600000000000006E-2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
-        <v>0</v>
+        <v>1.4400000000000001E-2</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
-        <v>0.19825142630107412</v>
+        <v>1.8335231280703419E-2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
-        <v>0.87272727272727268</v>
+        <v>0.98181818181818115</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
-        <v>9.6</v>
+        <v>10.8</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13"/>
@@ -14936,19 +15162,19 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E14">
-        <v>0.16001863281704901</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.27272727272727</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -14959,19 +15185,19 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>4.0000000000000001E-3</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E15">
-        <v>0.59266712455515902</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.4545454545454499</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -14982,10 +15208,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -15005,19 +15231,19 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E17">
-        <v>1.5626164502245199</v>
+        <v>0.16001863281704901</v>
       </c>
       <c r="F17">
-        <v>0.45454545454545497</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -15028,19 +15254,19 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>1E-3</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E18">
-        <v>2.40016768754221</v>
+        <v>4.1671324849230203E-2</v>
       </c>
       <c r="F18">
-        <v>0.36363636363636398</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15052,23 +15278,23 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>1E-3</v>
+        <v>0.06</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
-        <v>0</v>
+        <v>1.14E-2</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
-        <v>0.94309397902778758</v>
+        <v>4.0337991533255839E-2</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
-        <v>0.90909090909090773</v>
+        <v>1.109090909090908</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
-        <v>10</v>
+        <v>12.2</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19"/>
@@ -15081,19 +15307,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E20">
-        <v>4.1671324849230203E-2</v>
+        <v>0.16001863281704901</v>
       </c>
       <c r="F20">
-        <v>1.1818181818181801</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G20" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -15104,19 +15330,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>6.0000000000000001E-3</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E21">
-        <v>4.1671324849230203E-2</v>
+        <v>0.16001863281704901</v>
       </c>
       <c r="F21">
-        <v>1.1818181818181801</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -15127,19 +15353,19 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E22">
-        <v>0.59266712455515902</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.4545454545454499</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G22">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -15150,19 +15376,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E23">
-        <v>0.94125099907908005</v>
+        <v>1.6335615906585299</v>
       </c>
       <c r="F23">
-        <v>0.54545454545454497</v>
+        <v>1.72727272727273</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -15173,19 +15399,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>2E-3</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E24">
-        <v>4.1671324849230203E-2</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.1818181818181801</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G24">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15197,23 +15423,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>1.6000000000000001E-3</v>
+        <v>6.7600000000000007E-2</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
-        <v>0.33178641963638594</v>
+        <v>0.39071977125852558</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
-        <v>1.1090909090909071</v>
+        <v>1.2909090909090899</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
-        <v>12.2</v>
+        <v>14.2</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25"/>
@@ -15226,19 +15452,19 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E26">
-        <v>4.1671324849230203E-2</v>
+        <v>0.16001863281704901</v>
       </c>
       <c r="F26">
-        <v>1.1818181818181801</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G26">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -15249,19 +15475,19 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>7.0000000000000001E-3</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E27">
-        <v>4.1671324849230203E-2</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F27">
-        <v>1.1818181818181801</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -15272,19 +15498,19 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E28">
-        <v>0.59266712455515902</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.4545454545454499</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G28">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -15295,19 +15521,19 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E29">
-        <v>0.94125099907908005</v>
+        <v>1.6335615906585299</v>
       </c>
       <c r="F29">
-        <v>0.54545454545454497</v>
+        <v>1.72727272727273</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -15318,19 +15544,19 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>2E-3</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E30">
-        <v>4.1671324849230203E-2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.1818181818181801</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15342,23 +15568,23 @@
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>1.8000000000000002E-3</v>
+        <v>6.720000000000001E-2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
-        <v>0</v>
+        <v>1.4799999999999999E-2</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="16"/>
-        <v>0.33178641963638594</v>
+        <v>0.47724946960614761</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="16"/>
-        <v>1.1090909090909071</v>
+        <v>1.3272727272727258</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="16"/>
-        <v>12.2</v>
+        <v>14.6</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EB11FC-058B-42E8-B1DA-B0A22523F4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC20F9BE-7769-4FCE-AEDC-52F41BFC7429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -3243,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE49171-5CE2-490B-906E-D772E15293F0}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4016,8 +4016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D1754A-8009-4413-844E-C178E0F660F9}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4063,19 +4063,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.3E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="D2" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E2">
-        <v>1.63356584071188</v>
+        <v>5.0004744823397701E-2</v>
       </c>
       <c r="F2">
-        <v>1.72727272727273</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G2" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4086,19 +4086,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>6.1999999999999998E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="D3" s="4">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E3">
-        <v>6.5653173484071701</v>
+        <v>5.0004744823397701E-2</v>
       </c>
       <c r="F3">
-        <v>2.5454545454545499</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G3" s="4">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4109,19 +4109,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.3E-3</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E4">
-        <v>0.34619655078018102</v>
+        <v>2.0648198135799301</v>
       </c>
       <c r="F4">
-        <v>1.36363636363636</v>
+        <v>1.8181818181818199</v>
       </c>
       <c r="G4" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -4132,19 +4132,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.3E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="D5" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E5">
-        <v>5.0004744823397701E-2</v>
+        <v>0.59266851228853401</v>
       </c>
       <c r="F5">
-        <v>0.81818181818181801</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G5" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -4155,19 +4155,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4.0000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="E6">
-        <v>0.160018979743868</v>
+        <v>0.50004270300534304</v>
       </c>
       <c r="F6">
-        <v>1.27272727272727</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G6" s="4">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -4179,23 +4179,23 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>4.4199999999999995E-3</v>
+        <v>4.1400000000000005E-3</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>2.2000000000000001E-4</v>
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7510206928932992</v>
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>0.65150810370412049</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5454545454545454</v>
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>1.1090909090909082</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>12.2</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -4206,7 +4206,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E8">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G8" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -4215,7 +4229,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E9">
+        <v>5.0004744823397701E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4224,7 +4252,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E10">
+        <v>1.63356584071188</v>
+      </c>
+      <c r="F10">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G10" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -4233,7 +4275,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E11">
+        <v>1.24155013128178</v>
+      </c>
+      <c r="F11">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G11" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4242,7 +4298,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E12">
+        <v>0.50004270300534304</v>
+      </c>
+      <c r="F12">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G12" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -4251,25 +4321,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
+        <v>0.69503363292915965</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
+        <v>1.1272727272727283</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
+        <v>12.4</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -4280,6 +4350,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E14">
+        <v>4.1149565269473003</v>
+      </c>
+      <c r="F14">
+        <v>2.1818181818181799</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4288,6 +4373,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E15">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F15">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -4296,6 +4396,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E16">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -4304,6 +4419,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E17">
+        <v>1.6335615906585299</v>
+      </c>
+      <c r="F17">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G17">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4312,6 +4442,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -4320,25 +4465,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.8200000000000005E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <v>1.346288088306828</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+        <v>1.3272727272727269</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
+        <v>14.6</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -4350,19 +4495,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>3.5000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="D20" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E20">
-        <v>2.0648142624376402</v>
+        <v>0.89297359959113698</v>
       </c>
       <c r="F20">
-        <v>1.8181818181818199</v>
+        <v>1.5454545454545501</v>
       </c>
       <c r="G20" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -4373,19 +4518,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E21">
-        <v>2.5316273268488998</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.9090909090909101</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G21">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -4396,19 +4541,19 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1E-4</v>
       </c>
       <c r="E22">
-        <v>0.34619577018749698</v>
+        <v>5.2982103563712899</v>
       </c>
       <c r="F22">
-        <v>1.36363636363636</v>
+        <v>2.3636363636363602</v>
       </c>
       <c r="G22">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -4419,7 +4564,7 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>5.1000000000000004E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="D23" s="4">
         <v>2.0000000000000001E-4</v>
@@ -4442,19 +4587,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>9.3041890193451895</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F24">
-        <v>2.9090909090909101</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G24">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4466,23 +4611,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>3.6999999999999997E-3</v>
+        <v>4.1599999999999996E-3</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>1.2000000000000002E-4</v>
+        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>3.3556907411336256</v>
+        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
+        <v>1.8630956814732973</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9818181818181819</v>
+        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
+        <v>1.636363636363636</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
-        <v>21.8</v>
+        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
+        <v>18</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -4493,6 +4638,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E26">
+        <v>0.89297359959113698</v>
+      </c>
+      <c r="F26">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -4501,6 +4661,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -4509,6 +4684,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E28">
+        <v>5.2982103563712899</v>
+      </c>
+      <c r="F28">
+        <v>2.3636363636363602</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -4517,6 +4707,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E29">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F29">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -4525,6 +4730,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F30">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -4533,25 +4753,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.1399999999999996E-3</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="16"/>
+        <v>1.7697330685910455</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="16"/>
+        <v>1.6181818181818179</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="16"/>
+        <v>17.8</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC20F9BE-7769-4FCE-AEDC-52F41BFC7429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B565683-1C8E-4ECA-AF8E-8A2A37114FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="1100" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -258,6 +264,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1126,35 +1133,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="13">
+        <v>5</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="13">
         <v>66688</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="13">
         <v>0.1</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="13">
         <v>1000</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="13">
         <v>0.1</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="13">
         <v>0.01</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="13">
         <v>0.2</v>
       </c>
     </row>
@@ -1698,7 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B0F070-3E08-4252-BC5E-AB830153CFAB}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2471,7 +2478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D0F3E4-126B-4D1F-8D8C-1E5EC2BB6A13}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3243,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE49171-5CE2-490B-906E-D772E15293F0}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4016,8 +4023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D1754A-8009-4413-844E-C178E0F660F9}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11434,8 +11441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3A14D-1289-4BD6-9B05-2DAAD3D257CE}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12057,6 +12064,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.495</v>
+      </c>
+      <c r="E26" s="4">
+        <v>7.7596092896677302E-10</v>
+      </c>
+      <c r="F26">
+        <v>1.1428571428571399</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -12065,6 +12087,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D27">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F27">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -12073,6 +12110,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>0.627</v>
+      </c>
+      <c r="D28">
+        <v>0.502</v>
+      </c>
+      <c r="E28">
+        <v>4.6952317213050296</v>
+      </c>
+      <c r="F28">
+        <v>2.2727272727272698</v>
+      </c>
+      <c r="G28">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -12081,6 +12133,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="D29">
+        <v>0.496</v>
+      </c>
+      <c r="E29">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F29">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -12089,6 +12156,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D30">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E30">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F30">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -12097,25 +12179,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
-        <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
-        <f t="shared" ref="D31" si="13">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
+      <c r="C31" s="1">
+        <f t="shared" ref="C31:D31" si="13">AVERAGE(C26:C30)</f>
+        <v>0.60980000000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="13"/>
+        <v>0.49059999999999998</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" ref="E31" si="14">AVERAGE(E26:E30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>1.390047942536101</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" ref="F31" si="15">AVERAGE(F26:F30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
+        <v>1.319480519480517</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" ref="G31" si="16">AVERAGE(G26:G30)</f>
-        <v>#DIV/0!</v>
+        <v>13.6</v>
       </c>
     </row>
   </sheetData>
@@ -14210,8 +14292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F79F0E7-5AA4-486A-8115-846DCE711579}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15040,8 +15122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648D3C57-6ABD-4DBA-B233-45AECCD16589}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B565683-1C8E-4ECA-AF8E-8A2A37114FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE0317A-DF19-447B-B3A5-E78A78FB0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="1100" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4023,7 +4023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D1754A-8009-4413-844E-C178E0F660F9}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -4792,7 +4792,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:I31"/>
+      <selection activeCell="C31" sqref="C31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4838,19 +4838,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.13600000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D2">
-        <v>4.9000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E2">
-        <v>4.1671324849230203E-2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.1818181818181801</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G2" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4861,19 +4861,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
-        <v>4.8000000000000001E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E3">
-        <v>5.0004658095770503E-2</v>
+        <v>4.1671324849230203E-2</v>
       </c>
       <c r="F3">
-        <v>0.81818181818181801</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G3" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4884,19 +4884,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.14699999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="D4">
-        <v>5.5E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E4">
-        <v>2.40016768754221</v>
+        <v>4.1671324849230203E-2</v>
       </c>
       <c r="F4">
-        <v>0.36363636363636398</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G4" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4907,19 +4907,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.115</v>
+        <v>0.114</v>
       </c>
       <c r="D5">
-        <v>4.3999999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E5">
-        <v>5.0004658095770503E-2</v>
+        <v>0.16001863281704901</v>
       </c>
       <c r="F5">
-        <v>0.81818181818181801</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G5" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4930,19 +4930,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.127</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D6">
-        <v>4.4999999999999998E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4.1671324849230203E-2</v>
       </c>
       <c r="F6">
-        <v>0.90909090909090895</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G6" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4954,23 +4954,23 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.13300000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>4.82E-2</v>
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.50836966571659636</v>
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>5.7006521472947921E-2</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.81818181818181779</v>
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>1.1818181818181799</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>13</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -4982,19 +4982,19 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.128</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="D8">
-        <v>4.3999999999999997E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E8">
-        <v>4.1671324849230203E-2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.1818181818181801</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G8" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5005,19 +5005,19 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.13</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D9">
-        <v>4.7E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.90909090909090895</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G9" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5028,19 +5028,19 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.14599999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D10">
-        <v>5.1999999999999998E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E10">
-        <v>0.21054494808576399</v>
+        <v>0.16001863281704901</v>
       </c>
       <c r="F10">
-        <v>0.72727272727272696</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G10" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -5052,19 +5052,19 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0.11600000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="D11">
-        <v>4.2000000000000003E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.89297359959113698</v>
       </c>
       <c r="F11">
-        <v>0.90909090909090895</v>
+        <v>1.5454545454545501</v>
       </c>
       <c r="G11" s="4">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5075,19 +5075,19 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.123</v>
+        <v>0.114</v>
       </c>
       <c r="D12">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E12">
-        <v>5.0004658095770503E-2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.81818181818181801</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G12" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5099,23 +5099,23 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>0.12859999999999999</v>
+        <v>0.1226</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>4.5599999999999995E-2</v>
+        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>6.0444186206152939E-2</v>
+        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
+        <v>0.2105984464816372</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.90909090909090862</v>
+        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
+        <v>1.218181818181818</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
+        <v>13.4</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -5127,19 +5127,19 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.121</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="D14">
-        <v>4.7E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>4.1671324849230203E-2</v>
       </c>
       <c r="F14">
-        <v>0.90909090909090895</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5150,10 +5150,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.13100000000000001</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D15">
-        <v>4.7E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5173,19 +5173,19 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.14299999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D16">
-        <v>5.2999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E16">
-        <v>1.5626164502245199</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F16">
-        <v>0.45454545454545497</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -5197,19 +5197,19 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.11</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D17">
-        <v>3.7999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E17">
-        <v>0.50004192247137602</v>
+        <v>1.2415470088229601</v>
       </c>
       <c r="F17">
-        <v>0.63636363636363602</v>
+        <v>1.63636363636364</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5220,19 +5220,19 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0.12</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D18">
         <v>0.04</v>
       </c>
       <c r="E18">
-        <v>5.0004658095770503E-2</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.81818181818181801</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5244,23 +5244,23 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>0.125</v>
+        <v>0.11979999999999999</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.42253260615833332</v>
+        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <v>0.26664459835359217</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.78181818181818152</v>
+        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+        <v>1.1272727272727274</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
-        <v>8.6</v>
+        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
+        <v>12.4</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -5272,19 +5272,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.125</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D20">
-        <v>4.4999999999999998E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E20">
-        <v>0.89297359959113698</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.5454545454545501</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G20" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5295,19 +5295,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.13200000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D21">
-        <v>4.4999999999999998E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E21">
-        <v>5.0004658095770503E-2</v>
+        <v>4.1671324849230203E-2</v>
       </c>
       <c r="F21">
-        <v>0.81818181818181801</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5318,19 +5318,19 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.14599999999999999</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D22">
-        <v>5.1999999999999998E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E22">
-        <v>1.5626164502245199</v>
+        <v>0.34619577018749698</v>
       </c>
       <c r="F22">
-        <v>0.45454545454545497</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J22" s="3"/>
     </row>
@@ -5342,19 +5342,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0.114</v>
+        <v>0.113</v>
       </c>
       <c r="D23">
-        <v>4.1000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5365,19 +5365,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0.122</v>
+        <v>0.115</v>
       </c>
       <c r="D24">
-        <v>0.04</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.90909090909090895</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5389,23 +5389,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>0.1278</v>
+        <v>0.12239999999999999</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>4.4600000000000001E-2</v>
+        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
-        <v>0.50111894158228554</v>
+        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
+        <v>0.19610684391837724</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
-        <v>0.94545454545454644</v>
+        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
+        <v>1.2181818181818158</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
-        <v>10.4</v>
+        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
+        <v>13.4</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -5416,6 +5416,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D26">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -5424,6 +5439,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D27">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E27">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -5432,6 +5462,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.05</v>
+      </c>
+      <c r="E28">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F28">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5441,6 +5486,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>0.113</v>
+      </c>
+      <c r="D29">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F29">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -5449,6 +5509,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>0.115</v>
+      </c>
+      <c r="D30">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -5457,25 +5532,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="16"/>
+        <v>0.19610684391837724</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="16"/>
+        <v>1.2181818181818158</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="16"/>
+        <v>13.4</v>
       </c>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.3">
@@ -5496,10 +5571,13 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="A1:I31"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5537,7 +5615,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.43</v>
+      </c>
+      <c r="E2">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G2" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -5546,7 +5638,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>0.53</v>
+      </c>
+      <c r="D3">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="E3">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F3">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -5555,7 +5661,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="E4">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F4">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -5564,7 +5684,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D5">
+        <v>0.433</v>
+      </c>
+      <c r="E5">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F5">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -5573,7 +5707,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.44</v>
+      </c>
+      <c r="E6">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F6">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G6" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -5582,25 +5730,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
+        <v>0.42720000000000002</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>1.0151432891420573</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>0.78181818181818097</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>8.6</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -5611,7 +5759,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F8">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G8" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -5620,7 +5782,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F9">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G9" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -5629,7 +5805,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F10">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5638,7 +5828,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.35</v>
+      </c>
+      <c r="E11">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F11">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5647,7 +5851,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="E12">
+        <v>1.6335615906585299</v>
+      </c>
+      <c r="F12">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G12" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -5656,25 +5874,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
+        <v>0.47739999999999999</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
+        <v>0.34839999999999993</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>0.69918888167610282</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
+        <v>0.87272727272727302</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -5685,6 +5903,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0.48</v>
+      </c>
+      <c r="D14">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F14">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -5693,6 +5926,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D15">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="E15">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F15">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -5701,6 +5949,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -5709,6 +5972,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0.495</v>
+      </c>
+      <c r="D17">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -5717,6 +5995,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0.499</v>
+      </c>
+      <c r="D18">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F18">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -5725,25 +6018,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
+        <v>0.3518</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>0.19264614109159442</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
+        <v>1.0545454545454529</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>11.6</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -5754,7 +6047,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -5763,6 +6070,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.314</v>
+      </c>
+      <c r="E21">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F21">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -5771,6 +6093,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.32</v>
+      </c>
+      <c r="E22">
+        <v>2.40016768754221</v>
+      </c>
+      <c r="F22">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -5779,6 +6116,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D23">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F23">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -5787,6 +6139,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E24">
+        <v>4.1149565269473003</v>
+      </c>
+      <c r="F24">
+        <v>2.1818181818181799</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -5795,25 +6162,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
+        <v>0.3236</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>1.3771375590784647</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>12</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -5824,6 +6191,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D26">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E26">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -5832,6 +6214,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.314</v>
+      </c>
+      <c r="E27">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F27">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -5840,6 +6237,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.32</v>
+      </c>
+      <c r="E28">
+        <v>2.40016768754221</v>
+      </c>
+      <c r="F28">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -5848,6 +6260,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D29">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F29">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -5856,6 +6283,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D30">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E30">
+        <v>4.1149565269473003</v>
+      </c>
+      <c r="F30">
+        <v>2.1818181818181799</v>
+      </c>
+      <c r="G30">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -5864,25 +6306,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>1.387138490697619</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
+        <v>1.0727272727272719</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>11.8</v>
       </c>
     </row>
   </sheetData>
@@ -5896,10 +6338,13 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="C31" sqref="C31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6011,7 +6456,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -6020,7 +6479,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E9">
+        <v>1.6335615906585299</v>
+      </c>
+      <c r="F9">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G9" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -6029,7 +6502,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="E10">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -6038,7 +6525,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E11">
+        <v>3.0307688680889999</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -6047,7 +6548,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D12">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E12">
+        <v>0.89297359959113698</v>
+      </c>
+      <c r="F12">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G12" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -6056,25 +6571,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
+        <v>0.67180000000000006</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
+        <v>0.56319999999999992</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>1.1214617432868876</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
+        <v>1.4181818181818198</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>15.6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -6085,6 +6600,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -6093,6 +6623,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D15">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="E15">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F15">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -6101,6 +6646,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D16">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E16">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F16">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -6109,6 +6669,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D17">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -6117,6 +6692,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="E18">
+        <v>3.5593871957585499</v>
+      </c>
+      <c r="F18">
+        <v>2.0909090909090899</v>
+      </c>
+      <c r="G18">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -6125,25 +6715,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
+        <v>0.67179999999999995</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>0.94223662858467883</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
+        <v>1.1090909090909082</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>12.2</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -6154,7 +6744,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="D20">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -6163,6 +6767,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -6171,6 +6790,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>0.61</v>
+      </c>
+      <c r="D22">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -6179,6 +6813,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.89297359959113698</v>
+      </c>
+      <c r="F23">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G23">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -6187,6 +6836,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D24">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E24">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F24">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -6195,25 +6859,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>0.59155757240575535</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>1.2181818181818194</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>13.4</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -6224,6 +6888,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="D26">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -6232,6 +6911,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D27">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -6240,6 +6934,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>0.61</v>
+      </c>
+      <c r="D28">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E28">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -6248,6 +6957,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E29">
+        <v>1.2415470088229601</v>
+      </c>
+      <c r="F29">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G29">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -6256,6 +6980,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D30">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E30">
+        <v>1.2415470088229601</v>
+      </c>
+      <c r="F30">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G30">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -6264,25 +7003,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
+        <v>0.60040000000000004</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
+        <v>0.4748</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>0.50661973514833814</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
+        <v>1.1818181818181832</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8268,7 +9007,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8309,7 +9048,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.21054495207898799</v>
+      </c>
+      <c r="F2">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8318,7 +9071,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -8327,7 +9094,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1.56261647518147</v>
+      </c>
+      <c r="F4">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -8336,7 +9117,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>5.0004659094085697E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8345,7 +9140,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.94125101505167796</v>
+      </c>
+      <c r="F6">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -8354,25 +9163,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>0.55288342028124426</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>0.70909090909090899</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>7.8</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -8383,7 +9192,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.21054495207898799</v>
+      </c>
+      <c r="F8">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G8" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -8392,7 +9215,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -8401,7 +9238,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.56261647518147</v>
+      </c>
+      <c r="F10">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -8410,7 +9261,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5.0004659094085697E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G11" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -8419,7 +9284,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.94125101505167796</v>
+      </c>
+      <c r="F12">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -8428,25 +9307,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>0.55288342028124426</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
+        <v>0.70909090909090899</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7.8</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -8526,7 +9405,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F20">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G20" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -8535,6 +9428,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F21">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8543,6 +9451,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F22">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -8551,6 +9474,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F23">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -8559,6 +9497,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F24">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -8567,25 +9520,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
+        <v>1E-4</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>0.44718452386620849</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>0.76363636363636322</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>8.4</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -8596,6 +9549,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F26">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -8604,6 +9572,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -8612,6 +9595,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2.40016768754221</v>
+      </c>
+      <c r="F28">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -8620,6 +9618,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F29">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -8628,6 +9641,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F30">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -8636,25 +9664,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
+        <v>1E-4</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>0.61469477132974659</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
+        <v>0.74545454545454493</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -8668,7 +9696,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8709,7 +9737,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2.53162740772148</v>
+      </c>
+      <c r="F2">
+        <v>1.9090909090909101</v>
+      </c>
+      <c r="G2" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8718,7 +9760,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -8727,7 +9783,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1.6335616395805399</v>
+      </c>
+      <c r="F4">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G4" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -8736,7 +9806,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8745,7 +9829,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4.1671325847582701E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G6" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -8754,25 +9852,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" s="12">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>0.84137207462992047</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>1.3272727272727276</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>14.6</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -8783,7 +9881,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2.0648143263363701</v>
+      </c>
+      <c r="F8">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G8" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -8792,7 +9904,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -8801,7 +9927,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.6335616395805399</v>
+      </c>
+      <c r="F10">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="G10" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -8810,7 +9950,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -8819,7 +9973,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4.1671325847582701E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G12" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -8828,25 +9996,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="12">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.4000000000000003E-4</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
+        <v>0.74800945835289856</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
+        <v>1.3090909090909095</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
+        <v>14.4</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -8897,24 +10065,24 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="12" t="e">
         <f>AVERAGE(C14:C18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D19" s="1" t="e">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
-        <f t="shared" si="2"/>
+      <c r="D19" s="12" t="e">
+        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="12" t="e">
+        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="12" t="e">
+        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="12" t="e">
+        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="3"/>
@@ -8926,7 +10094,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3.0307688680889999</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -8935,6 +10117,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F21">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8943,6 +10140,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.89297359959113698</v>
+      </c>
+      <c r="F22">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G22">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -8951,6 +10163,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -8959,6 +10186,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F24">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G24">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -8967,25 +10209,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="12">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.4000000000000003E-4</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
+        <v>0.88599137413693663</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
+        <v>1.4545454545454539</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
+        <v>16</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -8996,6 +10238,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>3.0307688680889999</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -9004,6 +10261,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F27">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -9012,6 +10284,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F28">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -9020,6 +10307,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -9028,6 +10330,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F30">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -9036,25 +10353,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="12">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.4000000000000003E-4</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="16"/>
+        <v>0.739400380782119</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="16"/>
+        <v>1.3999999999999979</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="16"/>
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>
@@ -9068,7 +10385,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9109,7 +10426,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.59266714052924496</v>
+      </c>
+      <c r="F2">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G2" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -9118,7 +10449,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.50004193145604603</v>
+      </c>
+      <c r="F3">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -9127,7 +10472,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>5.0004659094085697E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -9136,7 +10495,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.50004193145604603</v>
+      </c>
+      <c r="F5">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -9145,7 +10518,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2.4001677234798899</v>
+      </c>
+      <c r="F6">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -9154,25 +10541,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>0.80858467720306249</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>0.78181818181818075</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>8.6</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -9183,7 +10570,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.59266714052924496</v>
+      </c>
+      <c r="F8">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G8" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -9192,7 +10593,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.50004193145604603</v>
+      </c>
+      <c r="F9">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G9" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -9201,7 +10616,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>5.0004659094085697E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -9210,7 +10639,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.50004193145604603</v>
+      </c>
+      <c r="F11">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -9219,7 +10662,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2.4001677234798899</v>
+      </c>
+      <c r="F12">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -9228,25 +10685,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>0.80858467720306249</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
+        <v>0.78181818181818075</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -9326,7 +10783,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F20">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G20" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -9335,6 +10806,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -9343,6 +10829,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -9351,6 +10852,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -9359,6 +10875,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F24">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -9367,25 +10898,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
+        <v>1E-4</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>0.1213490752738063</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>0.96363636363636263</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>10.6</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -9396,6 +10927,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F26">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -9404,6 +10950,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -9412,6 +10973,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -9420,6 +10996,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -9428,6 +11019,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F30">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -9436,25 +11042,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
+        <v>1E-4</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>0.15201397429599323</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
+        <v>0.90909090909090828</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9468,7 +11074,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE0317A-DF19-447B-B3A5-E78A78FB0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE9EF6-86A3-4F77-9273-46AC40D53677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="50" yWindow="1130" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +237,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -250,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -265,6 +271,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -591,7 +598,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="14">
         <v>66688</v>
       </c>
       <c r="E2">
@@ -614,7 +621,7 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="14">
         <v>66688</v>
       </c>
       <c r="E3">
@@ -637,7 +644,7 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="14">
         <v>66688</v>
       </c>
       <c r="E4">
@@ -660,7 +667,7 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="14">
         <v>66688</v>
       </c>
       <c r="E5">
@@ -683,7 +690,7 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <v>66688</v>
       </c>
       <c r="E6">
@@ -706,7 +713,7 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="14">
         <v>66688</v>
       </c>
       <c r="E7">
@@ -867,7 +874,7 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="14">
         <v>66688</v>
       </c>
       <c r="E14">
@@ -890,7 +897,7 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="14">
         <v>66688</v>
       </c>
       <c r="E15">
@@ -913,7 +920,7 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="14">
         <v>66688</v>
       </c>
       <c r="E16">
@@ -936,7 +943,7 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="14">
         <v>66688</v>
       </c>
       <c r="E17">
@@ -959,7 +966,7 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="14">
         <v>66688</v>
       </c>
       <c r="E18">
@@ -982,7 +989,7 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="14">
         <v>66688</v>
       </c>
       <c r="E19">
@@ -1143,7 +1150,7 @@
       <c r="C26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="14">
         <v>66688</v>
       </c>
       <c r="E26" s="13">
@@ -1175,7 +1182,7 @@
       <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="14">
         <v>66688</v>
       </c>
       <c r="E27">
@@ -1198,7 +1205,7 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="14">
         <v>66688</v>
       </c>
       <c r="E28">
@@ -1221,7 +1228,7 @@
       <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="14">
         <v>66688</v>
       </c>
       <c r="E29">
@@ -1244,7 +1251,7 @@
       <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="14">
         <v>66688</v>
       </c>
       <c r="E30">
@@ -1267,7 +1274,7 @@
       <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="14">
         <v>66688</v>
       </c>
       <c r="E31">
@@ -1428,7 +1435,7 @@
       <c r="C38" t="s">
         <v>21</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="14">
         <v>66688</v>
       </c>
       <c r="E38">
@@ -1451,7 +1458,7 @@
       <c r="C39" t="s">
         <v>21</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="14">
         <v>66688</v>
       </c>
       <c r="E39">
@@ -1474,7 +1481,7 @@
       <c r="C40" t="s">
         <v>21</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="14">
         <v>66688</v>
       </c>
       <c r="E40">
@@ -1497,7 +1504,7 @@
       <c r="C41" t="s">
         <v>21</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="14">
         <v>66688</v>
       </c>
       <c r="E41">
@@ -1520,7 +1527,7 @@
       <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="14">
         <v>66688</v>
       </c>
       <c r="E42">
@@ -1543,7 +1550,7 @@
       <c r="C43" t="s">
         <v>21</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="14">
         <v>66688</v>
       </c>
       <c r="E43">
@@ -7035,7 +7042,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7076,7 +7083,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F2">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7085,7 +7106,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7094,7 +7129,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7103,7 +7152,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E5">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F5">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G5" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7112,7 +7175,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E6">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F6">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7121,25 +7198,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
+        <v>2.82E-3</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>0.39663693784462073</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>0.83636363636363575</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -7150,7 +7227,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F8">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G8" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7159,7 +7250,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7168,7 +7273,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7177,7 +7296,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E11">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G11" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7186,7 +7319,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E12">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F12">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7195,25 +7342,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
+        <v>2.7999999999999995E-3</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>0.38296840787021103</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
+        <v>0.7999999999999996</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -7224,6 +7371,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>2E-3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F14">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -7232,6 +7394,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -7240,6 +7417,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -7248,6 +7440,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -7256,6 +7463,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E18">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F18">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -7264,25 +7486,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
+        <v>2.6000000000000003E-3</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>0.29825951592924527</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
+        <v>0.79999999999999949</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -7293,7 +7515,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G20" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -7302,6 +7538,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -7310,6 +7561,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -7318,6 +7584,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E23">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F23">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -7326,6 +7607,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E24">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F24">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -7334,25 +7630,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
+        <v>2.96E-3</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>0.14201304267683912</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>0.98181818181818081</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>10.8</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -7363,6 +7659,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -7371,6 +7682,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -7379,6 +7705,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -7387,6 +7728,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E29">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F29">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -7395,6 +7751,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E30">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F30">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -7403,25 +7774,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
+        <v>2.96E-3</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>0.23025485799837991</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
+        <v>0.94545454545454466</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>10.4</v>
       </c>
     </row>
   </sheetData>
@@ -7435,7 +7806,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7476,7 +7847,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F2">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G2" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7485,7 +7870,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>9.64E-2</v>
+      </c>
+      <c r="D3">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F3">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G3" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7494,7 +7893,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.04E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F4">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7503,7 +7916,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.46E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F5">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7512,7 +7939,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F6">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G6" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7521,25 +7962,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
+        <v>2.9339999999999998E-2</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>0.35328855561977901</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>1.1272727272727248</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>12.4</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -7550,7 +7991,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F8">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7559,7 +8014,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.0648142624376402</v>
+      </c>
+      <c r="F9">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7568,7 +8037,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7577,7 +8060,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F11">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7586,7 +8083,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.24E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.2415470088229601</v>
+      </c>
+      <c r="F12">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G12" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7595,25 +8106,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
+        <v>7.8839999999999993E-2</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
+        <v>2.2079999999999999E-2</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>0.77262039790677228</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
+        <v>1.2909090909090912</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>14.2</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -7624,6 +8135,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F14">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -7632,6 +8158,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="D15">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F15">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -7640,6 +8181,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D16">
+        <v>2.23E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -7648,6 +8204,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.95E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F17">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -7656,6 +8227,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="D18">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -7664,25 +8250,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
+        <v>7.6540000000000011E-2</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
+        <v>2.1340000000000005E-2</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>0.20098040606144046</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
+        <v>1.1454545454545433</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>12.6</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -7693,7 +8279,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.66E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F20">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G20" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -7702,6 +8302,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -7710,6 +8325,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -7718,6 +8348,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.43E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -7726,6 +8371,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F24">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -7734,25 +8394,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
+        <v>6.6739999999999994E-2</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
+        <v>1.6360000000000003E-2</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>0.1112438122200633</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>1.1090909090909076</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>12.2</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -7763,6 +8423,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="D26">
+        <v>1.66E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F26">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -7771,6 +8446,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>6.88E-2</v>
+      </c>
+      <c r="D27">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -7779,6 +8469,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.61E-2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -7787,6 +8492,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -7795,6 +8515,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>6.59E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F30">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -7803,25 +8538,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
+        <v>6.6760000000000014E-2</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
+        <v>1.6320000000000001E-2</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>0.1012428806009092</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
+        <v>1.1272727272727256</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>12.4</v>
       </c>
     </row>
   </sheetData>
@@ -7836,7 +8571,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7951,7 +8686,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>0.2228</v>
+      </c>
+      <c r="D8">
+        <v>0.1041</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G8" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7960,7 +8709,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.1114</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G9" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7969,7 +8732,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>0.22209999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.2415470088229601</v>
+      </c>
+      <c r="F10">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G10" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7978,7 +8755,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>0.2261</v>
+      </c>
+      <c r="D11">
+        <v>0.1123</v>
+      </c>
+      <c r="E11">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F11">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G11" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7987,7 +8778,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>0.2281</v>
+      </c>
+      <c r="D12">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7996,25 +8801,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
+        <v>0.22481999999999996</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
+        <v>0.11032</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>0.36684282667562379</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
+        <v>1.254545454545454</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>13.8</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -8025,6 +8830,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="D14">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F14">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -8033,6 +8853,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="D15">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -8041,6 +8876,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="D16">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -8049,6 +8899,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0.2024</v>
+      </c>
+      <c r="D17">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -8057,6 +8922,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0.2036</v>
+      </c>
+      <c r="D18">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -8065,25 +8945,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
+        <v>0.20224000000000003</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>4.2108989617152801E-2</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
+        <v>0.89090909090909087</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -8094,7 +8974,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="D20">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F20">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G20" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -8103,6 +8997,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D21">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8111,6 +9020,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="D22">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="E22">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -8119,6 +9043,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="D23">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G23">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -8127,6 +9066,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>0.1467</v>
+      </c>
+      <c r="D24">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -8135,25 +9089,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
+        <v>0.14413999999999999</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
+        <v>5.5059999999999998E-2</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>4.8672256503101877E-2</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>1.1272727272727256</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>12.4</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -8164,6 +9118,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="D26">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F26">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -8172,6 +9141,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>0.1452</v>
+      </c>
+      <c r="D27">
+        <v>5.57E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -8180,6 +9164,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="D28">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -8188,6 +9187,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>0.1414</v>
+      </c>
+      <c r="D29">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="E29">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -8196,6 +9210,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="D30">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -8204,25 +9233,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
+        <v>0.14405999999999999</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
+        <v>5.489999999999999E-2</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>4.0337991533255839E-2</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
+        <v>1.1090909090909078</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>12.2</v>
       </c>
     </row>
   </sheetData>
@@ -9007,7 +10036,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9336,6 +10365,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -9344,6 +10388,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F15">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -9352,6 +10411,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F16">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -9360,6 +10434,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -9368,6 +10457,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.16001863281704901</v>
+      </c>
+      <c r="F18">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -9376,25 +10480,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>0.44453540110258893</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
+        <v>0.87272727272727191</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>9.6</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -16728,8 +17832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648D3C57-6ABD-4DBA-B233-45AECCD16589}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE9EF6-86A3-4F77-9273-46AC40D53677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB8B3B8-9418-429C-8D2E-38A9FE925535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="50" yWindow="1130" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="1130" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>7896</v>
+        <v>7895</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>7896</v>
+        <v>7895</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>7896</v>
+        <v>7895</v>
       </c>
       <c r="E10">
         <v>0.9</v>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>7896</v>
+        <v>7895</v>
       </c>
       <c r="E11">
         <v>0.1</v>
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>7896</v>
+        <v>7895</v>
       </c>
       <c r="E12">
         <v>0.5</v>
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>7896</v>
+        <v>7895</v>
       </c>
       <c r="E13">
         <v>0.9</v>
@@ -1013,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>7896</v>
+        <v>7895</v>
       </c>
       <c r="E20">
         <v>0.1</v>
@@ -1036,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>7896</v>
+        <v>7895</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -1059,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>7896</v>
+        <v>7895</v>
       </c>
       <c r="E22">
         <v>0.9</v>
@@ -1082,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>7896</v>
+        <v>7895</v>
       </c>
       <c r="E23">
         <v>0.1</v>
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>7896</v>
+        <v>7895</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -1128,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>7896</v>
+        <v>7895</v>
       </c>
       <c r="E25">
         <v>0.9</v>
@@ -1298,7 +1298,7 @@
         <v>21</v>
       </c>
       <c r="D32">
-        <v>7896</v>
+        <v>10000</v>
       </c>
       <c r="E32">
         <v>0.1</v>
@@ -1321,7 +1321,7 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>7896</v>
+        <v>10000</v>
       </c>
       <c r="E33">
         <v>0.5</v>
@@ -1344,7 +1344,7 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>7896</v>
+        <v>10000</v>
       </c>
       <c r="E34">
         <v>0.9</v>
@@ -1367,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="D35">
-        <v>7896</v>
+        <v>10000</v>
       </c>
       <c r="E35">
         <v>0.1</v>
@@ -1390,7 +1390,7 @@
         <v>21</v>
       </c>
       <c r="D36">
-        <v>7896</v>
+        <v>10000</v>
       </c>
       <c r="E36">
         <v>0.5</v>
@@ -1413,7 +1413,7 @@
         <v>21</v>
       </c>
       <c r="D37">
-        <v>7896</v>
+        <v>10000</v>
       </c>
       <c r="E37">
         <v>0.9</v>
@@ -1574,7 +1574,7 @@
         <v>21</v>
       </c>
       <c r="D44">
-        <v>7896</v>
+        <v>10000</v>
       </c>
       <c r="E44">
         <v>0.1</v>
@@ -1597,7 +1597,7 @@
         <v>21</v>
       </c>
       <c r="D45">
-        <v>7896</v>
+        <v>10000</v>
       </c>
       <c r="E45">
         <v>0.5</v>
@@ -1620,7 +1620,7 @@
         <v>21</v>
       </c>
       <c r="D46">
-        <v>7896</v>
+        <v>10000</v>
       </c>
       <c r="E46">
         <v>0.9</v>
@@ -1643,7 +1643,7 @@
         <v>21</v>
       </c>
       <c r="D47">
-        <v>7896</v>
+        <v>10000</v>
       </c>
       <c r="E47">
         <v>0.1</v>
@@ -1666,7 +1666,7 @@
         <v>21</v>
       </c>
       <c r="D48">
-        <v>7896</v>
+        <v>10000</v>
       </c>
       <c r="E48">
         <v>0.5</v>
@@ -1689,7 +1689,7 @@
         <v>21</v>
       </c>
       <c r="D49">
-        <v>7896</v>
+        <v>10000</v>
       </c>
       <c r="E49">
         <v>0.9</v>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB8B3B8-9418-429C-8D2E-38A9FE925535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C02D45B-C6F8-433C-9D2F-76033E57F4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="1130" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="26">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,12 +161,16 @@
     <t>Power, 5E-8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>fastGWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,27 +195,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -256,19 +239,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -554,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -598,7 +575,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="8">
         <v>66688</v>
       </c>
       <c r="E2">
@@ -621,7 +598,7 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="8">
         <v>66688</v>
       </c>
       <c r="E3">
@@ -644,7 +621,7 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="8">
         <v>66688</v>
       </c>
       <c r="E4">
@@ -667,7 +644,7 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="8">
         <v>66688</v>
       </c>
       <c r="E5">
@@ -690,7 +667,7 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="8">
         <v>66688</v>
       </c>
       <c r="E6">
@@ -713,7 +690,7 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="8">
         <v>66688</v>
       </c>
       <c r="E7">
@@ -737,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>7895</v>
+        <v>10000</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -760,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>7895</v>
+        <v>10000</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -783,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>7895</v>
+        <v>10000</v>
       </c>
       <c r="E10">
         <v>0.9</v>
@@ -806,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>7895</v>
+        <v>10000</v>
       </c>
       <c r="E11">
         <v>0.1</v>
@@ -829,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>7895</v>
+        <v>10000</v>
       </c>
       <c r="E12">
         <v>0.5</v>
@@ -852,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>7895</v>
+        <v>10000</v>
       </c>
       <c r="E13">
         <v>0.9</v>
@@ -874,7 +851,7 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="8">
         <v>66688</v>
       </c>
       <c r="E14">
@@ -897,7 +874,7 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="8">
         <v>66688</v>
       </c>
       <c r="E15">
@@ -920,7 +897,7 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="8">
         <v>66688</v>
       </c>
       <c r="E16">
@@ -943,7 +920,7 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="8">
         <v>66688</v>
       </c>
       <c r="E17">
@@ -966,7 +943,7 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="8">
         <v>66688</v>
       </c>
       <c r="E18">
@@ -989,7 +966,7 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="8">
         <v>66688</v>
       </c>
       <c r="E19">
@@ -1013,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>7895</v>
+        <v>10000</v>
       </c>
       <c r="E20">
         <v>0.1</v>
@@ -1036,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>7895</v>
+        <v>10000</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -1059,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>7895</v>
+        <v>10000</v>
       </c>
       <c r="E22">
         <v>0.9</v>
@@ -1082,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>7895</v>
+        <v>10000</v>
       </c>
       <c r="E23">
         <v>0.1</v>
@@ -1105,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>7895</v>
+        <v>10000</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -1128,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>7895</v>
+        <v>10000</v>
       </c>
       <c r="E25">
         <v>0.9</v>
@@ -1140,35 +1117,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+    <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="13">
-        <v>5</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="7">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="8">
         <v>66688</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="7">
         <v>0.1</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="7">
         <v>1000</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="7">
         <v>0.1</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="7">
         <v>0.01</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="7">
         <v>0.2</v>
       </c>
     </row>
@@ -1182,7 +1159,7 @@
       <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="8">
         <v>66688</v>
       </c>
       <c r="E27">
@@ -1205,7 +1182,7 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="8">
         <v>66688</v>
       </c>
       <c r="E28">
@@ -1228,7 +1205,7 @@
       <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="8">
         <v>66688</v>
       </c>
       <c r="E29">
@@ -1251,7 +1228,7 @@
       <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="8">
         <v>66688</v>
       </c>
       <c r="E30">
@@ -1274,7 +1251,7 @@
       <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="8">
         <v>66688</v>
       </c>
       <c r="E31">
@@ -1435,7 +1412,7 @@
       <c r="C38" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="8">
         <v>66688</v>
       </c>
       <c r="E38">
@@ -1458,7 +1435,7 @@
       <c r="C39" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="8">
         <v>66688</v>
       </c>
       <c r="E39">
@@ -1481,7 +1458,7 @@
       <c r="C40" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="8">
         <v>66688</v>
       </c>
       <c r="E40">
@@ -1504,7 +1481,7 @@
       <c r="C41" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="8">
         <v>66688</v>
       </c>
       <c r="E41">
@@ -1527,7 +1504,7 @@
       <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="8">
         <v>66688</v>
       </c>
       <c r="E42">
@@ -1550,7 +1527,7 @@
       <c r="C43" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="8">
         <v>66688</v>
       </c>
       <c r="E43">
@@ -1713,7 +1690,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E27" sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1764,19 +1741,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.32600000000000001</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D2">
-        <v>0.192</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="E2">
-        <v>0.94125238668197297</v>
+        <v>0.160018636810496</v>
       </c>
       <c r="F2">
-        <v>0.54545454545454497</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G2" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1787,19 +1764,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.33200000000000002</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="D3">
-        <v>0.191</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>0.34619655078018102</v>
+        <v>4.1671325847582701E-2</v>
       </c>
       <c r="F3">
-        <v>1.36363636363636</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G3" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1810,19 +1787,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.34</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D4">
-        <v>0.22700000000000001</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E4">
-        <v>0.50004270300534304</v>
+        <v>1.56261647518147</v>
       </c>
       <c r="F4">
-        <v>0.63636363636363602</v>
+        <v>0.45454545454545497</v>
       </c>
       <c r="G4" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1833,19 +1810,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.35</v>
+        <v>0.437</v>
       </c>
       <c r="D5">
-        <v>0.21099999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.50004193145604603</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G5" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1856,19 +1833,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D6">
-        <v>0.153</v>
+        <v>0.311</v>
       </c>
       <c r="E6">
-        <v>0.160018979743868</v>
+        <v>0.21054495207898799</v>
       </c>
       <c r="F6">
-        <v>1.27272727272727</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G6" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1880,23 +1857,23 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.3296</v>
+        <v>0.40440000000000004</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
-        <v>0.1948</v>
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.26839999999999997</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
-        <v>0.38950212404227302</v>
+        <f t="shared" si="0"/>
+        <v>0.49497866427491655</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
-        <v>0.96363636363636229</v>
+        <f t="shared" si="0"/>
+        <v>0.85454545454545361</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
-        <v>10.6</v>
+        <f t="shared" si="0"/>
+        <v>9.4</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -1908,19 +1885,19 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.16200000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="D8">
-        <v>5.6000000000000001E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="E8">
-        <v>0.94125238668197297</v>
+        <v>4.1671325847582701E-2</v>
       </c>
       <c r="F8">
-        <v>0.54545454545454497</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G8" s="4">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1931,19 +1908,19 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.16700000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="D9">
-        <v>5.8999999999999997E-2</v>
+        <v>0.108</v>
       </c>
       <c r="E9">
-        <v>0.94125238668197297</v>
+        <v>0.160018636810496</v>
       </c>
       <c r="F9">
-        <v>0.54545454545454497</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G9" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1954,19 +1931,19 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.158</v>
+        <v>0.223</v>
       </c>
       <c r="D10">
-        <v>6.0999999999999999E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E10">
-        <v>0.210545294993011</v>
+        <v>0.346195779172837</v>
       </c>
       <c r="F10">
-        <v>0.72727272727272696</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G10" s="4">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1977,19 +1954,19 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0.17299999999999999</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="D11">
-        <v>6.2E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E11">
-        <v>5.0004744823397701E-2</v>
+        <v>0.346195779172837</v>
       </c>
       <c r="F11">
-        <v>0.81818181818181801</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G11" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2000,19 +1977,19 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.16800000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="D12">
-        <v>5.6000000000000001E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E12">
-        <v>0.160018979743868</v>
+        <v>0.59266714052924496</v>
       </c>
       <c r="F12">
-        <v>1.27272727272727</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G12" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2024,23 +2001,23 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>0.1656</v>
+        <v>0.2218</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
-        <v>5.8799999999999998E-2</v>
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
-        <v>0.46061475858484446</v>
+        <f t="shared" si="1"/>
+        <v>0.29734973230659956</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
-        <v>0.78181818181818097</v>
+        <f t="shared" si="1"/>
+        <v>1.3272727272727241</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
-        <v>8.6</v>
+        <f t="shared" si="1"/>
+        <v>14.6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -2052,19 +2029,19 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.158</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D14">
-        <v>5.3999999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E14">
-        <v>3.0307688680889999</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2075,19 +2052,19 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.16300000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="D15">
-        <v>5.5E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2098,10 +2075,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.15</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D16">
-        <v>6.0999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E16">
         <v>5.0004658095770503E-2</v>
@@ -2121,19 +2098,19 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.17399999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="D17">
-        <v>6.0999999999999999E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F17">
-        <v>1.0909090909090899</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G17">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2144,19 +2121,19 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0.161</v>
+        <v>0.217</v>
       </c>
       <c r="D18">
-        <v>6.0999999999999999E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F18">
-        <v>1.0909090909090899</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2168,23 +2145,23 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>0.16120000000000001</v>
+        <v>0.21880000000000002</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
-        <v>5.8399999999999994E-2</v>
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>9.2399999999999996E-2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
-        <v>0.61615470523695415</v>
+        <f t="shared" si="2"/>
+        <v>3.0002794857462302E-2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
-        <v>1.1999999999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.90909090909090884</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
-        <v>13.2</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -2196,19 +2173,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.157</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="D20">
-        <v>5.3999999999999999E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E20">
-        <v>3.0307688680889999</v>
+        <v>4.9995342317536898E-2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G20" s="4">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2219,19 +2196,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.16400000000000001</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="D21">
-        <v>5.8000000000000003E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E21">
-        <v>0.34619577018749698</v>
+        <v>0.16003726635357601</v>
       </c>
       <c r="F21">
-        <v>1.36363636363636</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2242,19 +2219,19 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.156</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D22">
-        <v>6.0999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E22">
-        <v>5.0004658095770503E-2</v>
+        <v>0.34622372044037603</v>
       </c>
       <c r="F22">
-        <v>0.81818181818181801</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2265,19 +2242,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0.17399999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D23">
-        <v>0.06</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E23">
-        <v>0.16001863281704901</v>
+        <v>0.89302018367110503</v>
       </c>
       <c r="F23">
-        <v>1.27272727272727</v>
+        <v>1.5454545454545501</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2288,19 +2265,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0.16900000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D24">
-        <v>5.5E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E24">
-        <v>3.5593871957585499</v>
+        <v>1.2416029100134101</v>
       </c>
       <c r="F24">
-        <v>2.0909090909090899</v>
+        <v>1.63636363636364</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2312,23 +2289,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>0.16400000000000001</v>
+        <v>0.2064</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
-        <v>5.7599999999999998E-2</v>
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>8.4800000000000014E-2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
-        <v>1.4292750249895732</v>
+        <f t="shared" si="3"/>
+        <v>0.53817588455920085</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
-        <v>1.5090909090909075</v>
+        <f t="shared" si="3"/>
+        <v>1.3272727272727276</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
-        <v>16.600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>14.6</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -2340,19 +2317,19 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0.157</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="D26">
-        <v>5.3999999999999999E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E26">
-        <v>2.0648142624376402</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F26">
-        <v>1.8181818181818199</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2363,19 +2340,19 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>0.16200000000000001</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="D27">
-        <v>5.8000000000000003E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E27">
-        <v>0.34619577018749698</v>
+        <v>0.16001863281704901</v>
       </c>
       <c r="F27">
-        <v>1.36363636363636</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G27">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2386,19 +2363,19 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0.155</v>
+        <v>0.21</v>
       </c>
       <c r="D28">
-        <v>0.06</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E28">
-        <v>5.0004658095770503E-2</v>
+        <v>0.34619577018749698</v>
       </c>
       <c r="F28">
-        <v>0.81818181818181801</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2409,19 +2386,19 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>0.17399999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D29">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E29">
-        <v>4.1671324849230203E-2</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F29">
-        <v>1.1818181818181801</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G29">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2432,19 +2409,19 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>0.16900000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D30">
-        <v>5.5E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E30">
-        <v>3.5593871957585499</v>
+        <v>1.2415470088229601</v>
       </c>
       <c r="F30">
-        <v>2.0909090909090899</v>
+        <v>1.63636363636364</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2456,23 +2433,23 @@
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>0.16339999999999999</v>
+        <v>0.2064</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
-        <v>5.7399999999999993E-2</v>
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>8.4200000000000011E-2</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="16"/>
-        <v>1.2124146422657376</v>
+        <f t="shared" si="4"/>
+        <v>0.47808663889568714</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="16"/>
-        <v>1.4545454545454537</v>
+        <f t="shared" si="4"/>
+        <v>1.3090909090909075</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>14.4</v>
       </c>
     </row>
   </sheetData>
@@ -2486,7 +2463,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2535,19 +2512,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.50004193145604603</v>
       </c>
       <c r="F2">
-        <v>1.0909090909090899</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G2" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2564,13 +2541,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.94125101505167796</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G3" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2580,20 +2557,20 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
-        <v>2.0000000000000001E-4</v>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.160018979743868</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.27272727272727</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2603,20 +2580,20 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
-        <v>2.0000000000000001E-4</v>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.94125101505167796</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G5" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2626,20 +2603,20 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
-        <v>1E-4</v>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.94125238668197297</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.54545454545454497</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2649,25 +2626,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>1.4000000000000001E-4</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
-        <v>0.22025427328516817</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
-        <v>0.98181818181818092</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
-        <v>10.8</v>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47650879231188037</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74545454545454515</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -2679,19 +2656,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.50004193145604603</v>
       </c>
       <c r="F8">
-        <v>1.0909090909090899</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G8" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2708,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.94125101505167796</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G9" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2724,20 +2701,20 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="4">
-        <v>2.0000000000000001E-4</v>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.160018979743868</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.27272727272727</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2747,20 +2724,20 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="4">
-        <v>2.0000000000000001E-4</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.94125101505167796</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G11" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2770,20 +2747,20 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
-        <v>1E-4</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.94125238668197297</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.54545454545454497</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2793,25 +2770,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>1.4000000000000001E-4</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
-        <v>0.22025427328516817</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
-        <v>0.98181818181818092</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
-        <v>10.8</v>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47650879231188037</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74545454545454515</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -2823,19 +2800,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.5002282403137599</v>
       </c>
       <c r="F14">
-        <v>0.90909090909090895</v>
+        <v>0.27272727272727298</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2846,19 +2823,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="4">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.0004658095770503E-2</v>
+        <v>1.5626164502245199</v>
       </c>
       <c r="F15">
-        <v>0.81818181818181801</v>
+        <v>0.45454545454545497</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2869,19 +2846,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.59266712455515902</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.4545454545454499</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2891,20 +2868,20 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="4">
-        <v>2.0000000000000001E-4</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.59266712455515902</v>
+        <v>0.50004192247137602</v>
       </c>
       <c r="F17">
-        <v>1.4545454545454499</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2914,20 +2891,20 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
-        <v>1E-4</v>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.0004658095770503E-2</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.81818181818181801</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2937,25 +2914,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
-        <v>0.25706871306037182</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
-        <v>1.0909090909090891</v>
-      </c>
-      <c r="G19" s="12">
-        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
-        <v>12</v>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1125773226019313</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67272727272727262</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -2967,19 +2944,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="4">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.94121373539648301</v>
       </c>
       <c r="F20">
-        <v>1.0909090909090899</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G20" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2996,13 +2973,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.50001397462358999</v>
       </c>
       <c r="F21">
-        <v>1.0909090909090899</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G21">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -3012,20 +2989,20 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="4">
-        <v>1E-4</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.16001863281704901</v>
+        <v>4.9995342317536898E-2</v>
       </c>
       <c r="F22">
-        <v>1.27272727272727</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3035,20 +3012,20 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" s="4">
-        <v>2.0000000000000001E-4</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.94121373539648301</v>
       </c>
       <c r="F23">
-        <v>1.0909090909090899</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3058,14 +3035,14 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" s="4">
-        <v>1E-4</v>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.0004658095770503E-2</v>
+        <v>4.9995342317536898E-2</v>
       </c>
       <c r="F24">
         <v>0.81818181818181801</v>
@@ -3081,25 +3058,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
         <v>1.2000000000000002E-4</v>
       </c>
-      <c r="D25" s="12">
-        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="12">
-        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
-        <v>4.2004658182563902E-2</v>
-      </c>
-      <c r="F25" s="12">
-        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
-        <v>1.0727272727272716</v>
-      </c>
-      <c r="G25" s="12">
-        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
-        <v>11.8</v>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.496486426010326</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6727272727272724</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -3111,19 +3088,19 @@
         <v>1</v>
       </c>
       <c r="C26" s="4">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.94125099907908005</v>
       </c>
       <c r="F26">
-        <v>1.0909090909090899</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -3140,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.50004192247137602</v>
       </c>
       <c r="F27">
-        <v>1.0909090909090899</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G27">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -3156,20 +3133,20 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28" s="4">
-        <v>1E-4</v>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.16001863281704901</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F28">
-        <v>1.27272727272727</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -3179,20 +3156,20 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29" s="4">
-        <v>2.0000000000000001E-4</v>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.50004192247137602</v>
       </c>
       <c r="F29">
-        <v>1.0909090909090899</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -3202,8 +3179,8 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="4">
-        <v>1E-4</v>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3225,25 +3202,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
         <v>1.2000000000000002E-4</v>
       </c>
-      <c r="D31" s="12">
-        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="12">
-        <f t="shared" si="16"/>
-        <v>4.2004658182563902E-2</v>
-      </c>
-      <c r="F31" s="12">
-        <f t="shared" si="16"/>
-        <v>1.0727272727272716</v>
-      </c>
-      <c r="G31" s="12">
-        <f t="shared" si="16"/>
-        <v>11.8</v>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.40826883204267467</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.69090909090909058</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="4"/>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>
@@ -3258,7 +3235,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3308,20 +3285,20 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
-        <v>1.6000000000000001E-3</v>
+      <c r="C2">
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E2">
-        <v>0.160018979743868</v>
+        <v>4.1671325847582701E-2</v>
       </c>
       <c r="F2">
-        <v>1.27272727272727</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G2" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3331,20 +3308,20 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
-        <v>2.9999999999999997E-4</v>
+      <c r="C3">
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.1671411580119402E-2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.1818181818181801</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G3" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3354,20 +3331,20 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
-        <v>4.0000000000000002E-4</v>
+      <c r="C4">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.94125238668197297</v>
+        <v>5.0004659094085697E-2</v>
       </c>
       <c r="F4">
-        <v>0.54545454545454497</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G4" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3377,20 +3354,20 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1E-4</v>
+      <c r="C5">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.50004270300534304</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.63636363636363602</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3400,20 +3377,20 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
-        <v>8.0000000000000004E-4</v>
+      <c r="C6">
+        <v>1.4E-3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.50004270300534304</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.63636363636363602</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3425,23 +3402,23 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>7.6000000000000004E-4</v>
+        <v>1.42E-3</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
-        <v>2.0000000000000002E-5</v>
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
-        <v>0.4286056368033293</v>
+        <f t="shared" si="0"/>
+        <v>1.833519698833368E-2</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
-        <v>0.85454545454545339</v>
+        <f t="shared" si="0"/>
+        <v>0.98181818181818126</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
-        <v>9.4</v>
+        <f t="shared" si="0"/>
+        <v>10.8</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -3452,20 +3429,20 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
-        <v>1.5E-3</v>
+      <c r="C8">
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E8">
-        <v>0.160018979743868</v>
+        <v>4.1671325847582701E-2</v>
       </c>
       <c r="F8">
-        <v>1.27272727272727</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G8" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3476,19 +3453,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4.1671411580119402E-2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.1818181818181801</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3498,20 +3475,20 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="4">
-        <v>4.0000000000000002E-4</v>
+      <c r="C10">
+        <v>1.4E-3</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.94125238668197297</v>
+        <v>0.21054495207898799</v>
       </c>
       <c r="F10">
-        <v>0.54545454545454497</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G10" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3521,20 +3498,20 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="4">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1E-4</v>
+      <c r="C11">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.50004270300534304</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.63636363636363602</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3544,20 +3521,20 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
-        <v>8.0000000000000004E-4</v>
+      <c r="C12">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.50004270300534304</v>
+        <v>5.0004659094085697E-2</v>
       </c>
       <c r="F12">
-        <v>0.63636363636363602</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G12" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3569,23 +3546,23 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>7.3999999999999999E-4</v>
+        <v>1.3600000000000001E-3</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
-        <v>2.0000000000000002E-5</v>
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
-        <v>0.4286056368033293</v>
+        <f t="shared" si="1"/>
+        <v>6.044418740413128E-2</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
-        <v>0.85454545454545339</v>
+        <f t="shared" si="1"/>
+        <v>0.94545454545454499</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
-        <v>9.4</v>
+        <f t="shared" si="1"/>
+        <v>10.4</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -3596,20 +3573,20 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="4">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="C14">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.0909090909090899</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3619,20 +3596,20 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="4">
-        <v>2.9999999999999997E-4</v>
+      <c r="C15">
+        <v>1E-3</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.1671324849230203E-2</v>
+        <v>0.16001863281704901</v>
       </c>
       <c r="F15">
-        <v>1.1818181818181801</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G15">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3642,20 +3619,20 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="4">
-        <v>2.9999999999999997E-4</v>
+      <c r="C16">
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4.1671324849230203E-2</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F16">
-        <v>1.1818181818181801</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -3665,11 +3642,11 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1E-4</v>
+      <c r="C17">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3688,20 +3665,20 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
-        <v>1.1000000000000001E-3</v>
+      <c r="C18">
+        <v>1E-3</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.50004192247137602</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.63636363636363602</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3713,23 +3690,23 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>7.3999999999999999E-4</v>
+        <v>1.2400000000000002E-3</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
-        <v>2.0000000000000002E-5</v>
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
-        <v>0.11667691443396729</v>
+        <f t="shared" si="2"/>
+        <v>4.2004658182563902E-2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
-        <v>0.99999999999999889</v>
+        <f t="shared" si="2"/>
+        <v>0.98181818181818115</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>10.8</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -3740,20 +3717,20 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="4">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="C20">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E20">
-        <v>2.0648142624376402</v>
+        <v>1.6336268090906101</v>
       </c>
       <c r="F20">
-        <v>1.8181818181818199</v>
+        <v>1.72727272727273</v>
       </c>
       <c r="G20" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -3763,20 +3740,20 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="4">
-        <v>5.0000000000000001E-4</v>
+      <c r="C21">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.89297359959113698</v>
+        <v>4.9995342317536898E-2</v>
       </c>
       <c r="F21">
-        <v>1.5454545454545501</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G21">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -3786,20 +3763,20 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="4">
-        <v>5.0000000000000001E-4</v>
+      <c r="C22">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>0.21054494808576399</v>
+      <c r="E22" s="4">
+        <v>4.9901582661760195E-10</v>
       </c>
       <c r="F22">
-        <v>0.72727272727272696</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3809,20 +3786,20 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23" s="4">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="E23">
-        <v>5.0004658095770503E-2</v>
+      <c r="C23">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4.9901582661760195E-10</v>
       </c>
       <c r="F23">
-        <v>0.81818181818181801</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3832,20 +3809,20 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.210526316206264</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -3857,23 +3834,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
-        <v>2.0000000000000002E-5</v>
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
-        <v>0.64366749364206233</v>
+        <f t="shared" si="3"/>
+        <v>0.37882969372248854</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
-        <v>1.181818181818183</v>
+        <f t="shared" si="3"/>
+        <v>1.0909090909090911</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -3885,19 +3862,19 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
+        <v>1.8E-3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E26">
-        <v>2.0648142624376402</v>
+        <v>1.6335615906585299</v>
       </c>
       <c r="F26">
-        <v>1.8181818181818199</v>
+        <v>1.72727272727273</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -3907,20 +3884,20 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="4">
-        <v>5.0000000000000001E-4</v>
+      <c r="C27">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.59266712455515902</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.4545454545454499</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G27">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -3930,20 +3907,20 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28" s="4">
-        <v>5.0000000000000001E-4</v>
+      <c r="C28">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.21054494808576399</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.72727272727272696</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -3953,20 +3930,20 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29" s="4">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1E-4</v>
+      <c r="C29">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.21054494808576399</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.72727272727272696</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -3977,19 +3954,19 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.21054494808576399</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -4001,23 +3978,23 @@
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>8.9999999999999998E-4</v>
+        <v>1.3199999999999998E-3</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
-        <v>2.0000000000000002E-5</v>
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="16"/>
-        <v>0.6157142566328655</v>
+        <f t="shared" si="4"/>
+        <v>0.3688213077488588</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="16"/>
-        <v>1.1454545454545448</v>
+        <f t="shared" si="4"/>
+        <v>1.1090909090909089</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="16"/>
-        <v>12.6</v>
+        <f t="shared" si="4"/>
+        <v>12.2</v>
       </c>
     </row>
   </sheetData>
@@ -4031,7 +4008,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4077,19 +4054,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.0004744823397701E-2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.81818181818181801</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G2" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4100,19 +4077,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5.3E-3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5.0004744823397701E-2</v>
+        <v>4.1671325847582701E-2</v>
       </c>
       <c r="F3">
-        <v>0.81818181818181801</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G3" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4123,19 +4100,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5.4000000000000003E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D4" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E4">
-        <v>2.0648198135799301</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.8181818181818199</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G4" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -4146,19 +4123,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.4000000000000003E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="D5" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E5">
-        <v>0.59266851228853401</v>
+        <v>0.21054495207898799</v>
       </c>
       <c r="F5">
-        <v>1.4545454545454499</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G5" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -4169,19 +4146,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2.0999999999999999E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>1E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E6">
-        <v>0.50004270300534304</v>
+        <v>0.59266714052924496</v>
       </c>
       <c r="F6">
-        <v>0.63636363636363602</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G6" s="4">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -4193,23 +4170,23 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>4.1400000000000005E-3</v>
+        <v>5.7400000000000003E-3</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
-        <v>2.7999999999999998E-4</v>
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
-        <v>0.65150810370412049</v>
+        <f t="shared" si="0"/>
+        <v>0.16897668369116312</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
-        <v>1.1090909090909082</v>
+        <f t="shared" si="0"/>
+        <v>1.036363636363635</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
-        <v>12.2</v>
+        <f t="shared" si="0"/>
+        <v>11.4</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -4221,13 +4198,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>5.0004744823397701E-2</v>
+        <v>5.0004659094085697E-2</v>
       </c>
       <c r="F8">
         <v>0.81818181818181801</v>
@@ -4244,19 +4221,19 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>5.0004744823397701E-2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.81818181818181801</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -4267,19 +4244,19 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>5.1999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E10">
-        <v>1.63356584071188</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.72727272727273</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G10" s="4">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -4290,19 +4267,19 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4.1000000000000003E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="D11" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E11">
-        <v>1.24155013128178</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.63636363636364</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G11" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -4313,19 +4290,19 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2.5000000000000001E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>1E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E12">
-        <v>0.50004270300534304</v>
+        <v>0.346195779172837</v>
       </c>
       <c r="F12">
-        <v>0.63636363636363602</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G12" s="4">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -4337,23 +4314,23 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>3.9999999999999992E-3</v>
+        <v>5.62E-3</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
-        <v>3.0000000000000003E-4</v>
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.8000000000000003E-4</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
-        <v>0.69503363292915965</v>
+        <f t="shared" si="1"/>
+        <v>7.9240087653384542E-2</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
-        <v>1.1272727272727283</v>
+        <f t="shared" si="1"/>
+        <v>1.0727272727272716</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
-        <v>12.4</v>
+        <f t="shared" si="1"/>
+        <v>11.8</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -4365,19 +4342,19 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>4.1149565269473003</v>
+        <v>0.21054494808576399</v>
       </c>
       <c r="F14">
-        <v>2.1818181818181799</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G14">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -4388,19 +4365,19 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.94125099907908005</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F15">
-        <v>0.54545454545454497</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -4411,19 +4388,19 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>3.3999999999999998E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E16">
-        <v>4.1671324849230203E-2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.1818181818181801</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -4434,19 +4411,19 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>4.7000000000000002E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="D17" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="E17">
-        <v>1.6335615906585299</v>
+        <v>0.59266712455515902</v>
       </c>
       <c r="F17">
-        <v>1.72727272727273</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G17">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -4457,19 +4434,19 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>3.3E-3</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.50004192247137602</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -4481,23 +4458,23 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>3.8200000000000005E-3</v>
+        <v>4.9800000000000001E-3</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
-        <v>2.2000000000000001E-4</v>
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
-        <v>1.346288088306828</v>
+        <f t="shared" si="2"/>
+        <v>0.27065173064161396</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
-        <v>1.3272727272727269</v>
+        <f t="shared" si="2"/>
+        <v>0.92727272727272614</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
-        <v>14.6</v>
+        <f t="shared" si="2"/>
+        <v>10.199999999999999</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -4509,19 +4486,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.89297359959113698</v>
+        <v>0.210526316206264</v>
       </c>
       <c r="F20">
-        <v>1.5454545454545501</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G20" s="4">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -4532,19 +4509,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.4020733380375398E-24</v>
       </c>
       <c r="F21">
-        <v>0.90909090909090895</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -4558,16 +4535,16 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="E22">
-        <v>5.2982103563712899</v>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E22" s="4">
+        <v>8.1660452721254804E-24</v>
       </c>
       <c r="F22">
-        <v>2.3636363636363602</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G22">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -4578,19 +4555,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>4.4999999999999997E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E23">
-        <v>2.5316273268488998</v>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4.4020733380375398E-24</v>
       </c>
       <c r="F23">
-        <v>1.9090909090909101</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -4601,19 +4578,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>4.0000000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>0</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E24">
-        <v>0.59266712455515902</v>
+        <v>2.5317111801573402</v>
       </c>
       <c r="F24">
-        <v>1.4545454545454499</v>
+        <v>1.9090909090909101</v>
       </c>
       <c r="G24">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4625,23 +4602,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>4.1599999999999996E-3</v>
+        <v>4.7200000000000002E-3</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
-        <v>1.3999999999999999E-4</v>
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.1999999999999998E-4</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
-        <v>1.8630956814732973</v>
+        <f t="shared" si="3"/>
+        <v>0.54844749927272085</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
-        <v>1.636363636363636</v>
+        <f t="shared" si="3"/>
+        <v>1.1090909090909091</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>12.2</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -4653,19 +4630,19 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.89297359959113698</v>
+        <v>0.21054494808576399</v>
       </c>
       <c r="F26">
-        <v>1.5454545454545501</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G26">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -4676,19 +4653,19 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.90909090909090895</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -4699,19 +4676,19 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>4.1000000000000003E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D28" s="4">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E28">
-        <v>5.2982103563712899</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>2.3636363636363602</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G28">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -4722,19 +4699,19 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>4.4999999999999997E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="D29" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E29">
-        <v>2.0648142624376402</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.8181818181818199</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -4745,19 +4722,19 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E30">
-        <v>0.59266712455515902</v>
+        <v>2.5316273268488998</v>
       </c>
       <c r="F30">
-        <v>1.4545454545454499</v>
+        <v>1.9090909090909101</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -4769,23 +4746,23 @@
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>4.1399999999999996E-3</v>
+        <v>4.7200000000000002E-3</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
-        <v>1.3999999999999999E-4</v>
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>2.1999999999999998E-4</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="16"/>
-        <v>1.7697330685910455</v>
+        <f t="shared" si="4"/>
+        <v>0.54843445498693277</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="16"/>
-        <v>1.6181818181818179</v>
+        <f t="shared" si="4"/>
+        <v>1.1090909090909091</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="16"/>
-        <v>17.8</v>
+        <f t="shared" si="4"/>
+        <v>12.2</v>
       </c>
     </row>
   </sheetData>
@@ -7803,10 +7780,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB5483-70B0-4819-A385-62FBD4CA57ED}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A32" sqref="A32:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8557,6 +8534,54 @@
       <c r="G31" s="1">
         <f t="shared" si="4"/>
         <v>12.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -8568,10 +8593,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C170617E-339E-484E-BFD1-BF0116E2FED1}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A32" sqref="A32:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9252,6 +9277,54 @@
       <c r="G31" s="1">
         <f t="shared" si="4"/>
         <v>12.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -9264,7 +9337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -10033,10 +10106,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2975F087-DB23-4644-B63A-BB6BF506CDA6}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A32" sqref="A32:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10787,6 +10860,54 @@
       <c r="G31" s="1">
         <f t="shared" si="4"/>
         <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -10797,10 +10918,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20C37C-F12C-4B5C-8871-96E5107A67AF}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A32" sqref="A32:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10956,23 +11077,23 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <f>AVERAGE(C2:C6)</f>
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="6">
         <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
         <v>0.84137207462992047</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="6">
         <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
         <v>1.3272727272727276</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
         <v>14.6</v>
       </c>
@@ -11100,23 +11221,23 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <f>AVERAGE(C8:C12)</f>
         <v>2.4000000000000003E-4</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="6">
         <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
         <v>0.74800945835289856</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="6">
         <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
         <v>1.3090909090909095</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="6">
         <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
         <v>14.4</v>
       </c>
@@ -11169,23 +11290,23 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="12" t="e">
+      <c r="C19" s="6" t="e">
         <f>AVERAGE(C14:C18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D19" s="12" t="e">
+      <c r="D19" s="6" t="e">
         <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="12" t="e">
+      <c r="E19" s="6" t="e">
         <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="12" t="e">
+      <c r="F19" s="6" t="e">
         <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="12" t="e">
+      <c r="G19" s="6" t="e">
         <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11313,23 +11434,23 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="6">
         <f>AVERAGE(C20:C24)</f>
         <v>2.4000000000000003E-4</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="6">
         <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="6">
         <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
         <v>0.88599137413693663</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="6">
         <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
         <v>1.4545454545454539</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
         <v>16</v>
       </c>
@@ -11457,25 +11578,73 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="6">
         <f>AVERAGE(C26:C30)</f>
         <v>2.4000000000000003E-4</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="6">
         <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="6">
         <f t="shared" si="16"/>
         <v>0.739400380782119</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="6">
         <f t="shared" si="16"/>
         <v>1.3999999999999979</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="6">
         <f t="shared" si="16"/>
         <v>15.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -11486,10 +11655,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04706196-7530-409C-BA08-F702A456B135}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="A32" sqref="A32:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12165,6 +12334,54 @@
       <c r="G31" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -12175,10 +12392,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C6BC40-F70C-4D10-82BB-AEFF457793D3}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A32" sqref="A32:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12565,6 +12782,54 @@
       <c r="G31" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -12575,10 +12840,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9248AFE5-6D72-442D-A64E-8C762DAE796E}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="A32" sqref="A32:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12965,6 +13230,54 @@
       <c r="G31" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -12975,10 +13288,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04C6F0-903F-4400-B975-A1052B483DFD}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13365,6 +13678,54 @@
       <c r="G31" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -17002,8 +17363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F79F0E7-5AA4-486A-8115-846DCE711579}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17018,808 +17379,758 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>5.0004744823397701E-2</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="C2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.94125101505167796</v>
+      </c>
+      <c r="F2">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1E-3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2E-3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.346195779172837</v>
+      </c>
+      <c r="F4">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G4" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4.1671325847582701E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G6" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2658236240144195</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999878</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.94125101505167796</v>
+      </c>
+      <c r="F8">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1E-3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2E-3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.346195779172837</v>
+      </c>
+      <c r="F10">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G10" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4.1671325847582701E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G12" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C8:C12)</f>
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2658236240144195</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999878</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1.5626164502245199</v>
+      </c>
+      <c r="F14">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1E-3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F15">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.34619577018749698</v>
+      </c>
+      <c r="F17">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2.5316273268488998</v>
+      </c>
+      <c r="F18">
+        <v>1.9090909090909101</v>
+      </c>
+      <c r="G18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <f>AVERAGE(C14:C18)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98809629394645848</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0727272727272721</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>11.8</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.94121373539648301</v>
+      </c>
+      <c r="F20">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G20" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1E-3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.4020733380375398E-24</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2E-3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>4.16806418010724E-2</v>
+      </c>
+      <c r="F22">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4.4020733380375398E-24</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>4.16806418010724E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1">
+        <f>AVERAGE(C20:C24)</f>
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20491500379972555</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.98181818181818092</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>10.8</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F26">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1E-3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2E-3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F29">
         <v>0.81818181818181801</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G29">
         <v>9</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.94125238668197297</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G5" s="6">
-        <v>6</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>11</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>4.1671324849230203E-2</v>
+      </c>
+      <c r="F30">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
-        <f>AVERAGE(C2:C6)</f>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
-        <v>0.19825142630107412</v>
-      </c>
-      <c r="F7" s="11">
-        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
-        <v>0.87272727272727268</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
-        <v>9.6</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>5.0004744823397701E-2</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.81818181818181801</v>
-      </c>
-      <c r="G8" s="7">
-        <v>9</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>11</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>11</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.94125238668197297</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G11" s="6">
-        <v>6</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>11</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="11">
-        <f>AVERAGE(C8:C12)</f>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="D13" s="11">
-        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
-        <v>0.19825142630107412</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
-        <v>0.87272727272727268</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
-        <v>9.6</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.16001863281704901</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1.27272727272727</v>
-      </c>
-      <c r="G14" s="6">
-        <v>14</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.59266712455515902</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1.4545454545454499</v>
-      </c>
-      <c r="G15" s="7">
-        <v>16</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1.5626164502245199</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.45454545454545497</v>
-      </c>
-      <c r="G17" s="5">
-        <v>5</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="5">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2.40016768754221</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.36363636363636398</v>
-      </c>
-      <c r="G18" s="5">
-        <v>4</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="11">
-        <f>AVERAGE(C14:C18)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="D19" s="11">
-        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
-        <v>0.94309397902778758</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
-        <v>0.90909090909090773</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
-        <v>10</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G20" s="5">
-        <v>13</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G21" s="5">
-        <v>13</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="5">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.59266712455515902</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1.4545454545454499</v>
-      </c>
-      <c r="G22" s="7">
-        <v>16</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="5">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G23" s="6">
-        <v>6</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="5">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G24" s="5">
-        <v>13</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="11">
-        <f>AVERAGE(C20:C24)</f>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D25" s="11">
-        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
-        <v>0.33178641963638594</v>
-      </c>
-      <c r="F25" s="11">
-        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
-        <v>1.1090909090909071</v>
-      </c>
-      <c r="G25" s="11">
-        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
-        <v>12.2</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G26" s="5">
-        <v>13</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="5">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G27" s="5">
-        <v>13</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="5">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0.59266712455515902</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1.4545454545454499</v>
-      </c>
-      <c r="G28" s="5">
-        <v>16</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="5">
-        <v>4</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.94125099907908005</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="G29" s="7">
-        <v>6</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="5">
-        <v>5</v>
-      </c>
-      <c r="C30" s="5">
-        <v>2E-3</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>4.1671324849230203E-2</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1.1818181818181801</v>
-      </c>
-      <c r="G30" s="5">
-        <v>13</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>1.8000000000000002E-3</v>
-      </c>
-      <c r="D31" s="11">
-        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="11">
-        <f t="shared" si="16"/>
-        <v>0.33178641963638594</v>
-      </c>
-      <c r="F31" s="11">
-        <f t="shared" si="16"/>
-        <v>1.1090909090909071</v>
-      </c>
-      <c r="G31" s="11">
-        <f t="shared" si="16"/>
-        <v>12.2</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.21491966137466217</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.94545454545454466</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="4"/>
+        <v>10.4</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17833,7 +18144,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17884,19 +18195,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8.5999999999999993E-2</v>
+        <v>0.127</v>
       </c>
       <c r="D2">
-        <v>2.1999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E2">
-        <v>0.34619655078018102</v>
+        <v>0.21054495207898799</v>
       </c>
       <c r="F2">
-        <v>1.36363636363636</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G2" s="4">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -17907,19 +18218,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>8.2000000000000003E-2</v>
+        <v>0.114</v>
       </c>
       <c r="D3">
-        <v>0.02</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.90909090909090895</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G3" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -17930,19 +18241,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>7.9000000000000001E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D4">
-        <v>1.7000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E4">
-        <v>0.94125238668197297</v>
+        <v>4.1671325847582701E-2</v>
       </c>
       <c r="F4">
-        <v>0.54545454545454497</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G4" s="4">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -17953,19 +18264,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>7.5999999999999998E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D5">
-        <v>1.7000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E5">
-        <v>1.5626186183336499</v>
+        <v>0.94125101505167796</v>
       </c>
       <c r="F5">
-        <v>0.45454545454545497</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G5" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -17976,19 +18287,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>8.4000000000000005E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D6">
-        <v>2.5000000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5.0004659094085697E-2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G6" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -18000,23 +18311,23 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>8.14E-2</v>
+        <v>0.1234</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
-        <v>2.0200000000000003E-2</v>
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
-        <v>0.57001351115916088</v>
+        <f t="shared" si="0"/>
+        <v>0.24869439041446686</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
-        <v>0.85454545454545383</v>
+        <f t="shared" si="0"/>
+        <v>0.87272727272727213</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
-        <v>9.4</v>
+        <f t="shared" si="0"/>
+        <v>9.6</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7"/>
@@ -18029,19 +18340,19 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>7.5999999999999998E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D8">
-        <v>1.4E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E8">
-        <v>4.1671411580119402E-2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.1818181818181801</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G8" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -18052,19 +18363,19 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>6.6000000000000003E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D9">
-        <v>1.0999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.21054495207898799</v>
       </c>
       <c r="F9">
-        <v>0.90909090909090895</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G9" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -18075,19 +18386,19 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>6.0999999999999999E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D10">
-        <v>1.0999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E10">
-        <v>5.0004744823397701E-2</v>
+        <v>0.21054495207898799</v>
       </c>
       <c r="F10">
-        <v>0.81818181818181801</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -18098,19 +18409,19 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>6.5000000000000002E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D11">
-        <v>1.7000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.94125101505167796</v>
       </c>
       <c r="F11">
-        <v>1.0909090909090899</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G11" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -18121,19 +18432,19 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>6.5000000000000002E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D12">
-        <v>1.9E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.346195779172837</v>
       </c>
       <c r="F12">
-        <v>0.90909090909090895</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G12" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -18145,23 +18456,23 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>6.6600000000000006E-2</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
-        <v>1.4400000000000001E-2</v>
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.3399999999999997E-2</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
-        <v>1.8335231280703419E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.34170733967649813</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
-        <v>0.98181818181818115</v>
+        <f t="shared" si="1"/>
+        <v>0.85454545454545361</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
-        <v>10.8</v>
+        <f t="shared" si="1"/>
+        <v>9.4</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13"/>
@@ -18174,19 +18485,19 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>6.9000000000000006E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D14">
-        <v>1.2E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -18197,19 +18508,19 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D15">
-        <v>1.2E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.50004192247137602</v>
       </c>
       <c r="F15">
-        <v>1.0909090909090899</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -18220,10 +18531,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>5.1999999999999998E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D16">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -18243,19 +18554,19 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>5.8999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D17">
-        <v>1.4E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E17">
-        <v>0.16001863281704901</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F17">
-        <v>1.27272727272727</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -18266,19 +18577,19 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>5.3999999999999999E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D18">
-        <v>8.9999999999999993E-3</v>
+        <v>0.02</v>
       </c>
       <c r="E18">
-        <v>4.1671324849230203E-2</v>
+        <v>0.34619577018749698</v>
       </c>
       <c r="F18">
-        <v>1.1818181818181801</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G18">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -18290,23 +18601,23 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>0.06</v>
+        <v>9.2599999999999988E-2</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
-        <v>1.14E-2</v>
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
-        <v>4.0337991533255839E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.17924847015092871</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
-        <v>1.109090909090908</v>
+        <f t="shared" si="2"/>
+        <v>0.94545454545454466</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
-        <v>12.2</v>
+        <f t="shared" si="2"/>
+        <v>10.4</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19"/>
@@ -18319,19 +18630,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>7.6999999999999999E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D20">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.16001863281704901</v>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.9901582661760195E-10</v>
       </c>
       <c r="F20">
-        <v>1.27272727272727</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G20" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -18342,19 +18653,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>6.9000000000000006E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D21">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E21">
-        <v>0.16001863281704901</v>
+        <v>0.210526316206264</v>
       </c>
       <c r="F21">
-        <v>1.27272727272727</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -18365,13 +18676,13 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>6.7000000000000004E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D22">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4.9901582661760195E-10</v>
       </c>
       <c r="F22">
         <v>1.0909090909090899</v>
@@ -18388,19 +18699,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>6.3E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D23">
-        <v>1.9E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E23">
-        <v>1.6335615906585299</v>
+        <v>4.9995342317536898E-2</v>
       </c>
       <c r="F23">
-        <v>1.72727272727273</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G23">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -18411,19 +18722,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>6.2E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D24">
-        <v>1.4999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1.6336268090906101</v>
       </c>
       <c r="F24">
-        <v>1.0909090909090899</v>
+        <v>1.72727272727273</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -18435,23 +18746,23 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>6.7600000000000007E-2</v>
+        <v>9.4199999999999992E-2</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.1599999999999998E-2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
-        <v>0.39071977125852558</v>
+        <f t="shared" si="3"/>
+        <v>0.37882969372248854</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
-        <v>1.2909090909090899</v>
+        <f t="shared" si="3"/>
+        <v>1.0909090909090911</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
-        <v>14.2</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25"/>
@@ -18464,19 +18775,19 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>7.6999999999999999E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D26">
-        <v>1.4999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E26">
-        <v>0.16001863281704901</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.27272727272727</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -18487,19 +18798,19 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>6.8000000000000005E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="D27">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E27">
-        <v>0.59266712455515902</v>
+        <v>0.21054494808576399</v>
       </c>
       <c r="F27">
-        <v>1.4545454545454499</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G27">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -18510,10 +18821,10 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>6.7000000000000004E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D28">
-        <v>0.01</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -18533,19 +18844,19 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>6.3E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D29">
-        <v>1.9E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E29">
-        <v>1.6335615906585299</v>
+        <v>5.0004658095770503E-2</v>
       </c>
       <c r="F29">
-        <v>1.72727272727273</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G29">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -18556,19 +18867,19 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>6.0999999999999999E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D30">
-        <v>1.4999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1.6335615906585299</v>
       </c>
       <c r="F30">
-        <v>1.0909090909090899</v>
+        <v>1.72727272727273</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -18580,23 +18891,23 @@
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>6.720000000000001E-2</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
-        <v>1.4799999999999999E-2</v>
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>2.1599999999999998E-2</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="16"/>
-        <v>0.47724946960614761</v>
+        <f t="shared" si="4"/>
+        <v>0.37882223936801285</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="16"/>
-        <v>1.3272727272727258</v>
+        <f t="shared" si="4"/>
+        <v>1.072727272727273</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="16"/>
-        <v>14.6</v>
+        <f t="shared" si="4"/>
+        <v>11.8</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C02D45B-C6F8-433C-9D2F-76033E57F4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D244919-8B5B-4AC1-866B-0DDCE2F36D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -239,14 +239,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -531,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -575,7 +574,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>66688</v>
       </c>
       <c r="E2">
@@ -598,7 +597,7 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>66688</v>
       </c>
       <c r="E3">
@@ -621,7 +620,7 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>66688</v>
       </c>
       <c r="E4">
@@ -644,7 +643,7 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>66688</v>
       </c>
       <c r="E5">
@@ -667,7 +666,7 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>66688</v>
       </c>
       <c r="E6">
@@ -690,7 +689,7 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>66688</v>
       </c>
       <c r="E7">
@@ -851,7 +850,7 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>66688</v>
       </c>
       <c r="E14">
@@ -874,7 +873,7 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>66688</v>
       </c>
       <c r="E15">
@@ -897,7 +896,7 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>66688</v>
       </c>
       <c r="E16">
@@ -920,7 +919,7 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>66688</v>
       </c>
       <c r="E17">
@@ -943,7 +942,7 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>66688</v>
       </c>
       <c r="E18">
@@ -966,7 +965,7 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>66688</v>
       </c>
       <c r="E19">
@@ -1117,35 +1116,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>5</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>66688</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>0.1</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>1000</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>0.1</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>0.01</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <v>0.2</v>
       </c>
     </row>
@@ -1159,7 +1158,7 @@
       <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>66688</v>
       </c>
       <c r="E27">
@@ -1182,7 +1181,7 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>66688</v>
       </c>
       <c r="E28">
@@ -1205,7 +1204,7 @@
       <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>66688</v>
       </c>
       <c r="E29">
@@ -1228,7 +1227,7 @@
       <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>66688</v>
       </c>
       <c r="E30">
@@ -1251,7 +1250,7 @@
       <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>66688</v>
       </c>
       <c r="E31">
@@ -1412,7 +1411,7 @@
       <c r="C38" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>66688</v>
       </c>
       <c r="E38">
@@ -1435,7 +1434,7 @@
       <c r="C39" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>66688</v>
       </c>
       <c r="E39">
@@ -1458,7 +1457,7 @@
       <c r="C40" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>66688</v>
       </c>
       <c r="E40">
@@ -1481,7 +1480,7 @@
       <c r="C41" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>66688</v>
       </c>
       <c r="E41">
@@ -1504,7 +1503,7 @@
       <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>66688</v>
       </c>
       <c r="E42">
@@ -1527,7 +1526,7 @@
       <c r="C43" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>66688</v>
       </c>
       <c r="E43">
@@ -7019,7 +7018,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7782,8 +7781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB5483-70B0-4819-A385-62FBD4CA57ED}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8596,7 +8595,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B37"/>
+      <selection activeCell="C13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10108,8 +10107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2975F087-DB23-4644-B63A-BB6BF506CDA6}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10151,19 +10150,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.21054495207898799</v>
+        <v>2.5316290112018902</v>
       </c>
       <c r="F2">
-        <v>0.72727272727272696</v>
+        <v>1.9090909090909101</v>
       </c>
       <c r="G2" s="4">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -10174,19 +10173,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.210545031253594</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G3" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -10197,19 +10196,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>1E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.56261647518147</v>
+        <v>0.94125133174418496</v>
       </c>
       <c r="F4">
-        <v>0.45454545454545497</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G4" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -10220,19 +10219,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>1E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.0004659094085697E-2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.81818181818181801</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -10243,19 +10242,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.94125101505167796</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.54545454545454497</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G6" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -10267,7 +10266,7 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>8.0000000000000007E-5</v>
+        <v>3.8E-3</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
@@ -10275,15 +10274,15 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.55288342028124426</v>
+        <v>0.73668507483993384</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.70909090909090899</v>
+        <v>1.0545454545454542</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>7.8</v>
+        <v>11.6</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -10295,19 +10294,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.21054495207898799</v>
+        <v>2.5316290112018902</v>
       </c>
       <c r="F8">
-        <v>0.72727272727272696</v>
+        <v>1.9090909090909101</v>
       </c>
       <c r="G8" s="4">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -10318,19 +10317,19 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.210545031253594</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G9" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -10341,19 +10340,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>1E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.56261647518147</v>
+        <v>0.94125133174418496</v>
       </c>
       <c r="F10">
-        <v>0.45454545454545497</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G10" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -10364,19 +10363,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="4">
-        <v>1E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.0004659094085697E-2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.81818181818181801</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -10387,19 +10386,19 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.94125101505167796</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.54545454545454497</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -10411,7 +10410,7 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>8.0000000000000007E-5</v>
+        <v>3.6000000000000003E-3</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
@@ -10419,15 +10418,15 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>0.55288342028124426</v>
+        <v>0.73668507483993384</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>0.70909090909090899</v>
+        <v>1.0363636363636364</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>7.8</v>
+        <v>11.4</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -10439,19 +10438,19 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.34619595732734398</v>
       </c>
       <c r="F14">
-        <v>1.0909090909090899</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -10462,19 +10461,19 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.5626164502245199</v>
+        <v>0.50004210959724504</v>
       </c>
       <c r="F15">
-        <v>0.45454545454545497</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -10485,19 +10484,19 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.50004192247137602</v>
+        <v>5.00046788879219E-2</v>
       </c>
       <c r="F16">
-        <v>0.63636363636363602</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -10508,19 +10507,19 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.94125133174418496</v>
       </c>
       <c r="F17">
-        <v>0.90909090909090895</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -10531,19 +10530,19 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.16001863281704901</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.27272727272727</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G18">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -10555,7 +10554,7 @@
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>0</v>
+        <v>3.8E-3</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
@@ -10563,15 +10562,15 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>0.44453540110258893</v>
+        <v>0.36749881551133917</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>0.87272727272727191</v>
+        <v>0.85454545454545361</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -10583,19 +10582,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.21054494808576399</v>
+        <v>2.0648904618073298</v>
       </c>
       <c r="F20">
-        <v>0.72727272727272696</v>
+        <v>1.8181818181818199</v>
       </c>
       <c r="G20" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -10606,19 +10605,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>4.1671324849230203E-2</v>
+      <c r="E21" s="4">
+        <v>5.3151027430043597E-28</v>
       </c>
       <c r="F21">
-        <v>1.1818181818181801</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -10629,19 +10628,19 @@
         <v>3</v>
       </c>
       <c r="C22" s="4">
-        <v>1E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.5626164502245199</v>
+        <v>0.94121390173407105</v>
       </c>
       <c r="F22">
-        <v>0.45454545454545497</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -10652,19 +10651,19 @@
         <v>4</v>
       </c>
       <c r="C23" s="4">
-        <v>1E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>0.21054494808576399</v>
+      <c r="E23" s="4">
+        <v>5.0348048519990804E-10</v>
       </c>
       <c r="F23">
-        <v>0.72727272727272696</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -10675,19 +10674,19 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
-        <v>0.21054494808576399</v>
+      <c r="E24" s="4">
+        <v>7.8284338409758902E-24</v>
       </c>
       <c r="F24">
-        <v>0.72727272727272696</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -10699,7 +10698,7 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>1E-4</v>
+        <v>3.8E-3</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
@@ -10707,15 +10706,15 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>0.44718452386620849</v>
+        <v>0.60122087280897629</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>0.76363636363636322</v>
+        <v>1.0727272727272728</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>8.4</v>
+        <v>11.8</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -10727,19 +10726,19 @@
         <v>1</v>
       </c>
       <c r="C26" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.21054494808576399</v>
+        <v>1.6335626095690901</v>
       </c>
       <c r="F26">
-        <v>0.72727272727272696</v>
+        <v>1.72727272727273</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -10750,19 +10749,19 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>4.1671324849230203E-2</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.1818181818181801</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -10773,19 +10772,19 @@
         <v>3</v>
       </c>
       <c r="C28" s="4">
-        <v>1E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2.40016768754221</v>
+        <v>0.94125133174418496</v>
       </c>
       <c r="F28">
-        <v>0.36363636363636398</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -10796,19 +10795,19 @@
         <v>4</v>
       </c>
       <c r="C29" s="4">
-        <v>1E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.21054494808576399</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.72727272727272696</v>
+        <v>1.0909090909090899</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -10819,19 +10818,19 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.21054494808576399</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.72727272727272696</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -10843,7 +10842,7 @@
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>1E-4</v>
+        <v>3.8E-3</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
@@ -10851,15 +10850,15 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>0.61469477132974659</v>
+        <v>0.51496278826265507</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>0.74545454545454493</v>
+        <v>1.0727272727272728</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>8.1999999999999993</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -10869,45 +10868,140 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>2E-3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1.24154775740332</v>
+      </c>
+      <c r="F32">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>2E-3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.94125133174418496</v>
+      </c>
+      <c r="F33">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2.4001684360247202</v>
+      </c>
+      <c r="F34">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1.5626169700088901</v>
+      </c>
+      <c r="F35">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F36">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3291253209556722</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72727272727272807</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -10921,7 +11015,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B37"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10963,19 +11057,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="E2">
-        <v>2.53162740772148</v>
+        <v>5.00046788879219E-2</v>
       </c>
       <c r="F2">
-        <v>1.9090909090909101</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G2" s="4">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -10986,19 +11080,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>1E-4</v>
+        <v>0.113</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.210545031253594</v>
       </c>
       <c r="F3">
-        <v>0.90909090909090895</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G3" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -11009,19 +11103,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>1E-4</v>
+        <v>0.121</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E4">
-        <v>1.6335616395805399</v>
+        <v>0.210545031253594</v>
       </c>
       <c r="F4">
-        <v>1.72727272727273</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G4" s="4">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -11032,10 +11126,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.121</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -11055,19 +11149,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>6.9999999999999999E-4</v>
+        <v>0.124</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E6">
-        <v>4.1671325847582701E-2</v>
+        <v>0.210545031253594</v>
       </c>
       <c r="F6">
-        <v>1.1818181818181801</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G6" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -11077,25 +11171,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>2.2000000000000001E-4</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
-        <v>0.84137207462992047</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
-        <v>1.3272727272727276</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
-        <v>14.6</v>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13632795452974078</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78181818181818152</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -11107,19 +11201,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E8">
-        <v>2.0648143263363701</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.8181818181818199</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -11130,19 +11224,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="4">
-        <v>1E-4</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>5.00046788879219E-2</v>
       </c>
       <c r="F9">
-        <v>0.90909090909090895</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G9" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -11153,19 +11247,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>1E-4</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E10">
-        <v>1.6335616395805399</v>
+        <v>0.210545031253594</v>
       </c>
       <c r="F10">
-        <v>1.72727272727273</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G10" s="4">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -11176,19 +11270,19 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.16001871598953801</v>
       </c>
       <c r="F11">
-        <v>0.90909090909090895</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G11" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -11199,19 +11293,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="4">
-        <v>8.0000000000000004E-4</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E12">
-        <v>4.1671325847582701E-2</v>
+        <v>0.94125133174418496</v>
       </c>
       <c r="F12">
-        <v>1.1818181818181801</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G12" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -11221,25 +11315,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>2.4000000000000003E-4</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
-        <v>0.74800945835289856</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
-        <v>1.3090909090909095</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
-        <v>14.4</v>
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27236395157504778</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87272727272727191</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -11250,6 +11344,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D14">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F14">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -11258,6 +11367,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D15">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E15">
+        <v>5.00046788879219E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -11266,6 +11390,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F16">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -11274,6 +11413,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D17">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -11282,6 +11436,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D18">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.5626169700088901</v>
+      </c>
+      <c r="F18">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -11290,25 +11459,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="6" t="e">
-        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="6" t="e">
-        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="6" t="e">
-        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="6" t="e">
-        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
-        <v>#DIV/0!</v>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52254117361826036</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.70909090909090899</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -11320,19 +11489,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E20">
-        <v>3.0307688680889999</v>
+        <v>0.59270489071016497</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -11343,19 +11512,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="4">
-        <v>1E-4</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0.34619577018749698</v>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7.8284338409758902E-24</v>
       </c>
       <c r="F21">
-        <v>1.36363636363636</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -11366,19 +11535,19 @@
         <v>3</v>
       </c>
       <c r="C22" s="4">
-        <v>1E-4</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0.89297359959113698</v>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7.8284338409758902E-24</v>
       </c>
       <c r="F22">
-        <v>1.5454545454545501</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G22">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -11389,19 +11558,19 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.59270489071016497</v>
       </c>
       <c r="F23">
-        <v>1.0909090909090899</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -11412,19 +11581,19 @@
         <v>5</v>
       </c>
       <c r="C24" s="4">
-        <v>8.0000000000000004E-4</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E24">
-        <v>0.16001863281704901</v>
+        <v>0.94121390173407105</v>
       </c>
       <c r="F24">
-        <v>1.27272727272727</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G24">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -11434,25 +11603,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>2.4000000000000003E-4</v>
-      </c>
-      <c r="D25" s="6">
-        <f t="shared" ref="D25" si="12">AVERAGE(D20:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" ref="E25" si="13">AVERAGE(E20:E24)</f>
-        <v>0.88599137413693663</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" ref="F25" si="14">AVERAGE(F20:F24)</f>
-        <v>1.4545454545454539</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" ref="G25" si="15">AVERAGE(G20:G24)</f>
-        <v>16</v>
+        <v>9.1799999999999993E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.42532473663088022</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0545454545454525</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>11.6</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -11464,19 +11633,19 @@
         <v>1</v>
       </c>
       <c r="C26" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E26">
-        <v>3.0307688680889999</v>
+        <v>0.59266745725132697</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G26" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -11487,19 +11656,19 @@
         <v>2</v>
       </c>
       <c r="C27" s="4">
-        <v>1E-4</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E27">
-        <v>0.16001863281704901</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.27272727272727</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -11510,19 +11679,19 @@
         <v>3</v>
       </c>
       <c r="C28" s="4">
-        <v>1E-4</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E28">
-        <v>0.34619577018749698</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.36363636363636</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G28">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -11533,19 +11702,19 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.34619595732734398</v>
       </c>
       <c r="F29">
-        <v>1.0909090909090899</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -11556,19 +11725,19 @@
         <v>5</v>
       </c>
       <c r="C30" s="4">
-        <v>8.0000000000000004E-4</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E30">
-        <v>0.16001863281704901</v>
+        <v>0.94125133174418496</v>
       </c>
       <c r="F30">
-        <v>1.27272727272727</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G30">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -11578,25 +11747,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>2.4000000000000003E-4</v>
-      </c>
-      <c r="D31" s="6">
-        <f t="shared" ref="D31:G31" si="16">AVERAGE(D26:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" si="16"/>
-        <v>0.739400380782119</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="16"/>
-        <v>1.3999999999999979</v>
-      </c>
-      <c r="G31" s="6">
-        <f t="shared" si="16"/>
-        <v>15.4</v>
+        <v>9.1599999999999987E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <v>2.58E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.37602294926457114</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0363636363636346</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="4"/>
+        <v>11.4</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -11606,45 +11775,140 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D32">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.02</v>
+      </c>
+      <c r="E33">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F33">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.02</v>
+      </c>
+      <c r="E34">
+        <v>0.94125133174418496</v>
+      </c>
+      <c r="F34">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D35">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F35">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>0.09</v>
+      </c>
+      <c r="D36">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E36">
+        <v>2.4001684360247202</v>
+      </c>
+      <c r="F36">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>8.1800000000000012E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>2.06E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.86830079739267918</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.61818181818181794</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
@@ -11657,11 +11921,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04706196-7530-409C-BA08-F702A456B135}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11700,19 +11967,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>1E-4</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="E2">
-        <v>0.59266714052924496</v>
+        <v>5.00046788879219E-2</v>
       </c>
       <c r="F2">
-        <v>1.4545454545454499</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G2" s="4">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -11723,19 +11990,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E3">
-        <v>0.50004193145604603</v>
+        <v>5.00046788879219E-2</v>
       </c>
       <c r="F3">
-        <v>0.63636363636363602</v>
+        <v>0.81818181818181801</v>
       </c>
       <c r="G3" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -11746,19 +12013,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>1E-4</v>
+        <v>0.311</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="E4">
-        <v>5.0004659094085697E-2</v>
+        <v>0.16001871598953801</v>
       </c>
       <c r="F4">
-        <v>0.81818181818181801</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="G4" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -11769,19 +12036,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>1E-4</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="E5">
-        <v>0.50004193145604603</v>
+        <v>1.5626169700088901</v>
       </c>
       <c r="F5">
-        <v>0.63636363636363602</v>
+        <v>0.45454545454545497</v>
       </c>
       <c r="G5" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -11792,19 +12059,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>1E-4</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="E6">
-        <v>2.4001677234798899</v>
+        <v>0.210545031253594</v>
       </c>
       <c r="F6">
-        <v>0.36363636363636398</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G6" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -11816,23 +12083,23 @@
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>8.0000000000000007E-5</v>
+        <v>0.34199999999999997</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
+        <v>0.20900000000000002</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.80858467720306249</v>
+        <v>0.40663801500557317</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.78181818181818075</v>
+        <v>0.81818181818181768</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -11844,19 +12111,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>1E-4</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="E8">
-        <v>0.59266714052924496</v>
+        <v>0.210545031253594</v>
       </c>
       <c r="F8">
-        <v>1.4545454545454499</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G8" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -11867,19 +12134,19 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E9">
-        <v>0.50004193145604603</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.63636363636363602</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -11890,19 +12157,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>1E-4</v>
+        <v>0.221</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E10">
-        <v>5.0004659094085697E-2</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.81818181818181801</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -11913,19 +12180,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="4">
-        <v>1E-4</v>
+        <v>0.216</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>9.4E-2</v>
       </c>
       <c r="E11">
-        <v>0.50004193145604603</v>
+        <v>0.210545031253594</v>
       </c>
       <c r="F11">
-        <v>0.63636363636363602</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G11" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -11936,19 +12203,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="4">
-        <v>1E-4</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E12">
-        <v>2.4001677234798899</v>
+        <v>4.16713456421582E-2</v>
       </c>
       <c r="F12">
-        <v>0.36363636363636398</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G12" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -11960,23 +12227,23 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>8.0000000000000007E-5</v>
+        <v>0.21259999999999998</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>0</v>
+        <v>9.8400000000000001E-2</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>0.80858467720306249</v>
+        <v>9.255228162986924E-2</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>0.78181818181818075</v>
+        <v>0.9272727272727268</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>8.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -11987,6 +12254,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>0.216</v>
+      </c>
+      <c r="D14">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.210545031253594</v>
+      </c>
+      <c r="F14">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -11995,6 +12277,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D15">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.210545031253594</v>
+      </c>
+      <c r="F15">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -12003,6 +12300,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>0.218</v>
+      </c>
+      <c r="D16">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -12011,6 +12323,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D17">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.89297411943375304</v>
+      </c>
+      <c r="F17">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -12019,6 +12346,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0.216</v>
+      </c>
+      <c r="D18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -12027,25 +12369,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>0.2628128363881882</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
+        <v>1.0363636363636368</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>11.4</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -12057,19 +12399,19 @@
         <v>1</v>
       </c>
       <c r="C20" s="4">
-        <v>1E-4</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E20">
-        <v>0.34619577018749698</v>
+        <v>0.21052631620999299</v>
       </c>
       <c r="F20">
-        <v>1.36363636363636</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G20" s="4">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -12080,19 +12422,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.59270489071016497</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -12103,19 +12445,19 @@
         <v>3</v>
       </c>
       <c r="C22" s="4">
-        <v>1E-4</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E22">
-        <v>5.0004658095770503E-2</v>
+        <v>4.1680704185105603E-2</v>
       </c>
       <c r="F22">
-        <v>0.81818181818181801</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -12126,19 +12468,19 @@
         <v>4</v>
       </c>
       <c r="C23" s="4">
-        <v>1E-4</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.94121390173407105</v>
       </c>
       <c r="F23">
-        <v>0.90909090909090895</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -12149,19 +12491,19 @@
         <v>5</v>
       </c>
       <c r="C24" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>0.191</v>
       </c>
       <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0.21054494808576399</v>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7.8284338409758902E-24</v>
       </c>
       <c r="F24">
-        <v>0.72727272727272696</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -12173,19 +12515,19 @@
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>1E-4</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>0</v>
+        <v>8.6000000000000007E-2</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>0.1213490752738063</v>
+        <v>0.35722516256786696</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>0.96363636363636263</v>
+        <v>0.96363636363636229</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
@@ -12201,19 +12543,19 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E26">
-        <v>0.16001863281704901</v>
+        <v>0.210545031253594</v>
       </c>
       <c r="F26">
-        <v>1.27272727272727</v>
+        <v>0.72727272727272696</v>
       </c>
       <c r="G26">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -12224,19 +12566,19 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.59266745725132697</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>1.4545454545454499</v>
       </c>
       <c r="G27">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -12247,19 +12589,19 @@
         <v>3</v>
       </c>
       <c r="C28" s="4">
-        <v>1E-4</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E28">
-        <v>5.0004658095770503E-2</v>
+        <v>4.16713456421582E-2</v>
       </c>
       <c r="F28">
-        <v>0.81818181818181801</v>
+        <v>1.1818181818181801</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -12270,19 +12612,19 @@
         <v>4</v>
       </c>
       <c r="C29" s="4">
-        <v>1E-4</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E29">
-        <v>5.0004658095770503E-2</v>
+        <v>0.94125133174418496</v>
       </c>
       <c r="F29">
-        <v>0.81818181818181801</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -12293,19 +12635,19 @@
         <v>5</v>
       </c>
       <c r="C30" s="4">
-        <v>2.9999999999999997E-4</v>
+        <v>0.189</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E30">
-        <v>0.50004192247137602</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.63636363636363602</v>
+        <v>0.90909090909090895</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -12317,23 +12659,23 @@
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>1E-4</v>
+        <v>0.19740000000000002</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>0</v>
+        <v>8.5600000000000009E-2</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>0.15201397429599323</v>
+        <v>0.35722703317825283</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>0.90909090909090828</v>
+        <v>0.96363636363636229</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -12343,8 +12685,23 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D32">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E32">
+        <v>4.9233763620966302</v>
+      </c>
+      <c r="F32">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -12352,36 +12709,101 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>2E-3</v>
+      </c>
+      <c r="D34">
+        <v>1E-3</v>
+      </c>
+      <c r="E34">
+        <v>0.34619595732734398</v>
+      </c>
+      <c r="F34">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>2E-3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>3.50022925907211</v>
+      </c>
+      <c r="F35">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1E-3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0.210545031253594</v>
+      </c>
+      <c r="F36">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>4.5749999999999999E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2450866524374193</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.63636363636363547</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -12394,8 +12816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C6BC40-F70C-4D10-82BB-AEFF457793D3}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12436,7 +12858,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -12445,7 +12881,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1.5626169700088901</v>
+      </c>
+      <c r="F3">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -12454,7 +12904,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.210545031253594</v>
+      </c>
+      <c r="F4">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -12463,7 +12927,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4.16713456421582E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G5" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -12472,7 +12950,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -12481,25 +12973,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
+        <v>1E-4</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>0.36296666938092847</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>0.87272727272727246</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.6</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -12510,7 +13002,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -12519,7 +13025,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.94125133174418496</v>
+      </c>
+      <c r="F9">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12528,7 +13048,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.210545031253594</v>
+      </c>
+      <c r="F10">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -12537,7 +13071,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G11" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -12546,7 +13094,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -12555,25 +13117,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>0.2303592725995558</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
+        <v>0.87272727272727235</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -12584,6 +13146,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -12592,6 +13169,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3.50022925907211</v>
+      </c>
+      <c r="F15">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -12600,6 +13192,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.210545031253594</v>
+      </c>
+      <c r="F16">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -12608,6 +13215,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>4.16713456421582E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -12616,6 +13238,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>4.16713456421582E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -12624,25 +13261,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>0.75882339632200402</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
+        <v>0.87272727272727191</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>9.6</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -12653,7 +13290,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5.3151027430043597E-28</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -12662,6 +13313,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2.40011229158941</v>
+      </c>
+      <c r="F21">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -12670,6 +13336,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.21052631620999299</v>
+      </c>
+      <c r="F22">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -12678,6 +13359,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5.0348048519990804E-10</v>
+      </c>
+      <c r="F23">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -12686,6 +13382,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5.3151027430043597E-28</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -12694,25 +13405,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
+        <v>1E-4</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>0.52212772166057664</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>0.8363636363636362</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -12723,6 +13434,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -12731,6 +13457,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2.4001684360247202</v>
+      </c>
+      <c r="F27">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -12739,6 +13480,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.210545031253594</v>
+      </c>
+      <c r="F28">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -12747,6 +13503,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>4.16713456421582E-2</v>
+      </c>
+      <c r="F29">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -12755,6 +13526,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -12763,25 +13549,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>0.53047696258409449</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
+        <v>0.85454545454545416</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -12791,45 +13577,140 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1.5626169700088901</v>
+      </c>
+      <c r="F32">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>4.9233763620966302</v>
+      </c>
+      <c r="F33">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2.4001684360247202</v>
+      </c>
+      <c r="F34">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0.94125133174418496</v>
+      </c>
+      <c r="F35">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0.94125133174418496</v>
+      </c>
+      <c r="F36">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1537328863237222</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>4.5999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -12842,8 +13723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9248AFE5-6D72-442D-A64E-8C762DAE796E}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12884,7 +13765,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E2">
+        <v>0.59266745725132697</v>
+      </c>
+      <c r="F2">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G2" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -12893,7 +13788,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E3">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F3">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -12902,7 +13811,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -12911,7 +13834,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E5">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F5">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -12920,7 +13857,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F6">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -12929,26 +13880,11 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
-        <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -12958,7 +13894,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E8">
+        <v>0.89297411943375304</v>
+      </c>
+      <c r="F8">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G8" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -12967,7 +13917,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E9">
+        <v>5.00046788879219E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12976,7 +13940,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -12985,7 +13963,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E11">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F11">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -12994,7 +13986,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5.00046788879219E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G12" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -13003,25 +14009,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.6799999999999999E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:G13" si="0">AVERAGE(D8:D12)</f>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29860511736136836</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96363636363636451</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>10.6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -13032,6 +14038,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -13040,6 +14061,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F15">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -13048,6 +14084,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -13056,6 +14107,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E17">
+        <v>0.94125133174418496</v>
+      </c>
+      <c r="F17">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -13064,6 +14130,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F18">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -13072,25 +14153,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.48E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:G19" si="1">AVERAGE(D14:D18)</f>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38826711018773502</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7818181818181813</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -13101,7 +14182,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E20">
+        <v>0.59270489071016497</v>
+      </c>
+      <c r="F20">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G20" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -13110,6 +14205,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E21">
+        <v>0.21052631620999299</v>
+      </c>
+      <c r="F21">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -13118,6 +14228,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E22">
+        <v>4.9995321529083397E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -13126,6 +14251,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>7.8284338409758902E-24</v>
+      </c>
+      <c r="F23">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -13134,6 +14274,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5.3151027430043597E-28</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -13142,25 +14297,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.66E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ref="D25:G25" si="2">AVERAGE(D20:D24)</f>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17064530568984826</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98181818181818081</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>10.8</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -13171,6 +14326,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E26">
+        <v>0.59266745725132697</v>
+      </c>
+      <c r="F26">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -13179,6 +14349,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E27">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F27">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -13187,6 +14372,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E28">
+        <v>5.00046788879219E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -13195,6 +14395,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -13203,6 +14418,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -13211,25 +14441,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:G31" si="3">AVERAGE(D26:D30)</f>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.22854284914729878</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96363636363636263</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="3"/>
+        <v>10.6</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -13239,45 +14469,140 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E33">
+        <v>3.50022925907211</v>
+      </c>
+      <c r="F33">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E34">
+        <v>2.4001684360247202</v>
+      </c>
+      <c r="F34">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E35">
+        <v>2.4001684360247202</v>
+      </c>
+      <c r="F35">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1E-3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2.4001684360247202</v>
+      </c>
+      <c r="F36">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="4">AVERAGE(D32:D36)</f>
+        <v>1.4000000000000001E-4</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1401469134292541</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="4"/>
+        <v>0.472727272727273</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2</v>
       </c>
     </row>
   </sheetData>
@@ -13290,8 +14615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04C6F0-903F-4400-B975-A1052B483DFD}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13332,7 +14657,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E2">
+        <v>4.16713456421582E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G2" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -13341,7 +14680,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1.56261647518147</v>
+      </c>
+      <c r="F3">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -13350,7 +14703,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.50004193145604603</v>
+      </c>
+      <c r="F4">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -13359,7 +14726,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.21054495207898799</v>
+      </c>
+      <c r="F5">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -13368,7 +14749,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.50004193145604603</v>
+      </c>
+      <c r="F6">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -13377,25 +14772,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
+        <v>1.9199999999999998E-3</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>0.56298332716294164</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>0.72727272727272685</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -13406,7 +14801,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="C8">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E8">
+        <v>0.16001871598953801</v>
+      </c>
+      <c r="F8">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G8" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -13415,7 +14824,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="C9">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>0.89297411943375304</v>
+      </c>
+      <c r="F9">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G9" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -13424,7 +14847,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="C10">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E10">
+        <v>5.00046788879219E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -13433,7 +14870,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="C11">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E11">
+        <v>0.34619595732734398</v>
+      </c>
+      <c r="F11">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G11" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -13442,7 +14893,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="C12">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E12">
+        <v>1.24154775740332</v>
+      </c>
+      <c r="F12">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G12" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -13451,25 +14916,25 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="1" t="e">
+        <v>7.4800000000000005E-3</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="1" t="e">
+        <v>4.4000000000000012E-4</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>0.53814824580837539</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
+        <v>1.3272727272727276</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>14.6</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -13480,6 +14945,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E14">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F14">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -13488,6 +14968,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -13496,6 +14991,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E16">
+        <v>5.00046788879219E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -13504,6 +15014,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E17">
+        <v>0.59266745725132697</v>
+      </c>
+      <c r="F17">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -13512,6 +15037,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -13520,25 +15060,25 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="e">
+      <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
+        <v>6.660000000000001E-3</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
+        <v>0.2285428491472988</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
+        <v>1.0181818181818167</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>11.2</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -13549,7 +15089,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="C20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E20">
+        <v>0.50001403700305402</v>
+      </c>
+      <c r="F20">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G20" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -13558,6 +15112,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E21">
+        <v>4.9995321529083397E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -13566,6 +15135,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E22">
+        <v>0.89302091146317197</v>
+      </c>
+      <c r="F22">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G22">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -13574,6 +15158,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E23">
+        <v>0.34622403234814703</v>
+      </c>
+      <c r="F23">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -13582,6 +15181,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E24">
+        <v>0.16003743270498999</v>
+      </c>
+      <c r="F24">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G24">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -13590,25 +15204,25 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="e">
+      <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
+        <v>5.7599999999999995E-3</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="1" t="e">
+        <v>0.38985834700968935</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>1.1272727272727268</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>12.4</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -13619,6 +15233,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E26">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F26">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -13627,6 +15256,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -13635,6 +15279,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E28">
+        <v>0.89297411943375304</v>
+      </c>
+      <c r="F28">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G28">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -13643,6 +15302,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E29">
+        <v>0.34619595732734398</v>
+      </c>
+      <c r="F29">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -13651,6 +15325,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -13659,25 +15348,25 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="e">
+      <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="1" t="e">
+        <v>5.7800000000000004E-3</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="1" t="e">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="1" t="e">
+        <v>0.34784243727166836</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="1" t="e">
+        <v>1.1090909090909089</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -13687,45 +15376,140 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E32">
+        <v>5.00046788879219E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E33">
+        <v>0.16001871598953801</v>
+      </c>
+      <c r="F33">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E34">
+        <v>5.00046788879219E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E36">
+        <v>0.210545031253594</v>
+      </c>
+      <c r="F36">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>5.2599999999999999E-3</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>9.4114621003795168E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.94545454545454466</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>10.4</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D244919-8B5B-4AC1-866B-0DDCE2F36D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D02C40-7EEC-4D10-9071-160294FE1EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -11014,8 +11014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20C37C-F12C-4B5C-8871-96E5107A67AF}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11921,8 +11921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04706196-7530-409C-BA08-F702A456B135}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12817,7 +12817,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13724,7 +13724,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14615,8 +14615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04C6F0-903F-4400-B975-A1052B483DFD}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D02C40-7EEC-4D10-9071-160294FE1EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3644239-8FB8-4B07-8104-1FE02D2CBE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="380" windowWidth="21550" windowHeight="12550" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="27">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>fastGWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1688,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B0F070-3E08-4252-BC5E-AB830153CFAB}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="A1:I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4006,7 +4010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D1754A-8009-4413-844E-C178E0F660F9}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -4774,7 +4778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7688FC-4C2C-4512-BC31-0083D025305B}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C31" sqref="C31:G31"/>
     </sheetView>
   </sheetViews>
@@ -6321,7 +6325,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:G31"/>
+      <selection activeCell="C2" sqref="C2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6365,7 +6369,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -6374,7 +6392,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6383,7 +6415,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6392,7 +6438,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6401,7 +6461,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6410,25 +6484,25 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -7782,7 +7856,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8542,45 +8616,140 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>25</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8595,7 +8764,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8636,7 +8805,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8645,7 +8828,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -8654,7 +8851,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -8663,7 +8874,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8672,7 +8897,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -8681,25 +8920,20 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e">
-        <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="1" t="e">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -8830,19 +9064,19 @@
         <v>0.22481999999999996</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <f t="shared" ref="D13:G13" si="0">AVERAGE(D8:D12)</f>
         <v>0.11032</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.36684282667562379</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.254545454545454</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.8</v>
       </c>
       <c r="H13" s="3"/>
@@ -8974,19 +9208,19 @@
         <v>0.20224000000000003</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <f t="shared" ref="D19:G19" si="1">AVERAGE(D14:D18)</f>
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2108989617152801E-2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.89090909090909087</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="H19" s="3"/>
@@ -9118,19 +9352,19 @@
         <v>0.14413999999999999</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <f t="shared" ref="D25:G25" si="2">AVERAGE(D20:D24)</f>
         <v>5.5059999999999998E-2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.8672256503101877E-2</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1272727272727256</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.4</v>
       </c>
       <c r="H25" s="3"/>
@@ -9262,19 +9496,19 @@
         <v>0.14405999999999999</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <f t="shared" ref="D31:G31" si="3">AVERAGE(D26:D30)</f>
         <v>5.489999999999999E-2</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.0337991533255839E-2</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.1090909090909078</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12.2</v>
       </c>
     </row>
@@ -10107,7 +10341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2975F087-DB23-4644-B63A-BB6BF506CDA6}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -11015,7 +11249,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11921,8 +12155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04706196-7530-409C-BA08-F702A456B135}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:G33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12707,6 +12941,21 @@
       </c>
       <c r="B33">
         <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -14615,8 +14864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04C6F0-903F-4400-B975-A1052B483DFD}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3644239-8FB8-4B07-8104-1FE02D2CBE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F01CCF4-B530-41F9-8730-B36B3985EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="380" windowWidth="21550" windowHeight="12550" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="380" windowWidth="21550" windowHeight="12550" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="26">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
   </si>
   <si>
     <t>fastGWA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1692,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B0F070-3E08-4252-BC5E-AB830153CFAB}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -4779,7 +4775,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:G31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6325,7 +6321,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8764,7 +8760,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8805,20 +8801,20 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -8828,20 +8824,20 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -8851,20 +8847,20 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -8874,20 +8870,20 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -8897,20 +8893,20 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -8921,18 +8917,23 @@
         <v>16</v>
       </c>
       <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
         <v>0</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
         <v>0</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="3"/>
@@ -9064,19 +9065,19 @@
         <v>0.22481999999999996</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="0">AVERAGE(D8:D12)</f>
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
         <v>0.11032</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36684282667562379</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.254545454545454</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.8</v>
       </c>
       <c r="H13" s="3"/>
@@ -9208,19 +9209,19 @@
         <v>0.20224000000000003</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="1">AVERAGE(D14:D18)</f>
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2108989617152801E-2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89090909090909087</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="H19" s="3"/>
@@ -9352,19 +9353,19 @@
         <v>0.14413999999999999</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="2">AVERAGE(D20:D24)</f>
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
         <v>5.5059999999999998E-2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8672256503101877E-2</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1272727272727256</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.4</v>
       </c>
       <c r="H25" s="3"/>
@@ -9496,19 +9497,19 @@
         <v>0.14405999999999999</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="3">AVERAGE(D26:D30)</f>
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
         <v>5.489999999999999E-2</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0337991533255839E-2</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1090909090909078</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.2</v>
       </c>
     </row>
@@ -10341,7 +10342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2975F087-DB23-4644-B63A-BB6BF506CDA6}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -11248,7 +11249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20C37C-F12C-4B5C-8871-96E5107A67AF}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -12156,7 +12157,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12942,20 +12943,20 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -13036,23 +13037,23 @@
       </c>
       <c r="C37" s="1">
         <f>AVERAGE(C32:C36)</f>
-        <v>4.5749999999999999E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
-        <v>1.8499999999999999E-2</v>
+        <v>1.4799999999999999E-2</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="5"/>
-        <v>2.2450866524374193</v>
+        <v>1.7960693219499355</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="5"/>
-        <v>0.63636363636363547</v>
+        <v>0.50909090909090837</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
@@ -13065,7 +13066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C6BC40-F70C-4D10-82BB-AEFF457793D3}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -13972,8 +13973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9248AFE5-6D72-442D-A64E-8C762DAE796E}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14864,8 +14865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04C6F0-903F-4400-B975-A1052B483DFD}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F01CCF4-B530-41F9-8730-B36B3985EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB44F6F-CDBA-4EC8-A798-5DE01BD7251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="380" windowWidth="21550" windowHeight="12550" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="380" windowWidth="21550" windowHeight="12550" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -6321,7 +6321,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6365,21 +6365,6 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -6388,21 +6373,6 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6411,21 +6381,6 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6434,21 +6389,6 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6457,21 +6397,6 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6480,26 +6405,11 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -6629,19 +6539,19 @@
         <v>0.67180000000000006</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <f t="shared" ref="D13:G13" si="0">AVERAGE(D8:D12)</f>
         <v>0.56319999999999992</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1214617432868876</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4181818181818198</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.6</v>
       </c>
       <c r="H13" s="3"/>
@@ -6773,19 +6683,19 @@
         <v>0.67179999999999995</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <f t="shared" ref="D19:G19" si="1">AVERAGE(D14:D18)</f>
         <v>0.56440000000000001</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.94223662858467883</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1090909090909082</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.2</v>
       </c>
       <c r="H19" s="3"/>
@@ -6917,19 +6827,19 @@
         <v>0.60060000000000002</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <f t="shared" ref="D25:G25" si="2">AVERAGE(D20:D24)</f>
         <v>0.47499999999999998</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.59155757240575535</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2181818181818194</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13.4</v>
       </c>
       <c r="H25" s="3"/>
@@ -7061,19 +6971,19 @@
         <v>0.60040000000000004</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <f t="shared" ref="D31:G31" si="3">AVERAGE(D26:D30)</f>
         <v>0.4748</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.50661973514833814</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.1818181818181832</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -7087,7 +6997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB363B6-83B0-4456-878C-9CA1F7229770}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -7852,7 +7762,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="C32" sqref="C32:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8612,21 +8522,6 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -8635,21 +8530,6 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -8658,21 +8538,6 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -8681,21 +8546,6 @@
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -8704,21 +8554,6 @@
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -8727,26 +8562,11 @@
       <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="1">
-        <f>AVERAGE(C32:C36)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8760,7 +8580,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8801,21 +8621,6 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8824,21 +8629,6 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -8847,21 +8637,6 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -8870,21 +8645,6 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8893,21 +8653,6 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -8916,26 +8661,11 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -9065,19 +8795,19 @@
         <v>0.22481999999999996</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
+        <f t="shared" ref="D13:G13" si="0">AVERAGE(D8:D12)</f>
         <v>0.11032</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.36684282667562379</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.254545454545454</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.8</v>
       </c>
       <c r="H13" s="3"/>
@@ -9209,19 +8939,19 @@
         <v>0.20224000000000003</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
+        <f t="shared" ref="D19:G19" si="1">AVERAGE(D14:D18)</f>
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2108989617152801E-2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.89090909090909087</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="H19" s="3"/>
@@ -9353,19 +9083,19 @@
         <v>0.14413999999999999</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
+        <f t="shared" ref="D25:G25" si="2">AVERAGE(D20:D24)</f>
         <v>5.5059999999999998E-2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.8672256503101877E-2</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1272727272727256</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12.4</v>
       </c>
       <c r="H25" s="3"/>
@@ -9497,19 +9227,19 @@
         <v>0.14405999999999999</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
+        <f t="shared" ref="D31:G31" si="3">AVERAGE(D26:D30)</f>
         <v>5.489999999999999E-2</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.0337991533255839E-2</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.1090909090909078</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12.2</v>
       </c>
     </row>
@@ -12156,8 +11886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04706196-7530-409C-BA08-F702A456B135}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12943,21 +12673,6 @@
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -13037,23 +12752,23 @@
       </c>
       <c r="C37" s="1">
         <f>AVERAGE(C32:C36)</f>
-        <v>3.6600000000000001E-2</v>
+        <v>4.5749999999999999E-2</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
-        <v>1.4799999999999999E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="5"/>
-        <v>1.7960693219499355</v>
+        <v>2.2450866524374193</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="5"/>
-        <v>0.50909090909090837</v>
+        <v>0.63636363636363547</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="5"/>
-        <v>5.6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -13066,7 +12781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C6BC40-F70C-4D10-82BB-AEFF457793D3}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -13973,7 +13688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9248AFE5-6D72-442D-A64E-8C762DAE796E}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -14865,7 +14580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04C6F0-903F-4400-B975-A1052B483DFD}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB44F6F-CDBA-4EC8-A798-5DE01BD7251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6585C06-0DC9-47C1-BD06-0889F7B44465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="380" windowWidth="21550" windowHeight="12550" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -528,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -909,7 +909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -932,7 +932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -955,7 +955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -978,7 +978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1138,17 +1138,8 @@
       <c r="G26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1171,7 +1162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1194,7 +1185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1217,7 +1208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1240,7 +1231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1263,7 +1254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11886,7 +11877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04706196-7530-409C-BA08-F702A456B135}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6585C06-0DC9-47C1-BD06-0889F7B44465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F797DF9-B6B2-430F-8266-35A40EAD1EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -75,14 +75,6 @@
   </si>
   <si>
     <t>h2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># Causal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># Individuals</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,6 +155,14 @@
   </si>
   <si>
     <t>fastGWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Causal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Individuals</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -546,22 +546,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -607,7 +607,7 @@
         <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -630,7 +630,7 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
         <v>10000</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>10000</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -699,7 +699,7 @@
         <v>10000</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -722,7 +722,7 @@
         <v>1000</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -768,7 +768,7 @@
         <v>1000</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -791,7 +791,7 @@
         <v>10000</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>10000</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>10000</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>1000</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -906,7 +906,7 @@
         <v>1000</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -929,7 +929,7 @@
         <v>10000</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -952,7 +952,7 @@
         <v>10000</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -975,7 +975,7 @@
         <v>10000</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -998,7 +998,7 @@
         <v>1000</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
         <v>1000</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1067,7 +1067,7 @@
         <v>10000</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1090,7 +1090,7 @@
         <v>10000</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1113,7 +1113,7 @@
         <v>10000</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1124,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="7">
         <v>66688</v>
@@ -1136,7 +1136,7 @@
         <v>1000</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1147,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="7">
         <v>66688</v>
@@ -1159,7 +1159,7 @@
         <v>1000</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" s="7">
         <v>66688</v>
@@ -1182,7 +1182,7 @@
         <v>1000</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="7">
         <v>66688</v>
@@ -1205,7 +1205,7 @@
         <v>10000</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" s="7">
         <v>66688</v>
@@ -1228,7 +1228,7 @@
         <v>10000</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1239,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" s="7">
         <v>66688</v>
@@ -1251,7 +1251,7 @@
         <v>10000</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1262,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>10000</v>
@@ -1274,7 +1274,7 @@
         <v>1000</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>10000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1308,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34">
         <v>10000</v>
@@ -1320,7 +1320,7 @@
         <v>1000</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35">
         <v>10000</v>
@@ -1343,7 +1343,7 @@
         <v>10000</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1354,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>10000</v>
@@ -1366,7 +1366,7 @@
         <v>10000</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1377,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37">
         <v>10000</v>
@@ -1389,7 +1389,7 @@
         <v>10000</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1400,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38" s="7">
         <v>66688</v>
@@ -1412,7 +1412,7 @@
         <v>1000</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1423,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39" s="7">
         <v>66688</v>
@@ -1435,7 +1435,7 @@
         <v>1000</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D40" s="7">
         <v>66688</v>
@@ -1458,7 +1458,7 @@
         <v>1000</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1469,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D41" s="7">
         <v>66688</v>
@@ -1481,7 +1481,7 @@
         <v>10000</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1492,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42" s="7">
         <v>66688</v>
@@ -1504,7 +1504,7 @@
         <v>10000</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1515,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" s="7">
         <v>66688</v>
@@ -1527,7 +1527,7 @@
         <v>10000</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D44">
         <v>10000</v>
@@ -1550,7 +1550,7 @@
         <v>1000</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1561,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <v>10000</v>
@@ -1573,7 +1573,7 @@
         <v>1000</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1584,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46">
         <v>10000</v>
@@ -1596,7 +1596,7 @@
         <v>1000</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1607,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D47">
         <v>10000</v>
@@ -1619,7 +1619,7 @@
         <v>10000</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <v>10000</v>
@@ -1642,7 +1642,7 @@
         <v>10000</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1653,7 +1653,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49">
         <v>10000</v>
@@ -1665,7 +1665,7 @@
         <v>10000</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1696,36 +1696,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2272,10 +2272,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -2467,36 +2467,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2611,10 +2611,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -2899,10 +2899,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -3241,36 +3241,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -3529,10 +3529,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -3673,10 +3673,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -4009,36 +4009,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -4297,10 +4297,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -4729,10 +4729,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -4777,36 +4777,36 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4921,10 +4921,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -5211,10 +5211,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -5356,10 +5356,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -5555,36 +5555,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -5820,7 +5820,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -5843,10 +5843,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -5987,10 +5987,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -6085,7 +6085,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -6131,10 +6131,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -6206,7 +6206,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -6275,10 +6275,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -6322,36 +6322,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6391,10 +6391,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -6520,10 +6520,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -6641,7 +6641,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -6664,10 +6664,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -6952,10 +6952,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -6996,36 +6996,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7094,7 +7094,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7140,10 +7140,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -7169,7 +7169,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -7284,10 +7284,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -7428,10 +7428,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7480,7 +7480,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -7549,7 +7549,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -7572,10 +7572,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -7716,10 +7716,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -7760,36 +7760,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7835,7 +7835,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7858,7 +7858,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7904,10 +7904,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -7979,7 +7979,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -8002,7 +8002,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -8025,7 +8025,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -8100,7 +8100,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -8123,7 +8123,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -8192,10 +8192,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -8244,7 +8244,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -8336,10 +8336,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -8388,7 +8388,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -8411,7 +8411,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -8434,7 +8434,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -8457,7 +8457,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -8480,10 +8480,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -8508,7 +8508,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8516,7 +8516,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -8548,10 +8548,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -8578,36 +8578,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8647,10 +8647,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -8661,7 +8661,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -8684,7 +8684,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -8776,10 +8776,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -8874,7 +8874,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -8920,10 +8920,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -9018,7 +9018,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -9041,7 +9041,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -9064,10 +9064,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -9116,7 +9116,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -9139,7 +9139,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -9162,7 +9162,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -9208,10 +9208,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -9260,7 +9260,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -9276,10 +9276,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -9292,8 +9292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9306,36 +9306,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9358,7 +9358,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -9381,7 +9381,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -9427,7 +9427,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -9450,10 +9450,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -9502,7 +9502,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -9525,7 +9525,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -9571,7 +9571,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -9594,10 +9594,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -9646,7 +9646,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -9715,7 +9715,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -9738,10 +9738,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -9767,7 +9767,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -9813,7 +9813,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -9882,10 +9882,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -9934,7 +9934,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -10026,10 +10026,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -10071,36 +10071,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -10146,7 +10146,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -10169,7 +10169,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -10192,7 +10192,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -10215,10 +10215,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -10244,7 +10244,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -10267,7 +10267,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -10290,7 +10290,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -10336,7 +10336,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -10359,10 +10359,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -10388,7 +10388,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -10411,7 +10411,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -10480,7 +10480,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -10503,10 +10503,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -10532,7 +10532,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -10555,7 +10555,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -10578,7 +10578,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -10624,7 +10624,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -10647,10 +10647,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -10676,7 +10676,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -10699,7 +10699,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -10722,7 +10722,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -10768,7 +10768,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -10791,10 +10791,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -10819,7 +10819,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -10842,7 +10842,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -10888,7 +10888,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -10911,7 +10911,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -10934,10 +10934,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1">
         <f>AVERAGE(C32:C36)</f>
@@ -10978,36 +10978,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11030,7 +11030,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11053,7 +11053,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -11076,7 +11076,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -11099,7 +11099,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -11122,10 +11122,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -11151,7 +11151,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -11174,7 +11174,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -11197,7 +11197,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -11220,7 +11220,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -11266,10 +11266,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -11295,7 +11295,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -11364,7 +11364,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -11387,7 +11387,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -11410,10 +11410,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -11439,7 +11439,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -11485,7 +11485,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -11508,7 +11508,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -11531,7 +11531,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -11554,10 +11554,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -11583,7 +11583,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -11629,7 +11629,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -11652,7 +11652,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -11675,7 +11675,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -11698,10 +11698,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -11726,7 +11726,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -11772,7 +11772,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -11795,7 +11795,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -11818,7 +11818,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -11841,10 +11841,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1">
         <f>AVERAGE(C32:C36)</f>
@@ -11888,36 +11888,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11940,7 +11940,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -11986,7 +11986,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -12009,7 +12009,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -12032,10 +12032,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -12061,7 +12061,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -12084,7 +12084,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -12130,7 +12130,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -12176,10 +12176,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -12205,7 +12205,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -12228,7 +12228,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -12274,7 +12274,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -12320,10 +12320,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -12372,7 +12372,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -12395,7 +12395,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -12418,7 +12418,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -12441,7 +12441,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -12464,10 +12464,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -12493,7 +12493,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -12516,7 +12516,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -12539,7 +12539,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -12562,7 +12562,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -12608,10 +12608,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -12636,7 +12636,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -12659,7 +12659,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -12667,7 +12667,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -12690,7 +12690,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -12736,10 +12736,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1">
         <f>AVERAGE(C32:C36)</f>
@@ -12780,36 +12780,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -12832,7 +12832,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -12855,7 +12855,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -12901,7 +12901,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -12924,10 +12924,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -12953,7 +12953,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -12976,7 +12976,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -13022,7 +13022,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -13045,7 +13045,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -13068,10 +13068,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -13097,7 +13097,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -13120,7 +13120,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -13143,7 +13143,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -13166,7 +13166,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -13212,10 +13212,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -13241,7 +13241,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -13264,7 +13264,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -13287,7 +13287,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -13310,7 +13310,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -13333,7 +13333,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -13356,10 +13356,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -13385,7 +13385,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -13408,7 +13408,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -13431,7 +13431,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -13454,7 +13454,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -13477,7 +13477,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -13500,10 +13500,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -13528,7 +13528,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -13551,7 +13551,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -13574,7 +13574,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -13597,7 +13597,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -13620,7 +13620,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -13643,10 +13643,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1">
         <f>AVERAGE(C32:C36)</f>
@@ -13687,36 +13687,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13739,7 +13739,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13762,7 +13762,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -13785,7 +13785,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13808,7 +13808,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -13831,10 +13831,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -13845,7 +13845,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -13868,7 +13868,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -13891,7 +13891,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -13914,7 +13914,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -13937,7 +13937,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -13960,10 +13960,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -13989,7 +13989,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -14012,7 +14012,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -14035,7 +14035,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -14058,7 +14058,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -14081,7 +14081,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -14104,10 +14104,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -14156,7 +14156,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -14179,7 +14179,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -14202,7 +14202,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -14225,7 +14225,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -14248,10 +14248,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -14277,7 +14277,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -14300,7 +14300,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -14323,7 +14323,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -14346,7 +14346,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -14392,10 +14392,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -14420,7 +14420,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -14443,7 +14443,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -14466,7 +14466,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -14489,7 +14489,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -14512,7 +14512,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -14535,10 +14535,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1">
         <f>AVERAGE(C32:C36)</f>
@@ -14579,36 +14579,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14631,7 +14631,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -14654,7 +14654,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -14677,7 +14677,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -14700,7 +14700,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -14723,10 +14723,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -14752,7 +14752,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -14775,7 +14775,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -14798,7 +14798,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -14821,7 +14821,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -14844,7 +14844,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -14867,10 +14867,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -14896,7 +14896,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -14919,7 +14919,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -14942,7 +14942,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -14965,7 +14965,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -14988,7 +14988,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -15011,10 +15011,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -15040,7 +15040,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -15063,7 +15063,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -15086,7 +15086,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -15109,7 +15109,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -15132,7 +15132,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -15155,10 +15155,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -15184,7 +15184,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -15207,7 +15207,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -15253,7 +15253,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -15276,7 +15276,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -15299,10 +15299,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -15327,7 +15327,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -15350,7 +15350,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -15373,7 +15373,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -15396,7 +15396,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -15419,7 +15419,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -15442,10 +15442,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1">
         <f>AVERAGE(C32:C36)</f>
@@ -15479,7 +15479,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:G30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15495,36 +15495,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15547,7 +15547,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15570,7 +15570,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -15593,7 +15593,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15616,7 +15616,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -15639,10 +15639,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -15668,7 +15668,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -15691,7 +15691,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -15714,7 +15714,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -15737,7 +15737,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -15760,7 +15760,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -15783,10 +15783,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -15812,7 +15812,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -15835,7 +15835,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -15858,7 +15858,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -15881,7 +15881,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -15904,7 +15904,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -15927,10 +15927,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -15956,7 +15956,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -15979,7 +15979,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -16002,7 +16002,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -16025,7 +16025,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -16048,7 +16048,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -16071,10 +16071,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -16100,7 +16100,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -16123,7 +16123,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -16146,7 +16146,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -16169,7 +16169,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -16192,7 +16192,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -16215,10 +16215,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -16252,8 +16252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3A14D-1289-4BD6-9B05-2DAAD3D257CE}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16265,36 +16265,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -16317,7 +16317,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -16340,7 +16340,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -16363,7 +16363,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -16386,7 +16386,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -16409,10 +16409,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -16438,7 +16438,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -16484,7 +16484,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -16507,7 +16507,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -16530,7 +16530,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -16553,10 +16553,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -16582,7 +16582,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -16605,7 +16605,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -16628,7 +16628,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -16651,7 +16651,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -16674,7 +16674,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -16697,10 +16697,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -16726,7 +16726,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -16749,7 +16749,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -16772,7 +16772,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -16795,7 +16795,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -16818,7 +16818,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -16841,10 +16841,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -16870,7 +16870,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -16893,7 +16893,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -16916,7 +16916,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -16939,7 +16939,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -16962,7 +16962,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -16985,10 +16985,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" ref="C31:D31" si="13">AVERAGE(C26:C30)</f>
@@ -17023,7 +17023,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17039,36 +17039,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17091,7 +17091,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17114,7 +17114,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17137,7 +17137,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -17160,7 +17160,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -17183,10 +17183,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -17212,7 +17212,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -17235,7 +17235,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -17258,7 +17258,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -17281,7 +17281,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -17304,7 +17304,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -17327,10 +17327,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -17356,7 +17356,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -17379,7 +17379,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -17402,7 +17402,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -17425,7 +17425,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -17448,7 +17448,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -17471,10 +17471,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -17500,7 +17500,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -17523,7 +17523,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -17546,7 +17546,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -17569,7 +17569,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -17592,7 +17592,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -17615,10 +17615,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -17644,7 +17644,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -17652,7 +17652,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -17660,7 +17660,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -17668,7 +17668,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -17676,7 +17676,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -17684,10 +17684,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -17722,36 +17722,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -17774,7 +17774,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -17797,7 +17797,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -17820,7 +17820,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -17843,7 +17843,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -17866,10 +17866,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -17895,7 +17895,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -17918,7 +17918,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -17964,7 +17964,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -17987,7 +17987,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -18010,10 +18010,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -18039,7 +18039,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -18062,7 +18062,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -18085,7 +18085,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -18108,7 +18108,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -18131,7 +18131,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -18154,10 +18154,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -18183,7 +18183,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -18206,7 +18206,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -18229,7 +18229,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -18252,7 +18252,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -18275,7 +18275,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -18298,10 +18298,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -18327,7 +18327,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -18351,7 +18351,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -18359,7 +18359,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -18367,10 +18367,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="e">
         <f>AVERAGE(C26:C30)</f>
@@ -18421,36 +18421,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -18473,7 +18473,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -18496,7 +18496,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -18519,7 +18519,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -18542,7 +18542,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -18565,10 +18565,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -18594,7 +18594,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -18617,7 +18617,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -18640,7 +18640,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -18686,7 +18686,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -18709,10 +18709,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -18738,7 +18738,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -18761,7 +18761,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -18784,7 +18784,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -18807,7 +18807,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -18830,7 +18830,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -18853,10 +18853,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -18882,7 +18882,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -18905,7 +18905,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -18928,7 +18928,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -18974,7 +18974,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -18997,10 +18997,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -19034,7 +19034,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -19042,7 +19042,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -19050,7 +19050,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -19058,7 +19058,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -19066,10 +19066,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="e">
         <f>AVERAGE(C26:C30)</f>
@@ -19120,36 +19120,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -19172,7 +19172,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -19195,7 +19195,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -19218,7 +19218,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -19241,7 +19241,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -19264,10 +19264,10 @@
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -19294,7 +19294,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -19317,7 +19317,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -19340,7 +19340,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -19363,7 +19363,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -19386,7 +19386,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -19409,10 +19409,10 @@
     </row>
     <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -19439,7 +19439,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -19462,7 +19462,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -19485,7 +19485,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -19508,7 +19508,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -19531,7 +19531,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -19554,10 +19554,10 @@
     </row>
     <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -19584,7 +19584,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -19607,7 +19607,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -19630,7 +19630,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -19653,7 +19653,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -19676,7 +19676,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -19699,10 +19699,10 @@
     </row>
     <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -19752,7 +19752,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -19775,7 +19775,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -19798,7 +19798,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -19821,7 +19821,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -19844,10 +19844,10 @@
     </row>
     <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>
@@ -19900,36 +19900,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -19952,7 +19952,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -19975,7 +19975,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -19998,7 +19998,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -20021,7 +20021,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -20044,10 +20044,10 @@
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -20097,7 +20097,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -20143,7 +20143,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -20166,7 +20166,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -20189,10 +20189,10 @@
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C8:C12)</f>
@@ -20219,7 +20219,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -20242,7 +20242,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -20265,7 +20265,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -20288,7 +20288,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -20311,7 +20311,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -20334,10 +20334,10 @@
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(C14:C18)</f>
@@ -20364,7 +20364,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -20387,7 +20387,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -20410,7 +20410,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -20433,7 +20433,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -20456,7 +20456,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -20479,10 +20479,10 @@
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C20:C24)</f>
@@ -20509,7 +20509,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -20532,7 +20532,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -20555,7 +20555,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -20578,7 +20578,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -20601,7 +20601,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -20624,10 +20624,10 @@
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1">
         <f>AVERAGE(C26:C30)</f>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F797DF9-B6B2-430F-8266-35A40EAD1EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F84008-DE62-4DFA-83A3-60B64CA6E25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="27">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>Individuals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta_analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9290,10 +9294,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10050,6 +10054,197 @@
       <c r="G31" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="D38">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E38">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F38">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F39">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F40">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E41">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F41">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.21054495937538101</v>
+      </c>
+      <c r="F42">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1">
+        <f>AVERAGE(C38:C42)</f>
+        <v>2.5199999999999997E-3</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" ref="D43:G43" si="5">AVERAGE(D38:D42)</f>
+        <v>5.2000000000000006E-4</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="5"/>
+        <v>0.21054495937538104</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F84008-DE62-4DFA-83A3-60B64CA6E25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF02291-7C3E-41AC-BC52-77016528A40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9297,7 +9297,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A43"/>
+      <selection activeCell="C43" sqref="C43:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10135,19 +10135,19 @@
         <v>2</v>
       </c>
       <c r="C39" s="4">
-        <v>5.9999999999999995E-4</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="E39">
-        <v>0.21054495937538101</v>
+        <v>0.94125104423670403</v>
       </c>
       <c r="F39">
-        <v>0.72727272727272696</v>
+        <v>0.54545454545454497</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -10158,19 +10158,19 @@
         <v>3</v>
       </c>
       <c r="C40" s="4">
-        <v>4.0000000000000002E-4</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="E40">
-        <v>0.21054495937538101</v>
+        <v>2.40016778914497</v>
       </c>
       <c r="F40">
-        <v>0.72727272727272696</v>
+        <v>0.36363636363636398</v>
       </c>
       <c r="G40">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -10181,19 +10181,19 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>1.4E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="D41" s="4">
-        <v>4.0000000000000002E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E41">
-        <v>0.21054495937538101</v>
+        <v>0.500041947872777</v>
       </c>
       <c r="F41">
-        <v>0.72727272727272696</v>
+        <v>0.63636363636363602</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -10204,19 +10204,19 @@
         <v>5</v>
       </c>
       <c r="C42" s="4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D42" s="4">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E42">
-        <v>0.21054495937538101</v>
+        <v>0.89297367015715901</v>
       </c>
       <c r="F42">
-        <v>0.72727272727272696</v>
+        <v>1.5454545454545501</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -10228,23 +10228,23 @@
       </c>
       <c r="C43" s="1">
         <f>AVERAGE(C38:C42)</f>
-        <v>2.5199999999999997E-3</v>
+        <v>8.7600000000000004E-3</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" ref="D43:G43" si="5">AVERAGE(D38:D42)</f>
-        <v>5.2000000000000006E-4</v>
+        <v>1.4E-3</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="5"/>
-        <v>0.21054495937538104</v>
+        <v>0.9889958821573982</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="5"/>
-        <v>0.72727272727272696</v>
+        <v>0.76363636363636433</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF02291-7C3E-41AC-BC52-77016528A40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E89962-50C4-4FCE-A5AD-8EAD87236800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="27">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1681,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B0F070-3E08-4252-BC5E-AB830153CFAB}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2446,6 +2446,102 @@
         <v>14.4</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2454,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D0F3E4-126B-4D1F-8D8C-1E5EC2BB6A13}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:I31"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3217,6 +3313,102 @@
         <v>7.6</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3226,10 +3418,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE49171-5CE2-490B-906E-D772E15293F0}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3991,6 +4183,102 @@
         <v>12.2</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3999,10 +4287,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D1754A-8009-4413-844E-C178E0F660F9}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4759,6 +5047,102 @@
         <v>12.2</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4767,10 +5151,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7688FC-4C2C-4512-BC31-0083D025305B}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5531,12 +5915,106 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5546,10 +6024,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EB34C9-5F79-47A3-A007-337BEEEE3FA8}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6305,6 +6783,102 @@
         <v>11.8</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6313,10 +6887,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00581F9-66D8-45F1-B5EC-CD140A76E77B}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6982,6 +7556,102 @@
         <v>13</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6990,10 +7660,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB363B6-83B0-4456-878C-9CA1F7229770}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7744,6 +8414,102 @@
       <c r="G31" s="1">
         <f t="shared" si="4"/>
         <v>10.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7754,10 +8520,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB5483-70B0-4819-A385-62FBD4CA57ED}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:G37"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8562,6 +9328,54 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8572,10 +9386,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C170617E-339E-484E-BFD1-BF0116E2FED1}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="C7:G7"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9283,6 +10097,54 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9296,8 +10158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:G43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10256,10 +11118,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2975F087-DB23-4644-B63A-BB6BF506CDA6}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11153,6 +12015,54 @@
       <c r="G37" s="1">
         <f t="shared" si="5"/>
         <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -11163,10 +12073,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20C37C-F12C-4B5C-8871-96E5107A67AF}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12060,6 +12970,54 @@
       <c r="G37" s="1">
         <f t="shared" si="5"/>
         <v>6.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -12070,10 +13028,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04706196-7530-409C-BA08-F702A456B135}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12957,6 +13915,54 @@
         <v>7</v>
       </c>
     </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12965,10 +13971,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C6BC40-F70C-4D10-82BB-AEFF457793D3}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13862,6 +14868,54 @@
       <c r="G37" s="1">
         <f t="shared" si="5"/>
         <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -13872,10 +14926,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9248AFE5-6D72-442D-A64E-8C762DAE796E}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14754,6 +15808,54 @@
       <c r="G37" s="1">
         <f t="shared" si="4"/>
         <v>5.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -14764,10 +15866,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04C6F0-903F-4400-B975-A1052B483DFD}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15661,6 +16763,54 @@
       <c r="G37" s="1">
         <f t="shared" si="5"/>
         <v>10.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -15671,10 +16821,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11225FA-001A-452B-B018-0BA76F437E3E}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16436,6 +17586,102 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16445,10 +17691,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3A14D-1289-4BD6-9B05-2DAAD3D257CE}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17206,6 +18452,102 @@
         <v>13.6</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17215,10 +18557,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2C2262-D4CD-4119-9A2F-0BCDC716C93A}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17889,6 +19231,102 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17898,10 +19336,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE257CF-B10A-4384-A656-F327A1992158}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18588,6 +20026,102 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18597,10 +20131,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0043F160-E904-4E92-8933-18F9C8B6441C}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19287,6 +20821,102 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19296,10 +20926,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F79F0E7-5AA4-486A-8115-846DCE711579}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20067,6 +21697,102 @@
       <c r="H31"/>
       <c r="I31"/>
     </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20076,10 +21802,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648D3C57-6ABD-4DBA-B233-45AECCD16589}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A32" sqref="A32:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20847,6 +22573,102 @@
       <c r="H31"/>
       <c r="I31"/>
     </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E89962-50C4-4FCE-A5AD-8EAD87236800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9E693E-DE80-4AB6-ACFD-C81A0BFAF3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="29">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,14 @@
   </si>
   <si>
     <t>Meta_analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>META_BOLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>META_LDAK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10156,10 +10164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10968,7 +10976,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -10991,7 +10999,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -11014,7 +11022,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -11037,7 +11045,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -11060,7 +11068,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -11083,7 +11091,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -11106,6 +11114,149 @@
       </c>
       <c r="G43" s="1">
         <f t="shared" si="5"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D44">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E44">
+        <v>0.94125104423670403</v>
+      </c>
+      <c r="F44">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="D45">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E45">
+        <v>0.500041947872777</v>
+      </c>
+      <c r="F45">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="D46" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E46">
+        <v>1.5626165207826499</v>
+      </c>
+      <c r="F46">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="D47">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E47">
+        <v>0.500041947872777</v>
+      </c>
+      <c r="F47">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D48" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E48">
+        <v>0.89297367015715901</v>
+      </c>
+      <c r="F48">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1">
+        <f>AVERAGE(C44:C48)</f>
+        <v>8.9599999999999992E-3</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" ref="D49:G49" si="6">AVERAGE(D44:D48)</f>
+        <v>1.3600000000000001E-3</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="6"/>
+        <v>0.87938502618441328</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="6"/>
+        <v>0.76363636363636433</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="6"/>
         <v>8.4</v>
       </c>
     </row>
@@ -15868,8 +16019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04C6F0-903F-4400-B975-A1052B483DFD}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9E693E-DE80-4AB6-ACFD-C81A0BFAF3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ECA2B1-04EC-4BC4-814C-FB6244653EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10166,8 +10166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ECA2B1-04EC-4BC4-814C-FB6244653EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD81A6C-CA81-4A9F-8108-69A83EB36465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1_Simulation_Info" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1691,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B0F070-3E08-4252-BC5E-AB830153CFAB}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2461,48 +2461,143 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D32">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E32">
+        <v>1.5626169700088901</v>
+      </c>
+      <c r="F32">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.06</v>
+      </c>
+      <c r="E33">
+        <v>4.9233763620966302</v>
+      </c>
+      <c r="F33">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>0.18</v>
+      </c>
+      <c r="D34">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.94125133174418496</v>
+      </c>
+      <c r="F34">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="D35">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.59266745725132697</v>
+      </c>
+      <c r="F35">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>0.158</v>
+      </c>
+      <c r="D36">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E36">
+        <v>1.5626169700088901</v>
+      </c>
+      <c r="F36">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>0.18300000000000002</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9165058182219845</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.61818181818181739</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -2510,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -2518,7 +2613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -2526,7 +2621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -2534,7 +2629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -2542,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -2560,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D0F3E4-126B-4D1F-8D8C-1E5EC2BB6A13}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3328,48 +3423,143 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2.4001684360247202</v>
+      </c>
+      <c r="F32">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3.50022925907211</v>
+      </c>
+      <c r="F33">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1.5626169700088901</v>
+      </c>
+      <c r="F36">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4926029330211441</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.65454545454545432</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -3377,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -3385,7 +3575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -3393,7 +3583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -3401,7 +3591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -3409,7 +3599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -3428,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE49171-5CE2-490B-906E-D772E15293F0}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4198,48 +4388,143 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2.4001684360247202</v>
+      </c>
+      <c r="F32">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>1E-3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.210545031253594</v>
+      </c>
+      <c r="F33">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1.5626169700088901</v>
+      </c>
+      <c r="F34">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>3.50022925907211</v>
+      </c>
+      <c r="F35">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>9.0913769599993195</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>7.5999999999999993E-4</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3529873312717271</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.36363636363636376</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4247,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4255,7 +4540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -4263,7 +4548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -4271,7 +4556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -4279,7 +4564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -4297,8 +4582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D1754A-8009-4413-844E-C178E0F660F9}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5062,16 +5347,46 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2.4001684360247202</v>
+      </c>
+      <c r="F32">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.94125133174418496</v>
+      </c>
+      <c r="F33">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -5079,31 +5394,81 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E35">
+        <v>0.94125133174418496</v>
+      </c>
+      <c r="F35">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E36">
+        <v>7.9039551330447004</v>
+      </c>
+      <c r="F36">
+        <v>2.7272727272727302</v>
+      </c>
+      <c r="G36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>2.2750000000000001E-3</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0466565581394476</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0454545454545461</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -5111,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -5119,7 +5484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -5127,7 +5492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5135,7 +5500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -5143,7 +5508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -5162,7 +5527,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6898,7 +7263,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6942,6 +7307,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="E2">
+        <v>3.5002282403137599</v>
+      </c>
+      <c r="F2">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -6950,6 +7330,21 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="E3">
+        <v>9.0913748809588792</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6958,6 +7353,21 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E4">
+        <v>9.0913748809588792</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6966,6 +7376,21 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="E5">
+        <v>4.9233750314859099</v>
+      </c>
+      <c r="F5">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6974,6 +7399,21 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E6">
+        <v>2.40016768754221</v>
+      </c>
+      <c r="F6">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6982,11 +7422,26 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.78820000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.71779999999999988</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8013041442519278</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1636363636363638</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -7116,19 +7571,19 @@
         <v>0.67180000000000006</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="0">AVERAGE(D8:D12)</f>
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
         <v>0.56319999999999992</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1214617432868876</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4181818181818198</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.6</v>
       </c>
       <c r="H13" s="3"/>
@@ -7260,19 +7715,19 @@
         <v>0.67179999999999995</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="1">AVERAGE(D14:D18)</f>
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
         <v>0.56440000000000001</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94223662858467883</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1090909090909082</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.2</v>
       </c>
       <c r="H19" s="3"/>
@@ -7404,19 +7859,19 @@
         <v>0.60060000000000002</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="2">AVERAGE(D20:D24)</f>
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
         <v>0.47499999999999998</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59155757240575535</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2181818181818194</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.4</v>
       </c>
       <c r="H25" s="3"/>
@@ -7548,19 +8003,19 @@
         <v>0.60040000000000004</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="3">AVERAGE(D26:D30)</f>
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
         <v>0.4748</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.50661973514833814</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1818181818181832</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -7671,7 +8126,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8530,8 +8985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EB5483-70B0-4819-A385-62FBD4CA57ED}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9397,7 +9852,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9438,6 +9893,21 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.1961</v>
+      </c>
+      <c r="E2">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F2">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -9446,6 +9916,21 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.1988</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -9454,6 +9939,21 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.89297359959113698</v>
+      </c>
+      <c r="F4">
+        <v>1.5454545454545501</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -9462,6 +9962,21 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>0.34389999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F5">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -9470,6 +9985,21 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>0.3397</v>
+      </c>
+      <c r="D6">
+        <v>0.2079</v>
+      </c>
+      <c r="E6">
+        <v>0.94125099907908005</v>
+      </c>
+      <c r="F6">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -9478,11 +10008,26 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.33494000000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.20002</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65510350404413464</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85454545454545516</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -9612,19 +10157,19 @@
         <v>0.22481999999999996</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:G13" si="0">AVERAGE(D8:D12)</f>
+        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
         <v>0.11032</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36684282667562379</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.254545454545454</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.8</v>
       </c>
       <c r="H13" s="3"/>
@@ -9756,19 +10301,19 @@
         <v>0.20224000000000003</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:G19" si="1">AVERAGE(D14:D18)</f>
+        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2108989617152801E-2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89090909090909087</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="H19" s="3"/>
@@ -9900,19 +10445,19 @@
         <v>0.14413999999999999</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:G25" si="2">AVERAGE(D20:D24)</f>
+        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
         <v>5.5059999999999998E-2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8672256503101877E-2</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1272727272727256</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.4</v>
       </c>
       <c r="H25" s="3"/>
@@ -10044,19 +10589,19 @@
         <v>0.14405999999999999</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:G31" si="3">AVERAGE(D26:D30)</f>
+        <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
         <v>5.489999999999999E-2</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0337991533255839E-2</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1090909090909078</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.2</v>
       </c>
     </row>
@@ -10166,7 +10711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A6F92E-BBD1-407C-BE49-0F8B10B62C01}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -11271,8 +11816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2975F087-DB23-4644-B63A-BB6BF506CDA6}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13181,8 +13726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04706196-7530-409C-BA08-F702A456B135}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16019,8 +16564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D04C6F0-903F-4400-B975-A1052B483DFD}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16975,7 +17520,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -20285,7 +20830,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21079,8 +21624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F79F0E7-5AA4-486A-8115-846DCE711579}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21855,48 +22400,143 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1E-3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>4.16713456421582E-2</v>
+      </c>
+      <c r="F32">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>1E-3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2.4001684360247202</v>
+      </c>
+      <c r="F33">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1.5626169700088901</v>
+      </c>
+      <c r="F34">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>5.00046788879219E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0.94125133174418496</v>
+      </c>
+      <c r="F36">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.99914255246157513</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6727272727272724</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -21904,7 +22544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -21912,7 +22552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -21920,7 +22560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -21928,7 +22568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -21936,7 +22576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -21955,8 +22595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648D3C57-6ABD-4DBA-B233-45AECCD16589}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -22731,48 +23371,143 @@
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D32">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.94125133174418496</v>
+      </c>
+      <c r="F32">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D33">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E33">
+        <v>2.4001684360247202</v>
+      </c>
+      <c r="F33">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E34">
+        <v>1.5626169700088901</v>
+      </c>
+      <c r="F34">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.02</v>
+      </c>
+      <c r="E35">
+        <v>0.50004210959724504</v>
+      </c>
+      <c r="F35">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D36">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E36">
+        <v>5.00046788879219E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <f>AVERAGE(C32:C36)</f>
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:G37" si="5">AVERAGE(D32:D36)</f>
+        <v>2.0200000000000003E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0908167052525923</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -22780,7 +23515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -22788,7 +23523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -22796,7 +23531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -22804,7 +23539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -22812,7 +23547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>

--- a/Tables/Table3_T1EandPower_Simulated.xlsx
+++ b/Tables/Table3_T1EandPower_Simulated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\type1error_power\Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD81A6C-CA81-4A9F-8108-69A83EB36465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C96BC8-FABE-476F-B6E9-CAD349D3DF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="28">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
   </si>
   <si>
     <t>Individuals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meta_analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1689,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B0F070-3E08-4252-BC5E-AB830153CFAB}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A38" sqref="A38:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2599,7 +2595,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2607,7 +2603,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2615,7 +2611,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2623,7 +2619,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -2631,7 +2627,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -2639,9 +2635,57 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2653,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D0F3E4-126B-4D1F-8D8C-1E5EC2BB6A13}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:G37"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3561,7 +3605,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3569,7 +3613,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3577,7 +3621,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -3585,7 +3629,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -3593,7 +3637,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -3601,9 +3645,57 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3616,10 +3708,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE49171-5CE2-490B-906E-D772E15293F0}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="A38" sqref="A38:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4526,7 +4618,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4534,7 +4626,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -4542,7 +4634,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -4550,7 +4642,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -4558,7 +4650,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -4566,9 +4658,57 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7"